--- a/BackTest/2019-10-19 BackTest PAY.xlsx
+++ b/BackTest/2019-10-19 BackTest PAY.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-100</v>
+      </c>
       <c r="L12" t="n">
         <v>94.71000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-100</v>
+      </c>
       <c r="L13" t="n">
         <v>94.69000000000001</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.2999999999999972</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-100</v>
+      </c>
       <c r="L14" t="n">
         <v>94.66000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.2999999999999972</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-100</v>
+      </c>
       <c r="L15" t="n">
         <v>94.64000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.2999999999999972</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-100</v>
+      </c>
       <c r="L16" t="n">
         <v>94.62</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.3999999999999915</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-33.33333333333649</v>
+      </c>
       <c r="L17" t="n">
         <v>94.60999999999999</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.3999999999999915</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-33.33333333333649</v>
+      </c>
       <c r="L18" t="n">
         <v>94.59999999999998</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.3999999999999915</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-33.33333333333649</v>
+      </c>
       <c r="L19" t="n">
         <v>94.58999999999996</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.3999999999999915</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-33.33333333333649</v>
+      </c>
       <c r="L20" t="n">
         <v>94.57999999999996</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.3999999999999915</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>94.56999999999994</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.3999999999999915</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>94.56999999999992</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.3999999999999915</v>
       </c>
       <c r="K23" t="n">
-        <v>-50.00000000000178</v>
+        <v>100</v>
       </c>
       <c r="L23" t="n">
         <v>94.56999999999992</v>
@@ -1466,7 +1488,7 @@
         <v>0.4999999999999858</v>
       </c>
       <c r="K24" t="n">
-        <v>-60.00000000000114</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>94.56999999999994</v>
@@ -1515,7 +1537,7 @@
         <v>0.4999999999999858</v>
       </c>
       <c r="K25" t="n">
-        <v>-50.00000000000178</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>94.56999999999994</v>
@@ -1564,7 +1586,7 @@
         <v>0.4999999999999858</v>
       </c>
       <c r="K26" t="n">
-        <v>-50.00000000000178</v>
+        <v>-100</v>
       </c>
       <c r="L26" t="n">
         <v>94.56999999999994</v>
@@ -1613,7 +1635,7 @@
         <v>0.4999999999999858</v>
       </c>
       <c r="K27" t="n">
-        <v>-50.00000000000178</v>
+        <v>-100</v>
       </c>
       <c r="L27" t="n">
         <v>94.55999999999993</v>
@@ -1662,7 +1684,7 @@
         <v>0.4999999999999858</v>
       </c>
       <c r="K28" t="n">
-        <v>-50.00000000000178</v>
+        <v>-100</v>
       </c>
       <c r="L28" t="n">
         <v>94.54999999999994</v>
@@ -1711,7 +1733,7 @@
         <v>0.4999999999999858</v>
       </c>
       <c r="K29" t="n">
-        <v>-50.00000000000178</v>
+        <v>-100</v>
       </c>
       <c r="L29" t="n">
         <v>94.53999999999995</v>
@@ -1760,7 +1782,7 @@
         <v>0.4999999999999858</v>
       </c>
       <c r="K30" t="n">
-        <v>-50.00000000000178</v>
+        <v>-100</v>
       </c>
       <c r="L30" t="n">
         <v>94.52999999999996</v>
@@ -1809,7 +1831,7 @@
         <v>0.8999999999999915</v>
       </c>
       <c r="K31" t="n">
-        <v>-75.00000000000134</v>
+        <v>-100</v>
       </c>
       <c r="L31" t="n">
         <v>94.47999999999996</v>
@@ -1860,7 +1882,7 @@
         <v>1.299999999999997</v>
       </c>
       <c r="K32" t="n">
-        <v>-9.090909090908621</v>
+        <v>-11.11111111111041</v>
       </c>
       <c r="L32" t="n">
         <v>94.46999999999997</v>
@@ -1911,7 +1933,7 @@
         <v>1.299999999999997</v>
       </c>
       <c r="K33" t="n">
-        <v>-9.090909090908621</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>94.45999999999998</v>
@@ -2115,7 +2137,7 @@
         <v>1.299999999999997</v>
       </c>
       <c r="K37" t="n">
-        <v>-11.11111111111041</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>94.45999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>1.299999999999997</v>
       </c>
       <c r="K38" t="n">
-        <v>-11.11111111111041</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>94.45999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>1.299999999999997</v>
       </c>
       <c r="K39" t="n">
-        <v>-11.11111111111041</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>94.45999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>1.299999999999997</v>
       </c>
       <c r="K40" t="n">
-        <v>-11.11111111111041</v>
+        <v>100</v>
       </c>
       <c r="L40" t="n">
         <v>94.45999999999999</v>
@@ -2318,9 +2340,7 @@
       <c r="J41" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K41" t="n">
-        <v>-11.11111111111041</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>94.49999999999999</v>
       </c>
@@ -2369,9 +2389,7 @@
       <c r="J42" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K42" t="n">
-        <v>-11.11111111111041</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>94.5</v>
       </c>
@@ -2420,9 +2438,7 @@
       <c r="J43" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K43" t="n">
-        <v>-11.11111111111041</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>94.5</v>
       </c>
@@ -2471,9 +2487,7 @@
       <c r="J44" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>94.5</v>
       </c>
@@ -2522,9 +2536,7 @@
       <c r="J45" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>94.5</v>
       </c>
@@ -2573,9 +2585,7 @@
       <c r="J46" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>94.5</v>
       </c>
@@ -2624,9 +2634,7 @@
       <c r="J47" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>94.5</v>
       </c>
@@ -2675,9 +2683,7 @@
       <c r="J48" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>94.5</v>
       </c>
@@ -2726,9 +2732,7 @@
       <c r="J49" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>94.5</v>
       </c>
@@ -2777,9 +2781,7 @@
       <c r="J50" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>94.5</v>
       </c>
@@ -3288,7 +3290,7 @@
         <v>3.799999999999997</v>
       </c>
       <c r="K60" t="n">
-        <v>20</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L60" t="n">
         <v>95.21000000000004</v>
@@ -3339,7 +3341,7 @@
         <v>4.099999999999994</v>
       </c>
       <c r="K61" t="n">
-        <v>28.5714285714285</v>
+        <v>16.66666666666637</v>
       </c>
       <c r="L61" t="n">
         <v>95.28000000000003</v>
@@ -3390,7 +3392,7 @@
         <v>4.099999999999994</v>
       </c>
       <c r="K62" t="n">
-        <v>28.5714285714285</v>
+        <v>16.66666666666637</v>
       </c>
       <c r="L62" t="n">
         <v>95.32000000000004</v>
@@ -3441,7 +3443,7 @@
         <v>4.399999999999991</v>
       </c>
       <c r="K63" t="n">
-        <v>16.12903225806455</v>
+        <v>3.703703703703508</v>
       </c>
       <c r="L63" t="n">
         <v>95.33000000000003</v>
@@ -3492,7 +3494,7 @@
         <v>4.499999999999986</v>
       </c>
       <c r="K64" t="n">
-        <v>12.50000000000022</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>95.33000000000003</v>
@@ -3543,7 +3545,7 @@
         <v>5.399999999999977</v>
       </c>
       <c r="K65" t="n">
-        <v>31.70731707317082</v>
+        <v>24.32432432432426</v>
       </c>
       <c r="L65" t="n">
         <v>95.42000000000004</v>
@@ -3594,7 +3596,7 @@
         <v>5.499999999999986</v>
       </c>
       <c r="K66" t="n">
-        <v>33.33333333333356</v>
+        <v>-3.703703703703508</v>
       </c>
       <c r="L66" t="n">
         <v>95.52000000000004</v>
@@ -3645,7 +3647,7 @@
         <v>5.499999999999986</v>
       </c>
       <c r="K67" t="n">
-        <v>33.33333333333356</v>
+        <v>-3.703703703703508</v>
       </c>
       <c r="L67" t="n">
         <v>95.51000000000003</v>
@@ -3696,7 +3698,7 @@
         <v>6.299999999999983</v>
       </c>
       <c r="K68" t="n">
-        <v>44.00000000000018</v>
+        <v>20.00000000000016</v>
       </c>
       <c r="L68" t="n">
         <v>95.58000000000004</v>
@@ -3747,7 +3749,7 @@
         <v>7.399999999999977</v>
       </c>
       <c r="K69" t="n">
-        <v>54.09836065573784</v>
+        <v>77.77777777777813</v>
       </c>
       <c r="L69" t="n">
         <v>95.76000000000003</v>
@@ -3798,7 +3800,7 @@
         <v>7.399999999999977</v>
       </c>
       <c r="K70" t="n">
-        <v>54.09836065573784</v>
+        <v>75.75757575757615</v>
       </c>
       <c r="L70" t="n">
         <v>96.04000000000003</v>
@@ -3849,7 +3851,7 @@
         <v>7.399999999999977</v>
       </c>
       <c r="K71" t="n">
-        <v>53.33333333333351</v>
+        <v>75.75757575757615</v>
       </c>
       <c r="L71" t="n">
         <v>96.29000000000003</v>
@@ -3900,7 +3902,7 @@
         <v>7.399999999999977</v>
       </c>
       <c r="K72" t="n">
-        <v>50.87719298245622</v>
+        <v>93.33333333333368</v>
       </c>
       <c r="L72" t="n">
         <v>96.54000000000003</v>
@@ -3951,7 +3953,7 @@
         <v>9.299999999999969</v>
       </c>
       <c r="K73" t="n">
-        <v>13.15789473684216</v>
+        <v>20.83333333333341</v>
       </c>
       <c r="L73" t="n">
         <v>96.63000000000004</v>
@@ -4002,7 +4004,7 @@
         <v>10.19999999999996</v>
       </c>
       <c r="K74" t="n">
-        <v>22.3529411764706</v>
+        <v>20.83333333333341</v>
       </c>
       <c r="L74" t="n">
         <v>96.82000000000004</v>
@@ -4053,7 +4055,7 @@
         <v>11.09999999999995</v>
       </c>
       <c r="K75" t="n">
-        <v>10.63829787234048</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>96.83000000000004</v>
@@ -4104,7 +4106,7 @@
         <v>11.29999999999994</v>
       </c>
       <c r="K76" t="n">
-        <v>12.49999999999996</v>
+        <v>3.448275862068797</v>
       </c>
       <c r="L76" t="n">
         <v>96.85000000000004</v>
@@ -4155,7 +4157,7 @@
         <v>11.49999999999993</v>
       </c>
       <c r="K77" t="n">
-        <v>-1.149425287356265</v>
+        <v>-15.38461538461549</v>
       </c>
       <c r="L77" t="n">
         <v>96.85000000000004</v>
@@ -4206,7 +4208,7 @@
         <v>11.59999999999992</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>-42.85714285714334</v>
       </c>
       <c r="L78" t="n">
         <v>96.78000000000004</v>
@@ -4257,7 +4259,7 @@
         <v>11.69999999999992</v>
       </c>
       <c r="K79" t="n">
-        <v>1.123595505617924</v>
+        <v>-39.53488372093085</v>
       </c>
       <c r="L79" t="n">
         <v>96.61000000000004</v>
@@ -4308,7 +4310,7 @@
         <v>13.39999999999992</v>
       </c>
       <c r="K80" t="n">
-        <v>29.16666666666687</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>96.61000000000004</v>
@@ -4359,7 +4361,7 @@
         <v>13.39999999999992</v>
       </c>
       <c r="K81" t="n">
-        <v>26.88172043010774</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>96.61000000000004</v>
@@ -4410,7 +4412,7 @@
         <v>13.59999999999992</v>
       </c>
       <c r="K82" t="n">
-        <v>24.21052631578963</v>
+        <v>39.53488372093039</v>
       </c>
       <c r="L82" t="n">
         <v>96.59000000000003</v>
@@ -4461,7 +4463,7 @@
         <v>15.19999999999992</v>
       </c>
       <c r="K83" t="n">
-        <v>9.259259259259323</v>
+        <v>-16.00000000000008</v>
       </c>
       <c r="L83" t="n">
         <v>96.60000000000004</v>
@@ -4512,7 +4514,7 @@
         <v>16.69999999999992</v>
       </c>
       <c r="K84" t="n">
-        <v>21.31147540983614</v>
+        <v>28.57142857142864</v>
       </c>
       <c r="L84" t="n">
         <v>96.67000000000004</v>
@@ -4563,7 +4565,7 @@
         <v>16.79999999999991</v>
       </c>
       <c r="K85" t="n">
-        <v>15.78947368421059</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L85" t="n">
         <v>96.84000000000005</v>
@@ -4614,7 +4616,7 @@
         <v>16.89999999999991</v>
       </c>
       <c r="K86" t="n">
-        <v>14.03508771929829</v>
+        <v>29.62962962962965</v>
       </c>
       <c r="L86" t="n">
         <v>96.98000000000005</v>
@@ -4665,7 +4667,7 @@
         <v>16.9999999999999</v>
       </c>
       <c r="K87" t="n">
-        <v>13.04347826086966</v>
+        <v>25.92592592592614</v>
       </c>
       <c r="L87" t="n">
         <v>97.13000000000005</v>
@@ -4716,7 +4718,7 @@
         <v>17.09999999999989</v>
       </c>
       <c r="K88" t="n">
-        <v>7.407407407407442</v>
+        <v>25.92592592592614</v>
       </c>
       <c r="L88" t="n">
         <v>97.28000000000006</v>
@@ -4767,7 +4769,7 @@
         <v>17.59999999999989</v>
       </c>
       <c r="K89" t="n">
-        <v>1.960784313725534</v>
+        <v>4.761904761904859</v>
       </c>
       <c r="L89" t="n">
         <v>97.47000000000006</v>
@@ -4818,7 +4820,7 @@
         <v>17.9999999999999</v>
       </c>
       <c r="K90" t="n">
-        <v>5.660377358490687</v>
+        <v>13.04347826086981</v>
       </c>
       <c r="L90" t="n">
         <v>97.53000000000006</v>
@@ -4869,7 +4871,7 @@
         <v>17.9999999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>5.660377358490687</v>
+        <v>18.18181818181854</v>
       </c>
       <c r="L91" t="n">
         <v>97.59000000000007</v>
@@ -4920,7 +4922,7 @@
         <v>17.9999999999999</v>
       </c>
       <c r="K92" t="n">
-        <v>5.660377358490687</v>
+        <v>85.71428571428645</v>
       </c>
       <c r="L92" t="n">
         <v>97.67000000000009</v>
@@ -4971,7 +4973,7 @@
         <v>17.9999999999999</v>
       </c>
       <c r="K93" t="n">
-        <v>28.73563218390827</v>
+        <v>69.23076923077058</v>
       </c>
       <c r="L93" t="n">
         <v>97.91000000000008</v>
@@ -5022,7 +5024,7 @@
         <v>17.9999999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>20.51282051282078</v>
+        <v>66.66666666666825</v>
       </c>
       <c r="L94" t="n">
         <v>98.00000000000009</v>
@@ -5073,7 +5075,7 @@
         <v>18.89999999999989</v>
       </c>
       <c r="K95" t="n">
-        <v>43.58974358974381</v>
+        <v>90.0000000000005</v>
       </c>
       <c r="L95" t="n">
         <v>98.17000000000009</v>
@@ -5124,7 +5126,7 @@
         <v>18.89999999999989</v>
       </c>
       <c r="K96" t="n">
-        <v>42.10526315789504</v>
+        <v>100</v>
       </c>
       <c r="L96" t="n">
         <v>98.35000000000009</v>
@@ -5175,7 +5177,7 @@
         <v>18.9999999999999</v>
       </c>
       <c r="K97" t="n">
-        <v>46.66666666666684</v>
+        <v>100</v>
       </c>
       <c r="L97" t="n">
         <v>98.5500000000001</v>
@@ -5226,7 +5228,7 @@
         <v>19.09999999999989</v>
       </c>
       <c r="K98" t="n">
-        <v>46.66666666666684</v>
+        <v>100</v>
       </c>
       <c r="L98" t="n">
         <v>98.75000000000009</v>
@@ -5277,7 +5279,7 @@
         <v>19.19999999999989</v>
       </c>
       <c r="K99" t="n">
-        <v>46.66666666666684</v>
+        <v>100</v>
       </c>
       <c r="L99" t="n">
         <v>98.91000000000008</v>
@@ -5328,7 +5330,7 @@
         <v>19.2999999999999</v>
       </c>
       <c r="K100" t="n">
-        <v>32.20338983050869</v>
+        <v>100</v>
       </c>
       <c r="L100" t="n">
         <v>99.04000000000009</v>
@@ -5379,7 +5381,7 @@
         <v>19.2999999999999</v>
       </c>
       <c r="K101" t="n">
-        <v>32.20338983050869</v>
+        <v>100</v>
       </c>
       <c r="L101" t="n">
         <v>99.17000000000009</v>
@@ -5430,7 +5432,7 @@
         <v>19.2999999999999</v>
       </c>
       <c r="K102" t="n">
-        <v>36.84210526315821</v>
+        <v>100</v>
       </c>
       <c r="L102" t="n">
         <v>99.30000000000008</v>
@@ -5481,7 +5483,7 @@
         <v>19.2999999999999</v>
       </c>
       <c r="K103" t="n">
-        <v>90.24390243902489</v>
+        <v>100</v>
       </c>
       <c r="L103" t="n">
         <v>99.43000000000008</v>
@@ -5532,7 +5534,7 @@
         <v>19.59999999999989</v>
       </c>
       <c r="K104" t="n">
-        <v>65.51724137931106</v>
+        <v>14.28571428571544</v>
       </c>
       <c r="L104" t="n">
         <v>99.53000000000007</v>
@@ -5583,7 +5585,7 @@
         <v>21.4999999999999</v>
       </c>
       <c r="K105" t="n">
-        <v>-2.127659574467969</v>
+        <v>-69.2307692307689</v>
       </c>
       <c r="L105" t="n">
         <v>99.35000000000007</v>
@@ -5634,7 +5636,7 @@
         <v>22.7999999999999</v>
       </c>
       <c r="K106" t="n">
-        <v>22.03389830508473</v>
+        <v>-15.78947368421076</v>
       </c>
       <c r="L106" t="n">
         <v>99.30000000000007</v>
@@ -5685,7 +5687,7 @@
         <v>24.09999999999989</v>
       </c>
       <c r="K107" t="n">
-        <v>1.408450704225273</v>
+        <v>-40</v>
       </c>
       <c r="L107" t="n">
         <v>99.11000000000007</v>
@@ -5736,7 +5738,7 @@
         <v>24.2999999999999</v>
       </c>
       <c r="K108" t="n">
-        <v>-2.777777777777816</v>
+        <v>-45.09803921568614</v>
       </c>
       <c r="L108" t="n">
         <v>98.89000000000007</v>
@@ -5787,7 +5789,7 @@
         <v>25.39999999999991</v>
       </c>
       <c r="K109" t="n">
-        <v>5.128205128205194</v>
+        <v>-21.31147540983599</v>
       </c>
       <c r="L109" t="n">
         <v>98.77000000000008</v>
@@ -5838,7 +5840,7 @@
         <v>26.29999999999991</v>
       </c>
       <c r="K110" t="n">
-        <v>-10.84337349397596</v>
+        <v>-31.42857142857141</v>
       </c>
       <c r="L110" t="n">
         <v>98.55000000000007</v>
@@ -5889,7 +5891,7 @@
         <v>27.09999999999991</v>
       </c>
       <c r="K111" t="n">
-        <v>-18.6813186813187</v>
+        <v>-38.46153846153841</v>
       </c>
       <c r="L111" t="n">
         <v>98.25000000000007</v>
@@ -5940,7 +5942,7 @@
         <v>27.09999999999991</v>
       </c>
       <c r="K112" t="n">
-        <v>-18.6813186813187</v>
+        <v>-38.46153846153841</v>
       </c>
       <c r="L112" t="n">
         <v>97.95000000000007</v>
@@ -5991,7 +5993,7 @@
         <v>27.09999999999991</v>
       </c>
       <c r="K113" t="n">
-        <v>-18.6813186813187</v>
+        <v>-35.99999999999997</v>
       </c>
       <c r="L113" t="n">
         <v>97.65000000000006</v>
@@ -6042,7 +6044,7 @@
         <v>27.6999999999999</v>
       </c>
       <c r="K114" t="n">
-        <v>-11.34020618556709</v>
+        <v>-3.225806451612947</v>
       </c>
       <c r="L114" t="n">
         <v>97.44000000000007</v>
@@ -6093,7 +6095,7 @@
         <v>28.79999999999991</v>
       </c>
       <c r="K115" t="n">
-        <v>-9.090909090908987</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L115" t="n">
         <v>97.53000000000006</v>
@@ -6144,7 +6146,7 @@
         <v>28.79999999999991</v>
       </c>
       <c r="K116" t="n">
-        <v>-9.090909090908987</v>
+        <v>19.14893617021282</v>
       </c>
       <c r="L116" t="n">
         <v>97.49000000000008</v>
@@ -6195,7 +6197,7 @@
         <v>29.69999999999992</v>
       </c>
       <c r="K117" t="n">
-        <v>-17.75700934579442</v>
+        <v>3.703703703703742</v>
       </c>
       <c r="L117" t="n">
         <v>97.49000000000008</v>
@@ -6246,7 +6248,7 @@
         <v>29.79999999999991</v>
       </c>
       <c r="K118" t="n">
-        <v>-19.62616822429898</v>
+        <v>-22.7272727272727</v>
       </c>
       <c r="L118" t="n">
         <v>97.50000000000009</v>
@@ -6297,7 +6299,7 @@
         <v>29.79999999999991</v>
       </c>
       <c r="K119" t="n">
-        <v>-20.75471698113192</v>
+        <v>-2.857142857142695</v>
       </c>
       <c r="L119" t="n">
         <v>97.40000000000011</v>

--- a/BackTest/2019-10-19 BackTest PAY.xlsx
+++ b/BackTest/2019-10-19 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S119"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,65 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>fluc_close</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>MA20</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -472,28 +447,27 @@
         <v>94.8</v>
       </c>
       <c r="E2" t="n">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="F2" t="n">
-        <v>800</v>
+        <v>2308.7175</v>
       </c>
       <c r="G2" t="n">
-        <v>96.02999999999994</v>
+        <v>95.01333333333334</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>96.06333333333328</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,13 +488,13 @@
         <v>94.8</v>
       </c>
       <c r="F3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G3" t="n">
-        <v>95.99499999999995</v>
+        <v>94.98</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>96.02999999999994</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -531,12 +505,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -557,13 +526,13 @@
         <v>94.8</v>
       </c>
       <c r="F4" t="n">
-        <v>2572</v>
+        <v>400</v>
       </c>
       <c r="G4" t="n">
-        <v>95.95999999999997</v>
+        <v>94.94666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>95.99499999999995</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -574,12 +543,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -591,38 +555,33 @@
         <v>94.8</v>
       </c>
       <c r="C5" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="D5" t="n">
         <v>94.8</v>
       </c>
       <c r="E5" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="F5" t="n">
-        <v>369</v>
+        <v>2572</v>
       </c>
       <c r="G5" t="n">
-        <v>95.91666666666661</v>
+        <v>94.91333333333334</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>95.95999999999997</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09999999999999432</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09999999999999432</v>
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -631,41 +590,36 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="C6" t="n">
         <v>94.7</v>
       </c>
       <c r="D6" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="E6" t="n">
         <v>94.7</v>
       </c>
       <c r="F6" t="n">
-        <v>490</v>
+        <v>369</v>
       </c>
       <c r="G6" t="n">
-        <v>95.87333333333328</v>
+        <v>94.87333333333335</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>95.91666666666661</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09999999999999432</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09999999999999432</v>
+        <v>0</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -686,29 +640,24 @@
         <v>94.7</v>
       </c>
       <c r="F7" t="n">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="G7" t="n">
-        <v>95.82999999999994</v>
+        <v>94.83333333333334</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>95.87333333333328</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.09999999999999432</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09999999999999432</v>
+        <v>0</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -729,29 +678,24 @@
         <v>94.7</v>
       </c>
       <c r="F8" t="n">
-        <v>812</v>
+        <v>436</v>
       </c>
       <c r="G8" t="n">
-        <v>95.7866666666666</v>
+        <v>94.81333333333335</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>95.82999999999994</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.09999999999999432</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09999999999999432</v>
+        <v>0</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -772,29 +716,24 @@
         <v>94.7</v>
       </c>
       <c r="F9" t="n">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="G9" t="n">
-        <v>95.7416666666666</v>
+        <v>94.79333333333335</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>95.7866666666666</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.09999999999999432</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09999999999999432</v>
+        <v>0</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -815,29 +754,24 @@
         <v>94.7</v>
       </c>
       <c r="F10" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G10" t="n">
-        <v>95.69666666666662</v>
+        <v>94.78000000000002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>95.7416666666666</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.09999999999999432</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09999999999999432</v>
+        <v>0</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -858,31 +792,24 @@
         <v>94.7</v>
       </c>
       <c r="F11" t="n">
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="G11" t="n">
-        <v>95.64999999999993</v>
+        <v>94.76666666666668</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>95.69666666666662</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.09999999999999432</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09999999999999432</v>
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>94.73000000000002</v>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -891,45 +818,36 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>94.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="C12" t="n">
-        <v>94.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="D12" t="n">
-        <v>94.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="E12" t="n">
-        <v>94.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="F12" t="n">
-        <v>532</v>
+        <v>337</v>
       </c>
       <c r="G12" t="n">
-        <v>95.60166666666662</v>
+        <v>94.75333333333334</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>95.64999999999993</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L12" t="n">
-        <v>94.71000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,7 +856,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>94.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C13" t="n">
         <v>94.59999999999999</v>
@@ -947,36 +865,27 @@
         <v>94.59999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>93.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>37378.6902</v>
+        <v>532</v>
       </c>
       <c r="G13" t="n">
-        <v>95.57166666666663</v>
+        <v>94.73333333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>95.60166666666662</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L13" t="n">
-        <v>94.69000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -985,45 +894,36 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>94.5</v>
+        <v>93.7</v>
       </c>
       <c r="F14" t="n">
-        <v>16</v>
+        <v>37378.6902</v>
       </c>
       <c r="G14" t="n">
-        <v>95.53999999999996</v>
+        <v>94.72</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>95.57166666666663</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L14" t="n">
-        <v>94.66000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1044,33 +944,24 @@
         <v>94.5</v>
       </c>
       <c r="F15" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G15" t="n">
-        <v>95.51666666666664</v>
+        <v>94.7</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>95.53999999999996</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L15" t="n">
-        <v>94.64000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1091,33 +982,24 @@
         <v>94.5</v>
       </c>
       <c r="F16" t="n">
-        <v>800</v>
+        <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49333333333331</v>
+        <v>94.68666666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>95.51666666666664</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L16" t="n">
-        <v>94.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1129,42 +1011,33 @@
         <v>94.5</v>
       </c>
       <c r="C17" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="D17" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="E17" t="n">
         <v>94.5</v>
       </c>
       <c r="F17" t="n">
-        <v>8324</v>
+        <v>800</v>
       </c>
       <c r="G17" t="n">
-        <v>95.47166666666665</v>
+        <v>94.66666666666667</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>95.49333333333331</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3999999999999915</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-33.33333333333649</v>
-      </c>
-      <c r="L17" t="n">
-        <v>94.60999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1173,7 +1046,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="C18" t="n">
         <v>94.59999999999999</v>
@@ -1182,36 +1055,27 @@
         <v>94.59999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>8324</v>
       </c>
       <c r="G18" t="n">
-        <v>95.45</v>
+        <v>94.65333333333334</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>95.47166666666665</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3999999999999915</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-33.33333333333649</v>
-      </c>
-      <c r="L18" t="n">
-        <v>94.59999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1232,33 +1096,24 @@
         <v>94.59999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>398</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>95.42833333333334</v>
+        <v>94.64</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>95.45</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3999999999999915</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-33.33333333333649</v>
-      </c>
-      <c r="L19" t="n">
-        <v>94.58999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1279,33 +1134,24 @@
         <v>94.59999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G20" t="n">
-        <v>95.40000000000002</v>
+        <v>94.62666666666665</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>95.42833333333334</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3999999999999915</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-33.33333333333649</v>
-      </c>
-      <c r="L20" t="n">
-        <v>94.57999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1326,35 +1172,24 @@
         <v>94.59999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="G21" t="n">
-        <v>95.36166666666669</v>
+        <v>94.61999999999998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>95.40000000000002</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3999999999999915</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>94.56999999999994</v>
-      </c>
-      <c r="M21" t="n">
-        <v>94.64999999999998</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1375,35 +1210,24 @@
         <v>94.59999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>350</v>
       </c>
       <c r="G22" t="n">
-        <v>95.3216666666667</v>
+        <v>94.6133333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>95.36166666666669</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3999999999999915</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>94.56999999999992</v>
-      </c>
-      <c r="M22" t="n">
-        <v>94.63999999999997</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1424,35 +1248,24 @@
         <v>94.59999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>1200</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>95.28333333333337</v>
+        <v>94.60666666666663</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>95.3216666666667</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3999999999999915</v>
-      </c>
-      <c r="K23" t="n">
-        <v>100</v>
-      </c>
-      <c r="L23" t="n">
-        <v>94.56999999999992</v>
-      </c>
-      <c r="M23" t="n">
-        <v>94.62999999999997</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1461,47 +1274,36 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>1689</v>
+        <v>1200</v>
       </c>
       <c r="G24" t="n">
-        <v>95.24333333333338</v>
+        <v>94.59999999999995</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>95.28333333333337</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4999999999999858</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>94.56999999999994</v>
-      </c>
-      <c r="M24" t="n">
-        <v>94.61499999999998</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1522,35 +1324,24 @@
         <v>94.5</v>
       </c>
       <c r="F25" t="n">
-        <v>2777</v>
+        <v>1689</v>
       </c>
       <c r="G25" t="n">
-        <v>95.20166666666672</v>
+        <v>94.58666666666662</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>95.24333333333338</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4999999999999858</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>94.56999999999994</v>
-      </c>
-      <c r="M25" t="n">
-        <v>94.60499999999998</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1571,35 +1362,24 @@
         <v>94.5</v>
       </c>
       <c r="F26" t="n">
-        <v>1255</v>
+        <v>2777</v>
       </c>
       <c r="G26" t="n">
-        <v>95.16000000000005</v>
+        <v>94.57333333333328</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>95.20166666666672</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4999999999999858</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L26" t="n">
-        <v>94.56999999999994</v>
-      </c>
-      <c r="M26" t="n">
-        <v>94.59499999999997</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1620,35 +1400,24 @@
         <v>94.5</v>
       </c>
       <c r="F27" t="n">
-        <v>381</v>
+        <v>1255</v>
       </c>
       <c r="G27" t="n">
-        <v>95.11833333333338</v>
+        <v>94.55999999999995</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>95.16000000000005</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4999999999999858</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L27" t="n">
-        <v>94.55999999999993</v>
-      </c>
-      <c r="M27" t="n">
-        <v>94.58499999999997</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1669,35 +1438,24 @@
         <v>94.5</v>
       </c>
       <c r="F28" t="n">
-        <v>1852</v>
+        <v>381</v>
       </c>
       <c r="G28" t="n">
-        <v>95.08000000000006</v>
+        <v>94.55333333333328</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>95.11833333333338</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4999999999999858</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L28" t="n">
-        <v>94.54999999999994</v>
-      </c>
-      <c r="M28" t="n">
-        <v>94.57499999999996</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1718,35 +1476,24 @@
         <v>94.5</v>
       </c>
       <c r="F29" t="n">
-        <v>54</v>
+        <v>1852</v>
       </c>
       <c r="G29" t="n">
-        <v>95.06333333333338</v>
+        <v>94.54666666666662</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>95.08000000000006</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4999999999999858</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L29" t="n">
-        <v>94.53999999999995</v>
-      </c>
-      <c r="M29" t="n">
-        <v>94.56499999999997</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1767,35 +1514,24 @@
         <v>94.5</v>
       </c>
       <c r="F30" t="n">
-        <v>1835</v>
+        <v>54</v>
       </c>
       <c r="G30" t="n">
-        <v>95.03833333333338</v>
+        <v>94.54666666666662</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>95.06333333333338</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4999999999999858</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L30" t="n">
-        <v>94.52999999999996</v>
-      </c>
-      <c r="M30" t="n">
-        <v>94.55499999999996</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1807,46 +1543,33 @@
         <v>94.5</v>
       </c>
       <c r="C31" t="n">
-        <v>94.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="D31" t="n">
         <v>94.5</v>
       </c>
       <c r="E31" t="n">
-        <v>94.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="F31" t="n">
-        <v>159</v>
+        <v>1835</v>
       </c>
       <c r="G31" t="n">
-        <v>94.99166666666673</v>
+        <v>94.54666666666662</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>95.03833333333338</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.7000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8999999999999915</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L31" t="n">
-        <v>94.47999999999996</v>
-      </c>
-      <c r="M31" t="n">
-        <v>94.52499999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>94.59333333333331</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1855,10 +1578,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C32" t="n">
         <v>94.09999999999999</v>
-      </c>
-      <c r="C32" t="n">
-        <v>94.5</v>
       </c>
       <c r="D32" t="n">
         <v>94.5</v>
@@ -1867,37 +1590,24 @@
         <v>94.09999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>5520</v>
+        <v>159</v>
       </c>
       <c r="G32" t="n">
-        <v>94.9583333333334</v>
+        <v>94.51999999999995</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>94.99166666666673</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-11.11111111111041</v>
-      </c>
-      <c r="L32" t="n">
-        <v>94.46999999999997</v>
-      </c>
-      <c r="M32" t="n">
-        <v>94.51999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>94.5833333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1906,7 +1616,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>94.5</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C33" t="n">
         <v>94.5</v>
@@ -1915,40 +1625,27 @@
         <v>94.5</v>
       </c>
       <c r="E33" t="n">
-        <v>94.5</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>5520</v>
       </c>
       <c r="G33" t="n">
-        <v>94.92333333333339</v>
+        <v>94.51333333333329</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>94.9583333333334</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>94.45999999999998</v>
-      </c>
-      <c r="M33" t="n">
-        <v>94.51499999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>94.5733333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,37 +1666,24 @@
         <v>94.5</v>
       </c>
       <c r="F34" t="n">
-        <v>51.0687</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>94.90000000000006</v>
+        <v>94.50666666666663</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>94.92333333333339</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>94.45999999999999</v>
-      </c>
-      <c r="M34" t="n">
-        <v>94.51499999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>94.56333333333329</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2020,37 +1704,24 @@
         <v>94.5</v>
       </c>
       <c r="F35" t="n">
-        <v>1200</v>
+        <v>51.0687</v>
       </c>
       <c r="G35" t="n">
-        <v>94.8833333333334</v>
+        <v>94.49999999999997</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>94.90000000000006</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>94.45999999999999</v>
-      </c>
-      <c r="M35" t="n">
-        <v>94.51499999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>94.55666666666663</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2071,37 +1742,28 @@
         <v>94.5</v>
       </c>
       <c r="F36" t="n">
-        <v>977</v>
+        <v>1200</v>
       </c>
       <c r="G36" t="n">
-        <v>94.8683333333334</v>
+        <v>94.49333333333331</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>94.8833333333334</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.2999999999999972</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="L36" t="n">
-        <v>94.45999999999999</v>
-      </c>
-      <c r="M36" t="n">
-        <v>94.51499999999996</v>
-      </c>
+        <v>94.5</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>94.54999999999997</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2122,37 +1784,32 @@
         <v>94.5</v>
       </c>
       <c r="F37" t="n">
-        <v>627</v>
+        <v>977</v>
       </c>
       <c r="G37" t="n">
-        <v>94.85166666666673</v>
+        <v>94.48666666666665</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>94.8683333333334</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.2999999999999972</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="L37" t="n">
-        <v>94.45999999999999</v>
-      </c>
-      <c r="M37" t="n">
-        <v>94.50999999999996</v>
+        <v>94.5</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="N37" t="n">
-        <v>94.54333333333331</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2173,37 +1830,32 @@
         <v>94.5</v>
       </c>
       <c r="F38" t="n">
-        <v>863</v>
+        <v>627</v>
       </c>
       <c r="G38" t="n">
-        <v>94.8333333333334</v>
+        <v>94.47999999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>94.85166666666673</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.2999999999999972</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="L38" t="n">
-        <v>94.45999999999999</v>
-      </c>
-      <c r="M38" t="n">
-        <v>94.50499999999997</v>
+        <v>94.5</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="N38" t="n">
-        <v>94.53666666666665</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,37 +1876,28 @@
         <v>94.5</v>
       </c>
       <c r="F39" t="n">
-        <v>7591</v>
+        <v>863</v>
       </c>
       <c r="G39" t="n">
-        <v>94.81500000000005</v>
+        <v>94.47333333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>94.8333333333334</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.2999999999999972</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="L39" t="n">
-        <v>94.45999999999999</v>
-      </c>
-      <c r="M39" t="n">
-        <v>94.49999999999997</v>
-      </c>
+        <v>94.5</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>94.52999999999999</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2275,37 +1918,32 @@
         <v>94.5</v>
       </c>
       <c r="F40" t="n">
-        <v>1200</v>
+        <v>7591</v>
       </c>
       <c r="G40" t="n">
-        <v>94.79166666666673</v>
+        <v>94.47333333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>94.81500000000005</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.2999999999999972</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>100</v>
+        <v>94.5</v>
       </c>
       <c r="L40" t="n">
-        <v>94.45999999999999</v>
-      </c>
-      <c r="M40" t="n">
-        <v>94.49499999999998</v>
+        <v>94.5</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="N40" t="n">
-        <v>94.52333333333333</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2326,35 +1964,32 @@
         <v>94.5</v>
       </c>
       <c r="F41" t="n">
-        <v>5960</v>
+        <v>1200</v>
       </c>
       <c r="G41" t="n">
-        <v>94.7683333333334</v>
+        <v>94.47333333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>94.79166666666673</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.2999999999999972</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>94.5</v>
+      </c>
       <c r="L41" t="n">
-        <v>94.49999999999999</v>
-      </c>
-      <c r="M41" t="n">
-        <v>94.48999999999998</v>
+        <v>94.5</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="N41" t="n">
-        <v>94.51666666666667</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2375,35 +2010,28 @@
         <v>94.5</v>
       </c>
       <c r="F42" t="n">
-        <v>400</v>
+        <v>5960</v>
       </c>
       <c r="G42" t="n">
-        <v>94.74666666666673</v>
+        <v>94.47333333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>94.7683333333334</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.2999999999999972</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>94.5</v>
+      </c>
       <c r="L42" t="n">
         <v>94.5</v>
       </c>
-      <c r="M42" t="n">
-        <v>94.48499999999999</v>
-      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>94.51333333333334</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2424,35 +2052,30 @@
         <v>94.5</v>
       </c>
       <c r="F43" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G43" t="n">
-        <v>94.72500000000007</v>
+        <v>94.47333333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>94.74666666666673</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>94.5</v>
       </c>
-      <c r="M43" t="n">
-        <v>94.47999999999999</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="N43" t="n">
-        <v>94.51000000000001</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2476,32 +2099,27 @@
         <v>800</v>
       </c>
       <c r="G44" t="n">
-        <v>94.7083333333334</v>
+        <v>94.47333333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>94.72500000000007</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>94.5</v>
       </c>
-      <c r="M44" t="n">
-        <v>94.47999999999999</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="N44" t="n">
-        <v>94.51000000000001</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2525,32 +2143,21 @@
         <v>800</v>
       </c>
       <c r="G45" t="n">
-        <v>94.69166666666673</v>
+        <v>94.47333333333333</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>94.7083333333334</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M45" t="n">
-        <v>94.47999999999999</v>
-      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>94.51000000000001</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2571,35 +2178,28 @@
         <v>94.5</v>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="G46" t="n">
-        <v>94.67500000000005</v>
+        <v>94.47333333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>94.69166666666673</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.2999999999999972</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>94.5</v>
+      </c>
       <c r="L46" t="n">
         <v>94.5</v>
       </c>
-      <c r="M46" t="n">
-        <v>94.47999999999999</v>
-      </c>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>94.51000000000001</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2620,35 +2220,32 @@
         <v>94.5</v>
       </c>
       <c r="F47" t="n">
-        <v>11830.6878</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>94.66166666666672</v>
+        <v>94.5</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>94.67500000000005</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.2999999999999972</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>94.5</v>
+      </c>
       <c r="L47" t="n">
         <v>94.5</v>
       </c>
-      <c r="M47" t="n">
-        <v>94.47999999999999</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="N47" t="n">
-        <v>94.50666666666667</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2669,35 +2266,32 @@
         <v>94.5</v>
       </c>
       <c r="F48" t="n">
-        <v>800</v>
+        <v>11830.6878</v>
       </c>
       <c r="G48" t="n">
-        <v>94.64833333333338</v>
+        <v>94.5</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>94.66166666666672</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.2999999999999972</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>94.5</v>
+      </c>
       <c r="L48" t="n">
         <v>94.5</v>
       </c>
-      <c r="M48" t="n">
-        <v>94.47999999999999</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="N48" t="n">
-        <v>94.50333333333334</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,35 +2312,28 @@
         <v>94.5</v>
       </c>
       <c r="F49" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="G49" t="n">
-        <v>94.63500000000005</v>
+        <v>94.5</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>94.64833333333338</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.2999999999999972</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>94.5</v>
+      </c>
       <c r="L49" t="n">
         <v>94.5</v>
       </c>
-      <c r="M49" t="n">
-        <v>94.47999999999999</v>
-      </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
-        <v>94.50000000000001</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2767,35 +2354,32 @@
         <v>94.5</v>
       </c>
       <c r="F50" t="n">
-        <v>1612</v>
+        <v>2000</v>
       </c>
       <c r="G50" t="n">
-        <v>94.62166666666671</v>
+        <v>94.5</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>94.63500000000005</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.2999999999999972</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>94.5</v>
+      </c>
       <c r="L50" t="n">
         <v>94.5</v>
       </c>
-      <c r="M50" t="n">
-        <v>94.47999999999999</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="N50" t="n">
-        <v>94.49666666666668</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2807,46 +2391,41 @@
         <v>94.5</v>
       </c>
       <c r="C51" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="D51" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="E51" t="n">
         <v>94.5</v>
       </c>
       <c r="F51" t="n">
-        <v>14400</v>
+        <v>1612</v>
       </c>
       <c r="G51" t="n">
-        <v>94.61000000000006</v>
+        <v>94.5</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>94.62166666666671</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.2000000000000028</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.399999999999991</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>100</v>
+        <v>94.5</v>
       </c>
       <c r="L51" t="n">
-        <v>94.50999999999999</v>
-      </c>
-      <c r="M51" t="n">
-        <v>94.505</v>
+        <v>94.5</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="N51" t="n">
-        <v>94.49666666666668</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2855,49 +2434,44 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C52" t="n">
         <v>94.59999999999999</v>
       </c>
-      <c r="C52" t="n">
-        <v>94.90000000000001</v>
-      </c>
       <c r="D52" t="n">
-        <v>94.90000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="F52" t="n">
-        <v>10980</v>
+        <v>14400</v>
       </c>
       <c r="G52" t="n">
-        <v>94.60833333333338</v>
+        <v>94.50666666666666</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>94.61000000000006</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1000000000000085</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>100</v>
+        <v>94.5</v>
       </c>
       <c r="L52" t="n">
-        <v>94.55</v>
-      </c>
-      <c r="M52" t="n">
-        <v>94.52500000000001</v>
+        <v>94.5</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="N52" t="n">
-        <v>94.50666666666669</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2906,7 +2480,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>94.90000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C53" t="n">
         <v>94.90000000000001</v>
@@ -2915,40 +2489,35 @@
         <v>94.90000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>94.90000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>45.7681</v>
+        <v>10980</v>
       </c>
       <c r="G53" t="n">
-        <v>94.60666666666671</v>
+        <v>94.53333333333333</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>94.60833333333338</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1000000000000085</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>100</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="L53" t="n">
-        <v>94.59</v>
-      </c>
-      <c r="M53" t="n">
-        <v>94.545</v>
+        <v>94.5</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N53" t="n">
-        <v>94.51666666666669</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2969,37 +2538,32 @@
         <v>94.90000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>2400</v>
+        <v>45.7681</v>
       </c>
       <c r="G54" t="n">
+        <v>94.56</v>
+      </c>
+      <c r="H54" t="n">
         <v>94.60666666666671</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0.1000000000000085</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>100</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="L54" t="n">
-        <v>94.63000000000002</v>
-      </c>
-      <c r="M54" t="n">
-        <v>94.56500000000001</v>
+        <v>94.5</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N54" t="n">
-        <v>94.53000000000003</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3020,37 +2584,32 @@
         <v>94.90000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="G55" t="n">
+        <v>94.58666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>94.60666666666671</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>0.1000000000000085</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>100</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="L55" t="n">
-        <v>94.67000000000003</v>
-      </c>
-      <c r="M55" t="n">
-        <v>94.58500000000001</v>
+        <v>94.5</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N55" t="n">
-        <v>94.54333333333336</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3071,37 +2630,32 @@
         <v>94.90000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>1255.6375</v>
+        <v>3200</v>
       </c>
       <c r="G56" t="n">
+        <v>94.61333333333336</v>
+      </c>
+      <c r="H56" t="n">
         <v>94.60666666666671</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>0.1000000000000085</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>100</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="L56" t="n">
-        <v>94.71000000000004</v>
-      </c>
-      <c r="M56" t="n">
-        <v>94.60500000000002</v>
+        <v>94.5</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N56" t="n">
-        <v>94.5566666666667</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3113,46 +2667,41 @@
         <v>94.90000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>96</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>96</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E57" t="n">
         <v>94.90000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>4214.0604</v>
+        <v>1255.6375</v>
       </c>
       <c r="G57" t="n">
-        <v>94.62500000000004</v>
+        <v>94.64000000000003</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>94.60666666666671</v>
       </c>
       <c r="I57" t="n">
-        <v>1.200000000000003</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>100</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="L57" t="n">
-        <v>94.86000000000004</v>
-      </c>
-      <c r="M57" t="n">
-        <v>94.68000000000002</v>
+        <v>94.5</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N57" t="n">
-        <v>94.60666666666671</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3161,7 +2710,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>96</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C58" t="n">
         <v>96</v>
@@ -3170,40 +2719,35 @@
         <v>96</v>
       </c>
       <c r="E58" t="n">
-        <v>96</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>40</v>
+        <v>4214.0604</v>
       </c>
       <c r="G58" t="n">
-        <v>94.64500000000004</v>
+        <v>94.74000000000002</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>94.62500000000004</v>
       </c>
       <c r="I58" t="n">
-        <v>1.200000000000003</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>2.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>100</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="L58" t="n">
-        <v>95.01000000000003</v>
-      </c>
-      <c r="M58" t="n">
-        <v>94.75500000000002</v>
+        <v>94.5</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N58" t="n">
-        <v>94.65666666666671</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3224,37 +2768,32 @@
         <v>96</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G59" t="n">
-        <v>94.66500000000003</v>
+        <v>94.84000000000002</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>94.64500000000004</v>
       </c>
       <c r="I59" t="n">
-        <v>1.200000000000003</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>2.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L59" t="n">
-        <v>95.16000000000004</v>
-      </c>
-      <c r="M59" t="n">
-        <v>94.83000000000001</v>
+        <v>94.5</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N59" t="n">
-        <v>94.70666666666671</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3263,49 +2802,42 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C60" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D60" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E60" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F60" t="n">
-        <v>273.4938</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>94.67000000000004</v>
+        <v>94.94000000000003</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>94.66500000000003</v>
       </c>
       <c r="I60" t="n">
-        <v>0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>3.799999999999997</v>
-      </c>
-      <c r="K60" t="n">
-        <v>16.66666666666686</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>95.21000000000004</v>
-      </c>
-      <c r="M60" t="n">
-        <v>94.85500000000002</v>
+        <v>94.5</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N60" t="n">
-        <v>94.72333333333337</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3314,49 +2846,42 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="C61" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="D61" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="E61" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="F61" t="n">
-        <v>1000</v>
+        <v>273.4938</v>
       </c>
       <c r="G61" t="n">
-        <v>94.67833333333337</v>
+        <v>94.97333333333336</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>94.67000000000004</v>
       </c>
       <c r="I61" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>4.099999999999994</v>
-      </c>
-      <c r="K61" t="n">
-        <v>16.66666666666637</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>95.28000000000003</v>
-      </c>
-      <c r="M61" t="n">
-        <v>94.89500000000001</v>
+        <v>94.5</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N61" t="n">
-        <v>94.76333333333338</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3380,34 +2905,27 @@
         <v>1000</v>
       </c>
       <c r="G62" t="n">
-        <v>94.68666666666671</v>
+        <v>95.02666666666669</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>94.67833333333337</v>
       </c>
       <c r="I62" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>4.099999999999994</v>
-      </c>
-      <c r="K62" t="n">
-        <v>16.66666666666637</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>95.32000000000004</v>
-      </c>
-      <c r="M62" t="n">
-        <v>94.93500000000002</v>
+        <v>94.5</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N62" t="n">
-        <v>94.79000000000005</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3416,49 +2934,42 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="D63" t="n">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="E63" t="n">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>213.5749</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="n">
-        <v>94.69000000000004</v>
+        <v>95.08000000000001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>94.68666666666671</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>4.399999999999991</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3.703703703703508</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>95.33000000000003</v>
-      </c>
-      <c r="M63" t="n">
-        <v>94.96000000000001</v>
+        <v>94.5</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N63" t="n">
-        <v>94.80666666666671</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3470,46 +2981,39 @@
         <v>95</v>
       </c>
       <c r="C64" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="D64" t="n">
         <v>95</v>
       </c>
       <c r="E64" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="F64" t="n">
-        <v>9673.7129</v>
+        <v>213.5749</v>
       </c>
       <c r="G64" t="n">
-        <v>94.69166666666669</v>
+        <v>95.11333333333336</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>94.69000000000004</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1000000000000085</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>4.499999999999986</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>95.33000000000003</v>
-      </c>
-      <c r="M64" t="n">
-        <v>94.98000000000002</v>
+        <v>94.5</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N64" t="n">
-        <v>94.82000000000006</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3518,49 +3022,42 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>95.8</v>
+        <v>95</v>
       </c>
       <c r="C65" t="n">
-        <v>95.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>95.8</v>
+        <v>95</v>
       </c>
       <c r="E65" t="n">
-        <v>95.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>9673.7129</v>
       </c>
       <c r="G65" t="n">
-        <v>94.71000000000004</v>
+        <v>95.14000000000003</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>94.69166666666669</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>5.399999999999977</v>
-      </c>
-      <c r="K65" t="n">
-        <v>24.32432432432426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>95.42000000000004</v>
-      </c>
-      <c r="M65" t="n">
-        <v>95.04500000000002</v>
+        <v>94.5</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N65" t="n">
-        <v>94.8633333333334</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3569,49 +3066,42 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="C66" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="D66" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="E66" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="F66" t="n">
         <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>94.73000000000003</v>
+        <v>95.22666666666669</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>94.71000000000004</v>
       </c>
       <c r="I66" t="n">
-        <v>1.100000000000009</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>5.499999999999986</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-3.703703703703508</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>95.52000000000004</v>
-      </c>
-      <c r="M66" t="n">
-        <v>95.11500000000002</v>
+        <v>94.5</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N66" t="n">
-        <v>94.91000000000007</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3632,37 +3122,30 @@
         <v>95.90000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>3317.2823</v>
+        <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>94.75000000000003</v>
+        <v>95.31333333333336</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>94.73000000000003</v>
       </c>
       <c r="I67" t="n">
-        <v>1.100000000000009</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>5.499999999999986</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-3.703703703703508</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
-        <v>95.51000000000003</v>
-      </c>
-      <c r="M67" t="n">
-        <v>95.18500000000003</v>
+        <v>94.5</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N67" t="n">
-        <v>94.95666666666673</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3671,49 +3154,42 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>96.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>96.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>8887.884599999999</v>
+        <v>3317.2823</v>
       </c>
       <c r="G68" t="n">
-        <v>94.78333333333336</v>
+        <v>95.38000000000004</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>94.75000000000003</v>
       </c>
       <c r="I68" t="n">
-        <v>1.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>6.299999999999983</v>
-      </c>
-      <c r="K68" t="n">
-        <v>20.00000000000016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>95.58000000000004</v>
-      </c>
-      <c r="M68" t="n">
-        <v>95.29500000000003</v>
+        <v>94.5</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N68" t="n">
-        <v>95.03000000000006</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3722,49 +3198,42 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>97.8</v>
+        <v>96</v>
       </c>
       <c r="C69" t="n">
-        <v>97.8</v>
+        <v>96.7</v>
       </c>
       <c r="D69" t="n">
-        <v>97.8</v>
+        <v>96.7</v>
       </c>
       <c r="E69" t="n">
-        <v>97.8</v>
+        <v>96</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>8887.884599999999</v>
       </c>
       <c r="G69" t="n">
-        <v>94.83500000000004</v>
+        <v>95.50000000000003</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>94.78333333333336</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>7.399999999999977</v>
-      </c>
-      <c r="K69" t="n">
-        <v>77.77777777777813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>95.76000000000003</v>
-      </c>
-      <c r="M69" t="n">
-        <v>95.46000000000002</v>
+        <v>94.5</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N69" t="n">
-        <v>95.14000000000007</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,40 +3251,33 @@
         <v>97.8</v>
       </c>
       <c r="E70" t="n">
-        <v>95.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="F70" t="n">
-        <v>51.3675</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>94.88666666666671</v>
+        <v>95.69333333333336</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>94.83500000000004</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>7.399999999999977</v>
-      </c>
-      <c r="K70" t="n">
-        <v>75.75757575757615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>96.04000000000003</v>
-      </c>
-      <c r="M70" t="n">
-        <v>95.62500000000003</v>
+        <v>94.5</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N70" t="n">
-        <v>95.25000000000007</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,7 +3286,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>96</v>
+        <v>97.8</v>
       </c>
       <c r="C71" t="n">
         <v>97.8</v>
@@ -3833,40 +3295,33 @@
         <v>97.8</v>
       </c>
       <c r="E71" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>42.5282</v>
+        <v>51.3675</v>
       </c>
       <c r="G71" t="n">
-        <v>94.93833333333338</v>
+        <v>95.88666666666668</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>94.88666666666671</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>7.399999999999977</v>
-      </c>
-      <c r="K71" t="n">
-        <v>75.75757575757615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>96.29000000000003</v>
-      </c>
-      <c r="M71" t="n">
-        <v>95.78500000000003</v>
+        <v>94.5</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N71" t="n">
-        <v>95.36000000000008</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3875,7 +3330,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>97.8</v>
+        <v>96</v>
       </c>
       <c r="C72" t="n">
         <v>97.8</v>
@@ -3884,40 +3339,33 @@
         <v>97.8</v>
       </c>
       <c r="E72" t="n">
-        <v>97.8</v>
+        <v>96</v>
       </c>
       <c r="F72" t="n">
-        <v>37.709</v>
+        <v>42.5282</v>
       </c>
       <c r="G72" t="n">
-        <v>94.99166666666672</v>
+        <v>96.08</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>94.93833333333338</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>7.399999999999977</v>
-      </c>
-      <c r="K72" t="n">
-        <v>93.33333333333368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
-        <v>96.54000000000003</v>
-      </c>
-      <c r="M72" t="n">
-        <v>95.93000000000002</v>
+        <v>94.5</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N72" t="n">
-        <v>95.47000000000008</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3926,49 +3374,42 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>95.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="C73" t="n">
-        <v>95.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="D73" t="n">
-        <v>95.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="E73" t="n">
-        <v>95.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="F73" t="n">
-        <v>312.9541</v>
+        <v>37.709</v>
       </c>
       <c r="G73" t="n">
-        <v>95.01333333333336</v>
+        <v>96.2</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>94.99166666666672</v>
       </c>
       <c r="I73" t="n">
-        <v>1.100000000000009</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>9.299999999999969</v>
-      </c>
-      <c r="K73" t="n">
-        <v>20.83333333333341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
-        <v>96.63000000000004</v>
-      </c>
-      <c r="M73" t="n">
-        <v>95.98000000000002</v>
+        <v>94.5</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N73" t="n">
-        <v>95.51666666666675</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3977,49 +3418,42 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>96.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>96.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>96.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>96.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>312.9541</v>
       </c>
       <c r="G74" t="n">
-        <v>95.0516666666667</v>
+        <v>96.19333333333334</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>95.01333333333336</v>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>10.19999999999996</v>
-      </c>
-      <c r="K74" t="n">
-        <v>20.83333333333341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
-        <v>96.82000000000004</v>
-      </c>
-      <c r="M74" t="n">
-        <v>96.07500000000002</v>
+        <v>94.5</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N74" t="n">
-        <v>95.59333333333343</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4028,49 +3462,42 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>95.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C75" t="n">
-        <v>95.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="D75" t="n">
-        <v>95.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="E75" t="n">
-        <v>95.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F75" t="n">
-        <v>800</v>
+        <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>95.07500000000003</v>
+        <v>96.24666666666667</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>95.0516666666667</v>
       </c>
       <c r="I75" t="n">
-        <v>1.100000000000009</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>11.09999999999995</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>96.83000000000004</v>
-      </c>
-      <c r="M75" t="n">
-        <v>96.12500000000001</v>
+        <v>94.5</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N75" t="n">
-        <v>95.6400000000001</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4079,49 +3506,42 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>96.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>96.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>96.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>96.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="G76" t="n">
-        <v>95.1016666666667</v>
+        <v>96.30666666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>95.07500000000003</v>
       </c>
       <c r="I76" t="n">
-        <v>1.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>11.29999999999994</v>
-      </c>
-      <c r="K76" t="n">
-        <v>3.448275862068797</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>96.85000000000004</v>
-      </c>
-      <c r="M76" t="n">
-        <v>96.185</v>
+        <v>94.5</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N76" t="n">
-        <v>95.69333333333343</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4130,49 +3550,42 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>95.90000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>95.90000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>95.90000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>95.90000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>251.3783</v>
+        <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>95.12333333333336</v>
+        <v>96.36</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>95.1016666666667</v>
       </c>
       <c r="I77" t="n">
-        <v>1.100000000000009</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>11.49999999999993</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-15.38461538461549</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>96.85000000000004</v>
-      </c>
-      <c r="M77" t="n">
-        <v>96.18000000000001</v>
+        <v>94.5</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N77" t="n">
-        <v>95.74000000000009</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4181,49 +3594,42 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>251.3783</v>
       </c>
       <c r="G78" t="n">
-        <v>95.14666666666669</v>
+        <v>96.40000000000002</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>95.12333333333336</v>
       </c>
       <c r="I78" t="n">
-        <v>1.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>11.59999999999992</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-42.85714285714334</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>96.78000000000004</v>
-      </c>
-      <c r="M78" t="n">
-        <v>96.18000000000001</v>
+        <v>94.5</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N78" t="n">
-        <v>95.79000000000011</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4235,46 +3641,39 @@
         <v>96</v>
       </c>
       <c r="C79" t="n">
-        <v>96.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="D79" t="n">
-        <v>96.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="E79" t="n">
         <v>96</v>
       </c>
       <c r="F79" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>95.17166666666668</v>
+        <v>96.46666666666668</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>95.14666666666669</v>
       </c>
       <c r="I79" t="n">
-        <v>1.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>11.69999999999992</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-39.53488372093085</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>96.61000000000004</v>
-      </c>
-      <c r="M79" t="n">
-        <v>96.185</v>
+        <v>94.5</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N79" t="n">
-        <v>95.84333333333343</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4283,49 +3682,42 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>97.8</v>
+        <v>96</v>
       </c>
       <c r="C80" t="n">
-        <v>97.8</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>97.8</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>97.8</v>
+        <v>96</v>
       </c>
       <c r="F80" t="n">
-        <v>10.11</v>
+        <v>20</v>
       </c>
       <c r="G80" t="n">
-        <v>95.22500000000001</v>
+        <v>96.54666666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>95.17166666666668</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>13.39999999999992</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>96.61000000000004</v>
-      </c>
-      <c r="M80" t="n">
-        <v>96.325</v>
+        <v>94.5</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N80" t="n">
-        <v>95.95333333333343</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4346,37 +3738,30 @@
         <v>97.8</v>
       </c>
       <c r="F81" t="n">
-        <v>55.5879</v>
+        <v>10.11</v>
       </c>
       <c r="G81" t="n">
-        <v>95.27833333333335</v>
+        <v>96.68000000000001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>95.22500000000001</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>13.39999999999992</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>96.61000000000004</v>
-      </c>
-      <c r="M81" t="n">
-        <v>96.45</v>
+        <v>94.5</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N81" t="n">
-        <v>96.06000000000012</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4385,49 +3770,42 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="C82" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="D82" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="E82" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="F82" t="n">
-        <v>10</v>
+        <v>55.5879</v>
       </c>
       <c r="G82" t="n">
-        <v>95.32833333333335</v>
+        <v>96.80666666666666</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>95.27833333333335</v>
       </c>
       <c r="I82" t="n">
-        <v>2.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>13.59999999999992</v>
-      </c>
-      <c r="K82" t="n">
-        <v>39.53488372093039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>96.59000000000003</v>
-      </c>
-      <c r="M82" t="n">
-        <v>96.565</v>
+        <v>94.5</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N82" t="n">
-        <v>96.15000000000011</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4436,49 +3814,42 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>96</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>96</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>96</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>96</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F83" t="n">
         <v>10</v>
       </c>
       <c r="G83" t="n">
-        <v>95.35166666666667</v>
+        <v>96.91999999999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>95.32833333333335</v>
       </c>
       <c r="I83" t="n">
-        <v>1.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>15.19999999999992</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-16.00000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>96.60000000000004</v>
-      </c>
-      <c r="M83" t="n">
-        <v>96.61499999999999</v>
+        <v>94.5</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N83" t="n">
-        <v>96.18666666666677</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4487,49 +3858,42 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="C84" t="n">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="D84" t="n">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="E84" t="n">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="F84" t="n">
         <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>95.40166666666667</v>
+        <v>96.87333333333331</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>95.35166666666667</v>
       </c>
       <c r="I84" t="n">
-        <v>2.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>16.69999999999992</v>
-      </c>
-      <c r="K84" t="n">
-        <v>28.57142857142864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
-        <v>96.67000000000004</v>
-      </c>
-      <c r="M84" t="n">
-        <v>96.74499999999999</v>
+        <v>94.5</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N84" t="n">
-        <v>96.27333333333344</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4538,49 +3902,42 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="C85" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="D85" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="E85" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="F85" t="n">
         <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>95.45333333333335</v>
+        <v>96.85333333333331</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>95.40166666666667</v>
       </c>
       <c r="I85" t="n">
-        <v>2.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>16.79999999999991</v>
-      </c>
-      <c r="K85" t="n">
-        <v>27.27272727272742</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>96.84000000000005</v>
-      </c>
-      <c r="M85" t="n">
-        <v>96.83499999999999</v>
+        <v>94.5</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N85" t="n">
-        <v>96.36333333333343</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4589,49 +3946,42 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>5128.2051</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>95.50333333333334</v>
+        <v>96.83999999999997</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>95.45333333333335</v>
       </c>
       <c r="I86" t="n">
-        <v>2.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>16.89999999999991</v>
-      </c>
-      <c r="K86" t="n">
-        <v>29.62962962962965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>96.98000000000005</v>
-      </c>
-      <c r="M86" t="n">
-        <v>96.91499999999999</v>
+        <v>94.5</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N86" t="n">
-        <v>96.45000000000009</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4640,49 +3990,42 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="C87" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="D87" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="E87" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="F87" t="n">
-        <v>330</v>
+        <v>5128.2051</v>
       </c>
       <c r="G87" t="n">
-        <v>95.55166666666668</v>
+        <v>96.81999999999998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>95.50333333333334</v>
       </c>
       <c r="I87" t="n">
-        <v>2.600000000000009</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>16.9999999999999</v>
-      </c>
-      <c r="K87" t="n">
-        <v>25.92592592592614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>97.13000000000005</v>
-      </c>
-      <c r="M87" t="n">
-        <v>96.98999999999998</v>
+        <v>94.5</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N87" t="n">
-        <v>96.49666666666675</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4691,49 +4034,42 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>3200</v>
+        <v>330</v>
       </c>
       <c r="G88" t="n">
-        <v>95.60166666666667</v>
+        <v>96.79333333333332</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>95.55166666666668</v>
       </c>
       <c r="I88" t="n">
-        <v>2.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>17.09999999999989</v>
-      </c>
-      <c r="K88" t="n">
-        <v>25.92592592592614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
-        <v>97.28000000000006</v>
-      </c>
-      <c r="M88" t="n">
-        <v>97.02999999999999</v>
+        <v>94.5</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N88" t="n">
-        <v>96.54666666666677</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4745,46 +4081,39 @@
         <v>97.5</v>
       </c>
       <c r="C89" t="n">
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="D89" t="n">
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="E89" t="n">
         <v>97.5</v>
       </c>
       <c r="F89" t="n">
-        <v>10800</v>
+        <v>3200</v>
       </c>
       <c r="G89" t="n">
-        <v>95.66000000000001</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>95.60166666666667</v>
       </c>
       <c r="I89" t="n">
-        <v>3.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>17.59999999999989</v>
-      </c>
-      <c r="K89" t="n">
-        <v>4.761904761904859</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
-        <v>97.47000000000006</v>
-      </c>
-      <c r="M89" t="n">
-        <v>97.03999999999999</v>
+        <v>94.5</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N89" t="n">
-        <v>96.61333333333343</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4793,49 +4122,42 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C90" t="n">
         <v>98</v>
       </c>
-      <c r="C90" t="n">
-        <v>98.40000000000001</v>
-      </c>
       <c r="D90" t="n">
-        <v>98.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="E90" t="n">
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="F90" t="n">
-        <v>3523</v>
+        <v>10800</v>
       </c>
       <c r="G90" t="n">
-        <v>95.72499999999999</v>
+        <v>96.97999999999999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>95.66000000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>3.600000000000009</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>17.9999999999999</v>
-      </c>
-      <c r="K90" t="n">
-        <v>13.04347826086981</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>97.53000000000006</v>
-      </c>
-      <c r="M90" t="n">
-        <v>97.06999999999999</v>
+        <v>94.5</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N90" t="n">
-        <v>96.72666666666676</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4844,7 +4166,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>98.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="C91" t="n">
         <v>98.40000000000001</v>
@@ -4853,40 +4175,33 @@
         <v>98.40000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>98.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="F91" t="n">
-        <v>2380</v>
+        <v>3523</v>
       </c>
       <c r="G91" t="n">
-        <v>95.79666666666665</v>
+        <v>97.14666666666666</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>95.72499999999999</v>
       </c>
       <c r="I91" t="n">
-        <v>3.600000000000009</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>17.9999999999999</v>
-      </c>
-      <c r="K91" t="n">
-        <v>18.18181818181854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
-        <v>97.59000000000007</v>
-      </c>
-      <c r="M91" t="n">
-        <v>97.09999999999999</v>
+        <v>94.5</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N91" t="n">
-        <v>96.8300000000001</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4907,37 +4222,30 @@
         <v>98.40000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>3564</v>
+        <v>2380</v>
       </c>
       <c r="G92" t="n">
-        <v>95.86166666666665</v>
+        <v>97.3</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>95.79666666666665</v>
       </c>
       <c r="I92" t="n">
-        <v>3.600000000000009</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>17.9999999999999</v>
-      </c>
-      <c r="K92" t="n">
-        <v>85.71428571428645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
-        <v>97.67000000000009</v>
-      </c>
-      <c r="M92" t="n">
-        <v>97.13000000000001</v>
+        <v>94.5</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N92" t="n">
-        <v>96.93333333333342</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4958,37 +4266,30 @@
         <v>98.40000000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>3477</v>
+        <v>3564</v>
       </c>
       <c r="G93" t="n">
-        <v>95.92666666666665</v>
+        <v>97.46666666666667</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>95.86166666666665</v>
       </c>
       <c r="I93" t="n">
-        <v>3.600000000000009</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>17.9999999999999</v>
-      </c>
-      <c r="K93" t="n">
-        <v>69.23076923077058</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
-        <v>97.91000000000008</v>
-      </c>
-      <c r="M93" t="n">
-        <v>97.25500000000001</v>
+        <v>94.5</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N93" t="n">
-        <v>97.04666666666677</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5009,37 +4310,30 @@
         <v>98.40000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>1981</v>
+        <v>3477</v>
       </c>
       <c r="G94" t="n">
-        <v>95.99166666666663</v>
+        <v>97.62666666666668</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>95.92666666666665</v>
       </c>
       <c r="I94" t="n">
-        <v>3.600000000000009</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>17.9999999999999</v>
-      </c>
-      <c r="K94" t="n">
-        <v>66.66666666666825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>98.00000000000009</v>
-      </c>
-      <c r="M94" t="n">
-        <v>97.33500000000001</v>
+        <v>94.5</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N94" t="n">
-        <v>97.16333333333343</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5048,49 +4342,42 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>99.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>99.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>99.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>99.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>10</v>
+        <v>1981</v>
       </c>
       <c r="G95" t="n">
-        <v>96.07166666666664</v>
+        <v>97.78000000000002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>95.99166666666663</v>
       </c>
       <c r="I95" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>18.89999999999989</v>
-      </c>
-      <c r="K95" t="n">
-        <v>90.0000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>98.17000000000009</v>
-      </c>
-      <c r="M95" t="n">
-        <v>97.50500000000001</v>
+        <v>94.5</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N95" t="n">
-        <v>97.2800000000001</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5111,37 +4398,30 @@
         <v>99.3</v>
       </c>
       <c r="F96" t="n">
-        <v>1139.3628</v>
+        <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>96.15166666666664</v>
+        <v>97.88000000000002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>96.07166666666664</v>
       </c>
       <c r="I96" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>18.89999999999989</v>
-      </c>
-      <c r="K96" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>98.35000000000009</v>
-      </c>
-      <c r="M96" t="n">
-        <v>97.66500000000001</v>
+        <v>94.5</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N96" t="n">
-        <v>97.39333333333343</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5150,49 +4430,42 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="C97" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="D97" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="E97" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="F97" t="n">
-        <v>1772.17</v>
+        <v>1139.3628</v>
       </c>
       <c r="G97" t="n">
-        <v>96.23333333333331</v>
+        <v>97.98000000000002</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>96.15166666666664</v>
       </c>
       <c r="I97" t="n">
-        <v>4.600000000000009</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>18.9999999999999</v>
-      </c>
-      <c r="K97" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>98.5500000000001</v>
-      </c>
-      <c r="M97" t="n">
-        <v>97.84</v>
+        <v>94.5</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N97" t="n">
-        <v>97.51000000000009</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5204,46 +4477,39 @@
         <v>99.40000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E98" t="n">
         <v>99.40000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>15941.315</v>
+        <v>1772.17</v>
       </c>
       <c r="G98" t="n">
-        <v>96.31666666666663</v>
+        <v>98.10000000000004</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>96.23333333333331</v>
       </c>
       <c r="I98" t="n">
-        <v>4.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>19.09999999999989</v>
-      </c>
-      <c r="K98" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>98.75000000000009</v>
-      </c>
-      <c r="M98" t="n">
-        <v>98.01500000000001</v>
+        <v>94.5</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N98" t="n">
-        <v>97.60333333333344</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5252,49 +4518,42 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="D99" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="E99" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>10</v>
+        <v>15941.315</v>
       </c>
       <c r="G99" t="n">
-        <v>96.40166666666664</v>
+        <v>98.33333333333336</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>96.31666666666663</v>
       </c>
       <c r="I99" t="n">
-        <v>4.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>19.19999999999989</v>
-      </c>
-      <c r="K99" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>98.91000000000008</v>
-      </c>
-      <c r="M99" t="n">
-        <v>98.19000000000001</v>
+        <v>94.5</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N99" t="n">
-        <v>97.66333333333343</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5306,46 +4565,39 @@
         <v>99.59999999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E100" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="G100" t="n">
-        <v>96.4883333333333</v>
+        <v>98.47333333333336</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>96.40166666666664</v>
       </c>
       <c r="I100" t="n">
-        <v>4.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>19.2999999999999</v>
-      </c>
-      <c r="K100" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
-        <v>99.04000000000009</v>
-      </c>
-      <c r="M100" t="n">
-        <v>98.285</v>
+        <v>94.5</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N100" t="n">
-        <v>97.72666666666674</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5366,37 +4618,30 @@
         <v>99.59999999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>10009.6673</v>
+        <v>120</v>
       </c>
       <c r="G101" t="n">
-        <v>96.57499999999997</v>
+        <v>98.61333333333337</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>96.4883333333333</v>
       </c>
       <c r="I101" t="n">
-        <v>4.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>19.2999999999999</v>
-      </c>
-      <c r="K101" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
-        <v>99.17000000000009</v>
-      </c>
-      <c r="M101" t="n">
-        <v>98.38000000000001</v>
+        <v>94.5</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N101" t="n">
-        <v>97.79000000000006</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5405,50 +4650,43 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C102" t="n">
         <v>99.7</v>
       </c>
       <c r="D102" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="E102" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>810</v>
+        <v>10009.6673</v>
       </c>
       <c r="G102" t="n">
-        <v>96.66166666666663</v>
+        <v>98.76000000000003</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>96.57499999999997</v>
       </c>
       <c r="I102" t="n">
-        <v>4.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>19.2999999999999</v>
-      </c>
-      <c r="K102" t="n">
-        <v>100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>99.30000000000008</v>
-      </c>
-      <c r="M102" t="n">
-        <v>98.48500000000001</v>
+        <v>94.5</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="N102" t="n">
-        <v>97.8533333333334</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
-        <v>1</v>
+        <v>1.050026455026455</v>
       </c>
     </row>
     <row r="103">
@@ -5456,49 +4694,36 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="C103" t="n">
         <v>99.7</v>
       </c>
       <c r="D103" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="E103" t="n">
         <v>99.7</v>
       </c>
       <c r="F103" t="n">
-        <v>5076.9024</v>
+        <v>810</v>
       </c>
       <c r="G103" t="n">
-        <v>96.74833333333329</v>
+        <v>98.91333333333337</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>96.66166666666663</v>
       </c>
       <c r="I103" t="n">
-        <v>4.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>19.2999999999999</v>
-      </c>
-      <c r="K103" t="n">
-        <v>100</v>
-      </c>
-      <c r="L103" t="n">
-        <v>99.43000000000008</v>
-      </c>
-      <c r="M103" t="n">
-        <v>98.67</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
       <c r="N103" t="n">
-        <v>97.98000000000005</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5507,49 +4732,36 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>99.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C104" t="n">
-        <v>99.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="D104" t="n">
-        <v>99.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="E104" t="n">
-        <v>99.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="F104" t="n">
-        <v>1543.7785</v>
+        <v>5076.9024</v>
       </c>
       <c r="G104" t="n">
-        <v>96.82999999999996</v>
+        <v>99.06000000000003</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>96.74833333333329</v>
       </c>
       <c r="I104" t="n">
-        <v>4.600000000000009</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>19.59999999999989</v>
-      </c>
-      <c r="K104" t="n">
-        <v>14.28571428571544</v>
-      </c>
-      <c r="L104" t="n">
-        <v>99.53000000000007</v>
-      </c>
-      <c r="M104" t="n">
-        <v>98.76500000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
       <c r="N104" t="n">
-        <v>98.06666666666671</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,49 +4770,36 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>98</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>97.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>98</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>97.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>24755.886</v>
+        <v>1543.7785</v>
       </c>
       <c r="G105" t="n">
-        <v>96.87999999999995</v>
+        <v>99.15333333333338</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>96.82999999999996</v>
       </c>
       <c r="I105" t="n">
-        <v>2.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>21.4999999999999</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-69.2307692307689</v>
-      </c>
-      <c r="L105" t="n">
-        <v>99.35000000000007</v>
-      </c>
-      <c r="M105" t="n">
-        <v>98.76000000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
       <c r="N105" t="n">
-        <v>98.12000000000005</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5609,49 +4808,36 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>98.8</v>
+        <v>98</v>
       </c>
       <c r="C106" t="n">
-        <v>98.8</v>
+        <v>97.5</v>
       </c>
       <c r="D106" t="n">
-        <v>98.8</v>
+        <v>98</v>
       </c>
       <c r="E106" t="n">
-        <v>98.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>20</v>
+        <v>24755.886</v>
       </c>
       <c r="G106" t="n">
-        <v>96.95166666666663</v>
+        <v>99.09333333333338</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>96.87999999999995</v>
       </c>
       <c r="I106" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>22.7999999999999</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-15.78947368421076</v>
-      </c>
-      <c r="L106" t="n">
-        <v>99.30000000000007</v>
-      </c>
-      <c r="M106" t="n">
-        <v>98.82500000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
       <c r="N106" t="n">
-        <v>98.21000000000005</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5660,49 +4846,36 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>97.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="C107" t="n">
-        <v>97.5</v>
+        <v>98.8</v>
       </c>
       <c r="D107" t="n">
-        <v>97.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="E107" t="n">
-        <v>97.5</v>
+        <v>98.8</v>
       </c>
       <c r="F107" t="n">
-        <v>15434.1028</v>
+        <v>20</v>
       </c>
       <c r="G107" t="n">
-        <v>97.00166666666662</v>
+        <v>99.12000000000003</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>96.95166666666663</v>
       </c>
       <c r="I107" t="n">
-        <v>2.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>24.09999999999989</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L107" t="n">
-        <v>99.11000000000007</v>
-      </c>
-      <c r="M107" t="n">
-        <v>98.83000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
       <c r="N107" t="n">
-        <v>98.26333333333338</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5711,49 +4884,36 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="C108" t="n">
         <v>97.5</v>
       </c>
-      <c r="C108" t="n">
-        <v>97.3</v>
-      </c>
       <c r="D108" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="E108" t="n">
         <v>97.5</v>
       </c>
-      <c r="E108" t="n">
-        <v>97.3</v>
-      </c>
       <c r="F108" t="n">
-        <v>16449.5043</v>
+        <v>15434.1028</v>
       </c>
       <c r="G108" t="n">
-        <v>97.0483333333333</v>
+        <v>99.06000000000002</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>97.00166666666662</v>
       </c>
       <c r="I108" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>24.2999999999999</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-45.09803921568614</v>
-      </c>
-      <c r="L108" t="n">
-        <v>98.89000000000007</v>
-      </c>
-      <c r="M108" t="n">
-        <v>98.82000000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
       <c r="N108" t="n">
-        <v>98.30666666666671</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5762,559 +4922,36 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>98.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="C109" t="n">
-        <v>98.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="D109" t="n">
-        <v>98.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="E109" t="n">
-        <v>98.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="F109" t="n">
-        <v>10</v>
+        <v>16449.5043</v>
       </c>
       <c r="G109" t="n">
-        <v>97.11333333333329</v>
+        <v>98.98666666666668</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>97.0483333333333</v>
       </c>
       <c r="I109" t="n">
-        <v>3.600000000000009</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>25.39999999999991</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-21.31147540983599</v>
-      </c>
-      <c r="L109" t="n">
-        <v>98.77000000000008</v>
-      </c>
-      <c r="M109" t="n">
-        <v>98.84000000000003</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
       <c r="N109" t="n">
-        <v>98.3833333333334</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C110" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="D110" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="E110" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="F110" t="n">
-        <v>3997.2295</v>
-      </c>
-      <c r="G110" t="n">
-        <v>97.16333333333328</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J110" t="n">
-        <v>26.29999999999991</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-31.42857142857141</v>
-      </c>
-      <c r="L110" t="n">
-        <v>98.55000000000007</v>
-      </c>
-      <c r="M110" t="n">
-        <v>98.79500000000003</v>
-      </c>
-      <c r="N110" t="n">
-        <v>98.37333333333339</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C111" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="D111" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="E111" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="F111" t="n">
-        <v>17357.1143</v>
-      </c>
-      <c r="G111" t="n">
-        <v>97.19833333333328</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1.900000000000006</v>
-      </c>
-      <c r="J111" t="n">
-        <v>27.09999999999991</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-38.46153846153841</v>
-      </c>
-      <c r="L111" t="n">
-        <v>98.25000000000007</v>
-      </c>
-      <c r="M111" t="n">
-        <v>98.71000000000001</v>
-      </c>
-      <c r="N111" t="n">
-        <v>98.33666666666672</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="C112" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="D112" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="E112" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="F112" t="n">
-        <v>3599.068</v>
-      </c>
-      <c r="G112" t="n">
-        <v>97.22833333333328</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1.900000000000006</v>
-      </c>
-      <c r="J112" t="n">
-        <v>27.09999999999991</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-38.46153846153841</v>
-      </c>
-      <c r="L112" t="n">
-        <v>97.95000000000007</v>
-      </c>
-      <c r="M112" t="n">
-        <v>98.625</v>
-      </c>
-      <c r="N112" t="n">
-        <v>98.3066666666667</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="C113" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="D113" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="E113" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="F113" t="n">
-        <v>160</v>
-      </c>
-      <c r="G113" t="n">
-        <v>97.25833333333328</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1.900000000000006</v>
-      </c>
-      <c r="J113" t="n">
-        <v>27.09999999999991</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-35.99999999999997</v>
-      </c>
-      <c r="L113" t="n">
-        <v>97.65000000000006</v>
-      </c>
-      <c r="M113" t="n">
-        <v>98.53999999999999</v>
-      </c>
-      <c r="N113" t="n">
-        <v>98.33000000000003</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="C114" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="D114" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="E114" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="F114" t="n">
-        <v>388.0161</v>
-      </c>
-      <c r="G114" t="n">
-        <v>97.2983333333333</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J114" t="n">
-        <v>27.6999999999999</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-3.225806451612947</v>
-      </c>
-      <c r="L114" t="n">
-        <v>97.44000000000007</v>
-      </c>
-      <c r="M114" t="n">
-        <v>98.48499999999999</v>
-      </c>
-      <c r="N114" t="n">
-        <v>98.32333333333337</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="C115" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="D115" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="E115" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="F115" t="n">
-        <v>10</v>
-      </c>
-      <c r="G115" t="n">
-        <v>97.35666666666663</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>3.600000000000009</v>
-      </c>
-      <c r="J115" t="n">
-        <v>28.79999999999991</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-6.666666666666508</v>
-      </c>
-      <c r="L115" t="n">
-        <v>97.53000000000006</v>
-      </c>
-      <c r="M115" t="n">
-        <v>98.44</v>
-      </c>
-      <c r="N115" t="n">
-        <v>98.35000000000005</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="C116" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="D116" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="E116" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1747.8114</v>
-      </c>
-      <c r="G116" t="n">
-        <v>97.41499999999996</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>3.600000000000009</v>
-      </c>
-      <c r="J116" t="n">
-        <v>28.79999999999991</v>
-      </c>
-      <c r="K116" t="n">
-        <v>19.14893617021282</v>
-      </c>
-      <c r="L116" t="n">
-        <v>97.49000000000008</v>
-      </c>
-      <c r="M116" t="n">
-        <v>98.395</v>
-      </c>
-      <c r="N116" t="n">
-        <v>98.38000000000005</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C117" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="D117" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="E117" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="F117" t="n">
-        <v>259.7719</v>
-      </c>
-      <c r="G117" t="n">
-        <v>97.43999999999997</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J117" t="n">
-        <v>29.69999999999992</v>
-      </c>
-      <c r="K117" t="n">
-        <v>3.703703703703742</v>
-      </c>
-      <c r="L117" t="n">
-        <v>97.49000000000008</v>
-      </c>
-      <c r="M117" t="n">
-        <v>98.29999999999998</v>
-      </c>
-      <c r="N117" t="n">
-        <v>98.38333333333338</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C118" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="D118" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="E118" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="F118" t="n">
-        <v>5273.1995</v>
-      </c>
-      <c r="G118" t="n">
-        <v>97.4633333333333</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>2.600000000000009</v>
-      </c>
-      <c r="J118" t="n">
-        <v>29.79999999999991</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-22.7272727272727</v>
-      </c>
-      <c r="L118" t="n">
-        <v>97.50000000000009</v>
-      </c>
-      <c r="M118" t="n">
-        <v>98.19499999999998</v>
-      </c>
-      <c r="N118" t="n">
-        <v>98.38000000000005</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="C119" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="D119" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="E119" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="F119" t="n">
-        <v>10</v>
-      </c>
-      <c r="G119" t="n">
-        <v>97.48666666666662</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>2.600000000000009</v>
-      </c>
-      <c r="J119" t="n">
-        <v>29.79999999999991</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-2.857142857142695</v>
-      </c>
-      <c r="L119" t="n">
-        <v>97.40000000000011</v>
-      </c>
-      <c r="M119" t="n">
-        <v>98.08499999999999</v>
-      </c>
-      <c r="N119" t="n">
-        <v>98.36000000000006</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest PAY.xlsx
+++ b/BackTest/2019-10-19 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:M138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>94.8</v>
+        <v>96.5</v>
       </c>
       <c r="C2" t="n">
-        <v>94.8</v>
+        <v>96.5</v>
       </c>
       <c r="D2" t="n">
-        <v>94.8</v>
+        <v>96.5</v>
       </c>
       <c r="E2" t="n">
-        <v>94.7</v>
+        <v>96.5</v>
       </c>
       <c r="F2" t="n">
-        <v>2308.7175</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>95.01333333333334</v>
+        <v>-134441.9473</v>
       </c>
       <c r="H2" t="n">
-        <v>96.06333333333328</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>94.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>94.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>94.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>94.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>800</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>94.98</v>
+        <v>-134431.9473</v>
       </c>
       <c r="H3" t="n">
-        <v>96.02999999999994</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>94.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>94.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>94.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>94.8</v>
+        <v>95.2</v>
       </c>
       <c r="F4" t="n">
-        <v>400</v>
+        <v>47587.5773</v>
       </c>
       <c r="G4" t="n">
-        <v>94.94666666666667</v>
+        <v>-182019.5246</v>
       </c>
       <c r="H4" t="n">
-        <v>95.99499999999995</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>94.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>94.8</v>
+        <v>95.5</v>
       </c>
       <c r="D5" t="n">
-        <v>94.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>94.8</v>
+        <v>95.5</v>
       </c>
       <c r="F5" t="n">
-        <v>2572</v>
+        <v>2400</v>
       </c>
       <c r="G5" t="n">
-        <v>94.91333333333334</v>
+        <v>-184419.5246</v>
       </c>
       <c r="H5" t="n">
-        <v>95.95999999999997</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>94.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>94.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>94.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>94.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>369</v>
+        <v>800</v>
       </c>
       <c r="G6" t="n">
-        <v>94.87333333333335</v>
+        <v>-185219.5246</v>
       </c>
       <c r="H6" t="n">
-        <v>95.91666666666661</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>94.7</v>
+        <v>95.5</v>
       </c>
       <c r="C7" t="n">
-        <v>94.7</v>
+        <v>95.5</v>
       </c>
       <c r="D7" t="n">
-        <v>94.7</v>
+        <v>95.5</v>
       </c>
       <c r="E7" t="n">
-        <v>94.7</v>
+        <v>95.5</v>
       </c>
       <c r="F7" t="n">
-        <v>490</v>
+        <v>663</v>
       </c>
       <c r="G7" t="n">
-        <v>94.83333333333334</v>
+        <v>-184556.5246</v>
       </c>
       <c r="H7" t="n">
-        <v>95.87333333333328</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>94.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>94.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>94.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>94.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>436</v>
+        <v>663</v>
       </c>
       <c r="G8" t="n">
-        <v>94.81333333333335</v>
+        <v>-183893.5246</v>
       </c>
       <c r="H8" t="n">
-        <v>95.82999999999994</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>94.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>94.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>94.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>94.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>812</v>
+        <v>5052</v>
       </c>
       <c r="G9" t="n">
-        <v>94.79333333333335</v>
+        <v>-183893.5246</v>
       </c>
       <c r="H9" t="n">
-        <v>95.7866666666666</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>94.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>94.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>94.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>94.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>800</v>
+        <v>90</v>
       </c>
       <c r="G10" t="n">
-        <v>94.78000000000002</v>
+        <v>-183803.5246</v>
       </c>
       <c r="H10" t="n">
-        <v>95.7416666666666</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>94.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>94.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>94.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>94.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>400</v>
+        <v>5285.635</v>
       </c>
       <c r="G11" t="n">
-        <v>94.76666666666668</v>
+        <v>-183803.5246</v>
       </c>
       <c r="H11" t="n">
-        <v>95.69666666666662</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>94.7</v>
+        <v>95.8</v>
       </c>
       <c r="C12" t="n">
-        <v>94.7</v>
+        <v>95.8</v>
       </c>
       <c r="D12" t="n">
-        <v>94.7</v>
+        <v>95.8</v>
       </c>
       <c r="E12" t="n">
-        <v>94.7</v>
+        <v>95.8</v>
       </c>
       <c r="F12" t="n">
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="G12" t="n">
-        <v>94.75333333333334</v>
+        <v>-184203.5246</v>
       </c>
       <c r="H12" t="n">
-        <v>95.64999999999993</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>94.59999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="C13" t="n">
-        <v>94.59999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="D13" t="n">
-        <v>94.59999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="E13" t="n">
-        <v>94.59999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="F13" t="n">
-        <v>532</v>
+        <v>1779</v>
       </c>
       <c r="G13" t="n">
-        <v>94.73333333333333</v>
+        <v>-184203.5246</v>
       </c>
       <c r="H13" t="n">
-        <v>95.60166666666662</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>94.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="C14" t="n">
-        <v>94.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="D14" t="n">
-        <v>94.59999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="E14" t="n">
-        <v>93.7</v>
+        <v>95.5</v>
       </c>
       <c r="F14" t="n">
-        <v>37378.6902</v>
+        <v>3137</v>
       </c>
       <c r="G14" t="n">
-        <v>94.72</v>
+        <v>-187340.5246</v>
       </c>
       <c r="H14" t="n">
-        <v>95.57166666666663</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="C15" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="D15" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="E15" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="F15" t="n">
-        <v>16</v>
+        <v>7636</v>
       </c>
       <c r="G15" t="n">
-        <v>94.7</v>
+        <v>-187340.5246</v>
       </c>
       <c r="H15" t="n">
-        <v>95.53999999999996</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="C16" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="D16" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="E16" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G16" t="n">
-        <v>94.68666666666667</v>
+        <v>-187340.5246</v>
       </c>
       <c r="H16" t="n">
-        <v>95.51666666666664</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>94.5</v>
+        <v>95.3</v>
       </c>
       <c r="C17" t="n">
-        <v>94.5</v>
+        <v>95.3</v>
       </c>
       <c r="D17" t="n">
-        <v>94.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>94.5</v>
+        <v>95.3</v>
       </c>
       <c r="F17" t="n">
-        <v>800</v>
+        <v>5385</v>
       </c>
       <c r="G17" t="n">
-        <v>94.66666666666667</v>
+        <v>-192725.5246</v>
       </c>
       <c r="H17" t="n">
-        <v>95.49333333333331</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>94.5</v>
+        <v>95.3</v>
       </c>
       <c r="C18" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="D18" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="E18" t="n">
-        <v>94.5</v>
+        <v>95.3</v>
       </c>
       <c r="F18" t="n">
-        <v>8324</v>
+        <v>800</v>
       </c>
       <c r="G18" t="n">
-        <v>94.65333333333334</v>
+        <v>-192725.5246</v>
       </c>
       <c r="H18" t="n">
-        <v>95.47166666666665</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="C19" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="D19" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="E19" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G19" t="n">
-        <v>94.64</v>
+        <v>-192725.5246</v>
       </c>
       <c r="H19" t="n">
-        <v>95.45</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="C20" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="D20" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="E20" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="F20" t="n">
-        <v>398</v>
+        <v>591</v>
       </c>
       <c r="G20" t="n">
-        <v>94.62666666666665</v>
+        <v>-192725.5246</v>
       </c>
       <c r="H20" t="n">
-        <v>95.42833333333334</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="C21" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="D21" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="E21" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="F21" t="n">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="G21" t="n">
-        <v>94.61999999999998</v>
+        <v>-192725.5246</v>
       </c>
       <c r="H21" t="n">
-        <v>95.40000000000002</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="C22" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="D22" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="E22" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="F22" t="n">
-        <v>350</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>94.6133333333333</v>
+        <v>-192735.5246</v>
       </c>
       <c r="H22" t="n">
-        <v>95.36166666666669</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="C23" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="D23" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="E23" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>260.7724</v>
       </c>
       <c r="G23" t="n">
-        <v>94.60666666666663</v>
+        <v>-192735.5246</v>
       </c>
       <c r="H23" t="n">
-        <v>95.3216666666667</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="C24" t="n">
-        <v>94.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="E24" t="n">
-        <v>94.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>1200</v>
+        <v>10895.6748</v>
       </c>
       <c r="G24" t="n">
-        <v>94.59999999999995</v>
+        <v>-203631.1994</v>
       </c>
       <c r="H24" t="n">
-        <v>95.28333333333337</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>1689</v>
+        <v>3600</v>
       </c>
       <c r="G25" t="n">
-        <v>94.58666666666662</v>
+        <v>-203631.1994</v>
       </c>
       <c r="H25" t="n">
-        <v>95.24333333333338</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>2777</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>94.57333333333328</v>
+        <v>-203631.1994</v>
       </c>
       <c r="H26" t="n">
-        <v>95.20166666666672</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>1255</v>
+        <v>900</v>
       </c>
       <c r="G27" t="n">
-        <v>94.55999999999995</v>
+        <v>-203631.1994</v>
       </c>
       <c r="H27" t="n">
-        <v>95.16000000000005</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="C28" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="D28" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="E28" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="F28" t="n">
-        <v>381</v>
+        <v>6400</v>
       </c>
       <c r="G28" t="n">
-        <v>94.55333333333328</v>
+        <v>-210031.1994</v>
       </c>
       <c r="H28" t="n">
-        <v>95.11833333333338</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1467,33 +1381,30 @@
         <v>94.5</v>
       </c>
       <c r="C29" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="D29" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="E29" t="n">
         <v>94.5</v>
       </c>
       <c r="F29" t="n">
-        <v>1852</v>
+        <v>1230.7629</v>
       </c>
       <c r="G29" t="n">
-        <v>94.54666666666662</v>
+        <v>-210031.1994</v>
       </c>
       <c r="H29" t="n">
-        <v>95.08000000000006</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="C30" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="D30" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="E30" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="F30" t="n">
-        <v>54</v>
+        <v>2105.2389</v>
       </c>
       <c r="G30" t="n">
-        <v>94.54666666666662</v>
+        <v>-212136.4383</v>
       </c>
       <c r="H30" t="n">
-        <v>95.06333333333338</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="C31" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="D31" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="E31" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="F31" t="n">
-        <v>1835</v>
+        <v>2308.7175</v>
       </c>
       <c r="G31" t="n">
-        <v>94.54666666666662</v>
+        <v>-209827.7208</v>
       </c>
       <c r="H31" t="n">
-        <v>95.03833333333338</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="C32" t="n">
-        <v>94.09999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="D32" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="E32" t="n">
-        <v>94.09999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="F32" t="n">
-        <v>159</v>
+        <v>800</v>
       </c>
       <c r="G32" t="n">
-        <v>94.51999999999995</v>
+        <v>-209827.7208</v>
       </c>
       <c r="H32" t="n">
-        <v>94.99166666666673</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>94.09999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="C33" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="D33" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="E33" t="n">
-        <v>94.09999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="F33" t="n">
-        <v>5520</v>
+        <v>400</v>
       </c>
       <c r="G33" t="n">
-        <v>94.51333333333329</v>
+        <v>-209827.7208</v>
       </c>
       <c r="H33" t="n">
-        <v>94.9583333333334</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="C34" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="D34" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="E34" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>2572</v>
       </c>
       <c r="G34" t="n">
-        <v>94.50666666666663</v>
+        <v>-209827.7208</v>
       </c>
       <c r="H34" t="n">
-        <v>94.92333333333339</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="C35" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="D35" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="E35" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="F35" t="n">
-        <v>51.0687</v>
+        <v>369</v>
       </c>
       <c r="G35" t="n">
-        <v>94.49999999999997</v>
+        <v>-210196.7208</v>
       </c>
       <c r="H35" t="n">
-        <v>94.90000000000006</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,40 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="C36" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="D36" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="E36" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="F36" t="n">
-        <v>1200</v>
+        <v>490</v>
       </c>
       <c r="G36" t="n">
-        <v>94.49333333333331</v>
+        <v>-210196.7208</v>
       </c>
       <c r="H36" t="n">
-        <v>94.8833333333334</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L36" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1772,44 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="C37" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="D37" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="E37" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="F37" t="n">
-        <v>977</v>
+        <v>436</v>
       </c>
       <c r="G37" t="n">
-        <v>94.48666666666665</v>
+        <v>-210196.7208</v>
       </c>
       <c r="H37" t="n">
-        <v>94.8683333333334</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L37" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1818,44 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="C38" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="D38" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="E38" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="F38" t="n">
-        <v>627</v>
+        <v>812</v>
       </c>
       <c r="G38" t="n">
-        <v>94.47999999999999</v>
+        <v>-210196.7208</v>
       </c>
       <c r="H38" t="n">
-        <v>94.85166666666673</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L38" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,40 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="C39" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="D39" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="E39" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="F39" t="n">
-        <v>863</v>
+        <v>800</v>
       </c>
       <c r="G39" t="n">
-        <v>94.47333333333333</v>
+        <v>-210196.7208</v>
       </c>
       <c r="H39" t="n">
-        <v>94.8333333333334</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L39" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1906,44 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="C40" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="D40" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="E40" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="F40" t="n">
-        <v>7591</v>
+        <v>400</v>
       </c>
       <c r="G40" t="n">
-        <v>94.47333333333333</v>
+        <v>-210196.7208</v>
       </c>
       <c r="H40" t="n">
-        <v>94.81500000000005</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L40" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1952,44 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="C41" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="D41" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="E41" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="F41" t="n">
-        <v>1200</v>
+        <v>337</v>
       </c>
       <c r="G41" t="n">
-        <v>94.47333333333333</v>
+        <v>-210196.7208</v>
       </c>
       <c r="H41" t="n">
-        <v>94.79166666666673</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L41" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1998,40 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>5960</v>
+        <v>532</v>
       </c>
       <c r="G42" t="n">
-        <v>94.47333333333333</v>
+        <v>-210728.7208</v>
       </c>
       <c r="H42" t="n">
-        <v>94.7683333333334</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L42" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2040,42 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>94.5</v>
+        <v>93.7</v>
       </c>
       <c r="F43" t="n">
-        <v>400</v>
+        <v>37378.6902</v>
       </c>
       <c r="G43" t="n">
-        <v>94.47333333333333</v>
+        <v>-210728.7208</v>
       </c>
       <c r="H43" t="n">
-        <v>94.74666666666673</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2096,30 +1915,21 @@
         <v>94.5</v>
       </c>
       <c r="F44" t="n">
-        <v>800</v>
+        <v>16</v>
       </c>
       <c r="G44" t="n">
-        <v>94.47333333333333</v>
+        <v>-210744.7208</v>
       </c>
       <c r="H44" t="n">
-        <v>94.72500000000007</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2140,24 +1950,21 @@
         <v>94.5</v>
       </c>
       <c r="F45" t="n">
-        <v>800</v>
+        <v>20</v>
       </c>
       <c r="G45" t="n">
-        <v>94.47333333333333</v>
+        <v>-210744.7208</v>
       </c>
       <c r="H45" t="n">
-        <v>94.7083333333334</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2181,25 +1988,18 @@
         <v>800</v>
       </c>
       <c r="G46" t="n">
-        <v>94.47333333333333</v>
+        <v>-210744.7208</v>
       </c>
       <c r="H46" t="n">
-        <v>94.69166666666673</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L46" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2211,41 +2011,30 @@
         <v>94.5</v>
       </c>
       <c r="C47" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E47" t="n">
         <v>94.5</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>8324</v>
       </c>
       <c r="G47" t="n">
-        <v>94.5</v>
+        <v>-202420.7208</v>
       </c>
       <c r="H47" t="n">
-        <v>94.67500000000005</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L47" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2254,44 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>11830.6878</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>94.5</v>
+        <v>-202420.7208</v>
       </c>
       <c r="H48" t="n">
-        <v>94.66166666666672</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L48" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,40 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>800</v>
+        <v>398</v>
       </c>
       <c r="G49" t="n">
-        <v>94.5</v>
+        <v>-202420.7208</v>
       </c>
       <c r="H49" t="n">
-        <v>94.64833333333338</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L49" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2342,44 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="G50" t="n">
-        <v>94.5</v>
+        <v>-202420.7208</v>
       </c>
       <c r="H50" t="n">
-        <v>94.63500000000005</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L50" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2388,44 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>1612</v>
+        <v>350</v>
       </c>
       <c r="G51" t="n">
-        <v>94.5</v>
+        <v>-202420.7208</v>
       </c>
       <c r="H51" t="n">
-        <v>94.62166666666671</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L51" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2434,7 +2183,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C52" t="n">
         <v>94.59999999999999</v>
@@ -2443,35 +2192,24 @@
         <v>94.59999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>14400</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>94.50666666666666</v>
+        <v>-202420.7208</v>
       </c>
       <c r="H52" t="n">
-        <v>94.61000000000006</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L52" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2483,41 +2221,34 @@
         <v>94.59999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>94.90000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>94.90000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E53" t="n">
         <v>94.59999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>10980</v>
+        <v>1200</v>
       </c>
       <c r="G53" t="n">
-        <v>94.53333333333333</v>
+        <v>-202420.7208</v>
       </c>
       <c r="H53" t="n">
-        <v>94.60833333333338</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="K53" t="n">
         <v>94.59999999999999</v>
       </c>
-      <c r="L53" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2526,44 +2257,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C54" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D54" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E54" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F54" t="n">
-        <v>45.7681</v>
+        <v>1689</v>
       </c>
       <c r="G54" t="n">
-        <v>94.56</v>
+        <v>-204109.7208</v>
       </c>
       <c r="H54" t="n">
-        <v>94.60666666666671</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="L54" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2572,44 +2298,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C55" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D55" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E55" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F55" t="n">
-        <v>2400</v>
+        <v>2777</v>
       </c>
       <c r="G55" t="n">
-        <v>94.58666666666667</v>
+        <v>-204109.7208</v>
       </c>
       <c r="H55" t="n">
-        <v>94.60666666666671</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="L55" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,44 +2339,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C56" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D56" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E56" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F56" t="n">
-        <v>3200</v>
+        <v>1255</v>
       </c>
       <c r="G56" t="n">
-        <v>94.61333333333336</v>
+        <v>-204109.7208</v>
       </c>
       <c r="H56" t="n">
-        <v>94.60666666666671</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="L56" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2664,44 +2374,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C57" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D57" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E57" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F57" t="n">
-        <v>1255.6375</v>
+        <v>381</v>
       </c>
       <c r="G57" t="n">
-        <v>94.64000000000003</v>
+        <v>-204109.7208</v>
       </c>
       <c r="H57" t="n">
-        <v>94.60666666666671</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="L57" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2710,44 +2409,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C58" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="D58" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="E58" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F58" t="n">
-        <v>4214.0604</v>
+        <v>1852</v>
       </c>
       <c r="G58" t="n">
-        <v>94.74000000000002</v>
+        <v>-204109.7208</v>
       </c>
       <c r="H58" t="n">
-        <v>94.62500000000004</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="L58" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,44 +2444,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="C59" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="D59" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="E59" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="F59" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G59" t="n">
-        <v>94.84000000000002</v>
+        <v>-204109.7208</v>
       </c>
       <c r="H59" t="n">
-        <v>94.64500000000004</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="K59" t="n">
-        <v>96</v>
-      </c>
-      <c r="L59" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2802,42 +2483,41 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="C60" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="D60" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="E60" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>1835</v>
       </c>
       <c r="G60" t="n">
-        <v>94.94000000000003</v>
+        <v>-204109.7208</v>
       </c>
       <c r="H60" t="n">
-        <v>94.66500000000003</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2846,42 +2526,41 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="C61" t="n">
-        <v>95</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="E61" t="n">
-        <v>95</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>273.4938</v>
+        <v>159</v>
       </c>
       <c r="G61" t="n">
-        <v>94.97333333333336</v>
+        <v>-204268.7208</v>
       </c>
       <c r="H61" t="n">
-        <v>94.67000000000004</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2890,42 +2569,41 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>94.90000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>95.3</v>
+        <v>94.5</v>
       </c>
       <c r="D62" t="n">
-        <v>95.3</v>
+        <v>94.5</v>
       </c>
       <c r="E62" t="n">
-        <v>94.90000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>1000</v>
+        <v>5520</v>
       </c>
       <c r="G62" t="n">
-        <v>95.02666666666669</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H62" t="n">
-        <v>94.67833333333337</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="K62" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2934,42 +2612,41 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C63" t="n">
-        <v>95.3</v>
+        <v>94.5</v>
       </c>
       <c r="D63" t="n">
-        <v>95.3</v>
+        <v>94.5</v>
       </c>
       <c r="E63" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F63" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>95.08000000000001</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H63" t="n">
-        <v>94.68666666666671</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2978,42 +2655,41 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="C64" t="n">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="D64" t="n">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="E64" t="n">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="F64" t="n">
-        <v>213.5749</v>
+        <v>51.0687</v>
       </c>
       <c r="G64" t="n">
-        <v>95.11333333333336</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H64" t="n">
-        <v>94.69000000000004</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,42 +2698,41 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="C65" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D65" t="n">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="E65" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F65" t="n">
-        <v>9673.7129</v>
+        <v>1200</v>
       </c>
       <c r="G65" t="n">
-        <v>95.14000000000003</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H65" t="n">
-        <v>94.69166666666669</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3066,42 +2741,41 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>95.8</v>
+        <v>94.5</v>
       </c>
       <c r="C66" t="n">
-        <v>95.8</v>
+        <v>94.5</v>
       </c>
       <c r="D66" t="n">
-        <v>95.8</v>
+        <v>94.5</v>
       </c>
       <c r="E66" t="n">
-        <v>95.8</v>
+        <v>94.5</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>977</v>
       </c>
       <c r="G66" t="n">
-        <v>95.22666666666669</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H66" t="n">
-        <v>94.71000000000004</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3110,42 +2784,41 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C67" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D67" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E67" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>627</v>
       </c>
       <c r="G67" t="n">
-        <v>95.31333333333336</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H67" t="n">
-        <v>94.73000000000003</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3154,42 +2827,41 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C68" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D68" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E68" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F68" t="n">
-        <v>3317.2823</v>
+        <v>863</v>
       </c>
       <c r="G68" t="n">
-        <v>95.38000000000004</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H68" t="n">
-        <v>94.75000000000003</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3198,42 +2870,41 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="C69" t="n">
-        <v>96.7</v>
+        <v>94.5</v>
       </c>
       <c r="D69" t="n">
-        <v>96.7</v>
+        <v>94.5</v>
       </c>
       <c r="E69" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="F69" t="n">
-        <v>8887.884599999999</v>
+        <v>7591</v>
       </c>
       <c r="G69" t="n">
-        <v>95.50000000000003</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H69" t="n">
-        <v>94.78333333333336</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3242,42 +2913,41 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="C70" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="D70" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="E70" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="F70" t="n">
-        <v>10</v>
+        <v>1200</v>
       </c>
       <c r="G70" t="n">
-        <v>95.69333333333336</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H70" t="n">
-        <v>94.83500000000004</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3286,42 +2956,41 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="C71" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="D71" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="E71" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F71" t="n">
-        <v>51.3675</v>
+        <v>5960</v>
       </c>
       <c r="G71" t="n">
-        <v>95.88666666666668</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H71" t="n">
-        <v>94.88666666666671</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3330,42 +2999,41 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="C72" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="D72" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="E72" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="F72" t="n">
-        <v>42.5282</v>
+        <v>400</v>
       </c>
       <c r="G72" t="n">
-        <v>96.08</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H72" t="n">
-        <v>94.93833333333338</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3374,42 +3042,41 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="C73" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="D73" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="E73" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="F73" t="n">
-        <v>37.709</v>
+        <v>800</v>
       </c>
       <c r="G73" t="n">
-        <v>96.2</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H73" t="n">
-        <v>94.99166666666672</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3418,42 +3085,41 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C74" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D74" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E74" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F74" t="n">
-        <v>312.9541</v>
+        <v>800</v>
       </c>
       <c r="G74" t="n">
-        <v>96.19333333333334</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H74" t="n">
-        <v>95.01333333333336</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3462,42 +3128,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>96.8</v>
+        <v>94.5</v>
       </c>
       <c r="C75" t="n">
-        <v>96.8</v>
+        <v>94.5</v>
       </c>
       <c r="D75" t="n">
-        <v>96.8</v>
+        <v>94.5</v>
       </c>
       <c r="E75" t="n">
-        <v>96.8</v>
+        <v>94.5</v>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="G75" t="n">
-        <v>96.24666666666667</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H75" t="n">
-        <v>95.0516666666667</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3506,42 +3169,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C76" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D76" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E76" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F76" t="n">
-        <v>800</v>
+        <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>96.30666666666667</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H76" t="n">
-        <v>95.07500000000003</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3550,42 +3210,41 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>96.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="C77" t="n">
-        <v>96.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="D77" t="n">
-        <v>96.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="E77" t="n">
-        <v>96.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>11830.6878</v>
       </c>
       <c r="G77" t="n">
-        <v>96.36</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H77" t="n">
-        <v>95.1016666666667</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3594,42 +3253,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C78" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D78" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E78" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F78" t="n">
-        <v>251.3783</v>
+        <v>800</v>
       </c>
       <c r="G78" t="n">
-        <v>96.40000000000002</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H78" t="n">
-        <v>95.12333333333336</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3638,42 +3294,41 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="C79" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="D79" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="E79" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="G79" t="n">
-        <v>96.46666666666668</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H79" t="n">
-        <v>95.14666666666669</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3682,42 +3337,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="C80" t="n">
-        <v>96.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="D80" t="n">
-        <v>96.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="E80" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="F80" t="n">
-        <v>20</v>
+        <v>1612</v>
       </c>
       <c r="G80" t="n">
-        <v>96.54666666666667</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H80" t="n">
-        <v>95.17166666666668</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3726,42 +3378,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="C81" t="n">
-        <v>97.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>97.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="F81" t="n">
-        <v>10.11</v>
+        <v>14400</v>
       </c>
       <c r="G81" t="n">
-        <v>96.68000000000001</v>
+        <v>-184348.7208</v>
       </c>
       <c r="H81" t="n">
-        <v>95.22500000000001</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3770,42 +3419,41 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>97.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>97.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>97.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>97.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>55.5879</v>
+        <v>10980</v>
       </c>
       <c r="G82" t="n">
-        <v>96.80666666666666</v>
+        <v>-173368.7208</v>
       </c>
       <c r="H82" t="n">
-        <v>95.27833333333335</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="K82" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,42 +3462,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>97.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>97.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>97.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>97.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>10</v>
+        <v>45.7681</v>
       </c>
       <c r="G83" t="n">
-        <v>96.91999999999999</v>
+        <v>-173368.7208</v>
       </c>
       <c r="H83" t="n">
-        <v>95.32833333333335</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,42 +3503,41 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>96</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>96</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>96</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>96</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>2400</v>
       </c>
       <c r="G84" t="n">
-        <v>96.87333333333331</v>
+        <v>-173368.7208</v>
       </c>
       <c r="H84" t="n">
-        <v>95.35166666666667</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="K84" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3902,42 +3546,41 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>97.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>97.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>97.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>97.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>10</v>
+        <v>3200</v>
       </c>
       <c r="G85" t="n">
-        <v>96.85333333333331</v>
+        <v>-173368.7208</v>
       </c>
       <c r="H85" t="n">
-        <v>95.40166666666667</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="K85" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3946,42 +3589,41 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>97.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>97.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>97.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>97.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>1255.6375</v>
       </c>
       <c r="G86" t="n">
-        <v>96.83999999999997</v>
+        <v>-173368.7208</v>
       </c>
       <c r="H86" t="n">
-        <v>95.45333333333335</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="K86" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3990,42 +3632,41 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>97.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="D87" t="n">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="E87" t="n">
-        <v>97.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>5128.2051</v>
+        <v>4214.0604</v>
       </c>
       <c r="G87" t="n">
-        <v>96.81999999999998</v>
+        <v>-169154.6604</v>
       </c>
       <c r="H87" t="n">
-        <v>95.50333333333334</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="K87" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,42 +3675,41 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>97.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="C88" t="n">
-        <v>97.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="D88" t="n">
-        <v>97.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="E88" t="n">
-        <v>97.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="F88" t="n">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="G88" t="n">
-        <v>96.79333333333332</v>
+        <v>-169154.6604</v>
       </c>
       <c r="H88" t="n">
-        <v>95.55166666666668</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+        <v>96</v>
+      </c>
+      <c r="K88" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4078,42 +3718,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="C89" t="n">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="D89" t="n">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="E89" t="n">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="F89" t="n">
-        <v>3200</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>96.89999999999999</v>
+        <v>-169154.6604</v>
       </c>
       <c r="H89" t="n">
-        <v>95.60166666666667</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4122,42 +3759,41 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>97.5</v>
+        <v>95</v>
       </c>
       <c r="C90" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D90" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E90" t="n">
-        <v>97.5</v>
+        <v>95</v>
       </c>
       <c r="F90" t="n">
-        <v>10800</v>
+        <v>273.4938</v>
       </c>
       <c r="G90" t="n">
-        <v>96.97999999999999</v>
+        <v>-169428.1542</v>
       </c>
       <c r="H90" t="n">
-        <v>95.66000000000001</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+        <v>96</v>
+      </c>
+      <c r="K90" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4166,42 +3802,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>98</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>98.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="D91" t="n">
-        <v>98.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="E91" t="n">
-        <v>98</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>3523</v>
+        <v>1000</v>
       </c>
       <c r="G91" t="n">
-        <v>97.14666666666666</v>
+        <v>-168428.1542</v>
       </c>
       <c r="H91" t="n">
-        <v>95.72499999999999</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4210,42 +3843,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>98.40000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>98.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="D92" t="n">
-        <v>98.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="E92" t="n">
-        <v>98.40000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>2380</v>
+        <v>1000</v>
       </c>
       <c r="G92" t="n">
-        <v>97.3</v>
+        <v>-168428.1542</v>
       </c>
       <c r="H92" t="n">
-        <v>95.79666666666665</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4254,42 +3884,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>98.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="C93" t="n">
-        <v>98.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="D93" t="n">
-        <v>98.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="E93" t="n">
-        <v>98.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="F93" t="n">
-        <v>3564</v>
+        <v>213.5749</v>
       </c>
       <c r="G93" t="n">
-        <v>97.46666666666667</v>
+        <v>-168641.7291</v>
       </c>
       <c r="H93" t="n">
-        <v>95.86166666666665</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,42 +3925,41 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>98.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="C94" t="n">
-        <v>98.40000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>98.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="E94" t="n">
-        <v>98.40000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>3477</v>
+        <v>9673.7129</v>
       </c>
       <c r="G94" t="n">
-        <v>97.62666666666668</v>
+        <v>-178315.442</v>
       </c>
       <c r="H94" t="n">
-        <v>95.92666666666665</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+        <v>95</v>
+      </c>
+      <c r="K94" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4342,42 +3968,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>98.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="C95" t="n">
-        <v>98.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="D95" t="n">
-        <v>98.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="E95" t="n">
-        <v>98.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="F95" t="n">
-        <v>1981</v>
+        <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>97.78000000000002</v>
+        <v>-178305.442</v>
       </c>
       <c r="H95" t="n">
-        <v>95.99166666666663</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,42 +4009,41 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>99.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>99.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>99.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>99.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F96" t="n">
         <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>97.88000000000002</v>
+        <v>-178295.442</v>
       </c>
       <c r="H96" t="n">
-        <v>96.07166666666664</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="K96" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4430,42 +4052,41 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>99.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>99.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>99.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>99.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>1139.3628</v>
+        <v>3317.2823</v>
       </c>
       <c r="G97" t="n">
-        <v>97.98000000000002</v>
+        <v>-178295.442</v>
       </c>
       <c r="H97" t="n">
-        <v>96.15166666666664</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="K97" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,42 +4095,41 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>99.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>99.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="D98" t="n">
-        <v>99.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="E98" t="n">
-        <v>99.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="F98" t="n">
-        <v>1772.17</v>
+        <v>8887.884599999999</v>
       </c>
       <c r="G98" t="n">
-        <v>98.10000000000004</v>
+        <v>-169407.5574</v>
       </c>
       <c r="H98" t="n">
-        <v>96.23333333333331</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="K98" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4518,42 +4138,41 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>99.40000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="C99" t="n">
-        <v>99.5</v>
+        <v>97.8</v>
       </c>
       <c r="D99" t="n">
-        <v>99.5</v>
+        <v>97.8</v>
       </c>
       <c r="E99" t="n">
-        <v>99.40000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="F99" t="n">
-        <v>15941.315</v>
+        <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>98.33333333333336</v>
+        <v>-169397.5574</v>
       </c>
       <c r="H99" t="n">
-        <v>96.31666666666663</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="K99" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4562,42 +4181,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>99.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="C100" t="n">
-        <v>99.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="D100" t="n">
-        <v>99.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="E100" t="n">
-        <v>99.59999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>51.3675</v>
       </c>
       <c r="G100" t="n">
-        <v>98.47333333333336</v>
+        <v>-169397.5574</v>
       </c>
       <c r="H100" t="n">
-        <v>96.40166666666664</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4606,42 +4222,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>99.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="C101" t="n">
-        <v>99.7</v>
+        <v>97.8</v>
       </c>
       <c r="D101" t="n">
-        <v>99.7</v>
+        <v>97.8</v>
       </c>
       <c r="E101" t="n">
-        <v>99.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="F101" t="n">
-        <v>120</v>
+        <v>42.5282</v>
       </c>
       <c r="G101" t="n">
-        <v>98.61333333333337</v>
+        <v>-169397.5574</v>
       </c>
       <c r="H101" t="n">
-        <v>96.4883333333333</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4650,43 +4263,40 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>99.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="C102" t="n">
-        <v>99.7</v>
+        <v>97.8</v>
       </c>
       <c r="D102" t="n">
-        <v>99.7</v>
+        <v>97.8</v>
       </c>
       <c r="E102" t="n">
-        <v>99.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="F102" t="n">
-        <v>10009.6673</v>
+        <v>37.709</v>
       </c>
       <c r="G102" t="n">
-        <v>98.76000000000003</v>
+        <v>-169397.5574</v>
       </c>
       <c r="H102" t="n">
-        <v>96.57499999999997</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>1</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
-        <v>1.050026455026455</v>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -4694,36 +4304,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>99.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>99.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>99.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>99.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>810</v>
+        <v>312.9541</v>
       </c>
       <c r="G103" t="n">
-        <v>98.91333333333337</v>
+        <v>-169710.5115000001</v>
       </c>
       <c r="H103" t="n">
-        <v>96.66166666666663</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,36 +4345,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>99.7</v>
+        <v>96.8</v>
       </c>
       <c r="C104" t="n">
-        <v>99.7</v>
+        <v>96.8</v>
       </c>
       <c r="D104" t="n">
-        <v>99.7</v>
+        <v>96.8</v>
       </c>
       <c r="E104" t="n">
-        <v>99.7</v>
+        <v>96.8</v>
       </c>
       <c r="F104" t="n">
-        <v>5076.9024</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>99.06000000000003</v>
+        <v>-169700.5115000001</v>
       </c>
       <c r="H104" t="n">
-        <v>96.74833333333329</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,36 +4386,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>99.40000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>99.40000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>99.40000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>99.40000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>1543.7785</v>
+        <v>800</v>
       </c>
       <c r="G105" t="n">
-        <v>99.15333333333338</v>
+        <v>-170500.5115000001</v>
       </c>
       <c r="H105" t="n">
-        <v>96.82999999999996</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>1</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,36 +4427,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>98</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>97.5</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>98</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>97.09999999999999</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>24755.886</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>99.09333333333338</v>
+        <v>-170490.5115000001</v>
       </c>
       <c r="H106" t="n">
-        <v>96.87999999999995</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,36 +4468,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>98.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>98.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>98.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>98.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>20</v>
+        <v>251.3783</v>
       </c>
       <c r="G107" t="n">
-        <v>99.12000000000003</v>
+        <v>-170741.8898000001</v>
       </c>
       <c r="H107" t="n">
-        <v>96.95166666666663</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>1</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,36 +4509,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>97.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="C108" t="n">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="D108" t="n">
-        <v>97.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="E108" t="n">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="F108" t="n">
-        <v>15434.1028</v>
+        <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>99.06000000000002</v>
+        <v>-170731.8898000001</v>
       </c>
       <c r="H108" t="n">
-        <v>97.00166666666662</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>1</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,36 +4550,1186 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>96</v>
+      </c>
+      <c r="C109" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="D109" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="E109" t="n">
+        <v>96</v>
+      </c>
+      <c r="F109" t="n">
+        <v>20</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-170711.8898000001</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="C110" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="D110" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="E110" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="F110" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-170701.7798000001</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="C111" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="D111" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="E111" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="F111" t="n">
+        <v>55.5879</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-170701.7798000001</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="C112" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="D112" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="E112" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="F112" t="n">
+        <v>10</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-170711.7798000001</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>96</v>
+      </c>
+      <c r="C113" t="n">
+        <v>96</v>
+      </c>
+      <c r="D113" t="n">
+        <v>96</v>
+      </c>
+      <c r="E113" t="n">
+        <v>96</v>
+      </c>
+      <c r="F113" t="n">
+        <v>10</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-170721.7798000001</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
         <v>97.5</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C114" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E114" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>10</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-170711.7798000001</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="C115" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="D115" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="E115" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="F115" t="n">
+        <v>10</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-170701.7798000001</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>5128.2051</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-175829.9849000001</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="C117" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="D117" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="E117" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F117" t="n">
+        <v>330</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-176159.9849000001</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-172959.9849000001</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>98</v>
+      </c>
+      <c r="D119" t="n">
+        <v>98</v>
+      </c>
+      <c r="E119" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>10800</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-162159.9849000001</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>98</v>
+      </c>
+      <c r="C120" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D120" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="E120" t="n">
+        <v>98</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3523</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-158636.9849000001</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="C121" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D121" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="E121" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2380</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-158636.9849000001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="C122" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D122" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="E122" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3564</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-158636.9849000001</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="C123" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D123" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="E123" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3477</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-158636.9849000001</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="C124" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D124" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="E124" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1981</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-158636.9849000001</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="C125" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="D125" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="E125" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F125" t="n">
+        <v>10</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-158626.9849000001</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="C126" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="D126" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="E126" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1139.3628</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-158626.9849000001</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C127" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D127" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E127" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1772.17</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-156854.8149000001</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C128" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F128" t="n">
+        <v>15941.315</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-140913.4999000001</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C129" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D129" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E129" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F129" t="n">
+        <v>10</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-140903.4999000001</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C130" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D130" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F130" t="n">
+        <v>120</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-140783.4999000001</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C131" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D131" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F131" t="n">
+        <v>10009.6673</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-140783.4999000001</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1.050026455026455</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D132" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E132" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F132" t="n">
+        <v>810</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-140783.4999000001</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="C133" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D133" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="E133" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F133" t="n">
+        <v>5076.9024</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-140783.4999000001</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C134" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D134" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E134" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1543.7785</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-142327.2784</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>98</v>
+      </c>
+      <c r="C135" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D135" t="n">
+        <v>98</v>
+      </c>
+      <c r="E135" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F135" t="n">
+        <v>24755.886</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-167083.1644</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="C136" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="D136" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="E136" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="F136" t="n">
+        <v>20</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-167063.1644</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="C137" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="E137" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>15434.1028</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-182497.2672</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C138" t="n">
         <v>97.3</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D138" t="n">
         <v>97.5</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E138" t="n">
         <v>97.3</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F138" t="n">
         <v>16449.5043</v>
       </c>
-      <c r="G109" t="n">
-        <v>98.98666666666668</v>
-      </c>
-      <c r="H109" t="n">
-        <v>97.0483333333333</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="G138" t="n">
+        <v>-198946.7715</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest PAY.xlsx
+++ b/BackTest/2019-10-19 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M138"/>
+  <dimension ref="A1:N138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -454,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2251,6 +2307,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2292,6 +2349,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2333,6 +2391,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2368,6 +2427,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2403,6 +2463,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2438,6 +2499,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2477,6 +2539,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2520,6 +2583,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2563,6 +2627,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2606,6 +2671,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2649,6 +2715,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2692,6 +2759,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2735,6 +2803,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2778,6 +2847,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2821,6 +2891,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2864,6 +2935,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2907,6 +2979,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2950,6 +3023,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2993,6 +3067,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3036,6 +3111,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3079,6 +3155,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3122,6 +3199,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3163,6 +3241,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3204,6 +3283,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3247,6 +3327,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3288,6 +3369,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3331,6 +3413,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3372,6 +3455,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3413,6 +3497,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3456,6 +3541,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3497,6 +3583,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3540,6 +3627,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3583,6 +3671,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3626,6 +3715,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3669,6 +3759,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3712,6 +3803,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3753,6 +3845,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3796,6 +3889,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3837,6 +3931,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3878,6 +3973,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3919,6 +4015,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3962,6 +4059,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4003,6 +4101,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4046,6 +4145,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4089,6 +4189,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4132,6 +4233,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4175,6 +4277,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4216,6 +4319,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4257,6 +4361,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4298,6 +4403,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4339,6 +4445,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4380,6 +4487,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4421,6 +4529,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4462,6 +4571,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4503,6 +4613,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4544,6 +4655,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4585,6 +4697,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4626,6 +4739,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4667,6 +4781,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4708,6 +4823,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4749,6 +4865,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4790,6 +4907,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4831,6 +4949,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4872,6 +4991,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4913,6 +5033,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4954,6 +5075,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4995,6 +5117,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5036,6 +5159,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5077,6 +5201,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5118,6 +5243,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5159,6 +5285,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5200,6 +5327,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5241,6 +5369,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5282,6 +5411,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5323,6 +5453,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5364,6 +5495,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5391,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
@@ -5399,11 +5531,14 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>1</v>
+        <v>1.048968253968254</v>
+      </c>
+      <c r="N129" t="n">
+        <v>1.030949839914621</v>
       </c>
     </row>
     <row r="130">
@@ -5432,20 +5567,15 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5476,17 +5606,12 @@
         <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>1.050026455026455</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5522,6 +5647,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5557,6 +5683,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5592,6 +5719,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5627,6 +5755,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5654,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5662,6 +5791,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5689,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5697,6 +5827,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5724,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5732,6 +5863,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest PAY.xlsx
+++ b/BackTest/2019-10-19 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N138"/>
+  <dimension ref="A1:N167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>96.5</v>
+        <v>96.8</v>
       </c>
       <c r="C2" t="n">
-        <v>96.5</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>96.5</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>96.5</v>
+        <v>96.8</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>2800</v>
       </c>
       <c r="G2" t="n">
-        <v>-134441.9473</v>
+        <v>-52597.73190000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>96.59999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>96.59999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>96.59999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>96.59999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>790.8463</v>
       </c>
       <c r="G3" t="n">
-        <v>-134431.9473</v>
+        <v>-52597.73190000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>95.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="C4" t="n">
-        <v>95.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="D4" t="n">
-        <v>96.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="E4" t="n">
-        <v>95.2</v>
+        <v>97.3</v>
       </c>
       <c r="F4" t="n">
-        <v>47587.5773</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>-182019.5246</v>
+        <v>-52582.73190000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>95.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="C5" t="n">
-        <v>95.5</v>
+        <v>97.3</v>
       </c>
       <c r="D5" t="n">
-        <v>95.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="E5" t="n">
-        <v>95.5</v>
+        <v>97.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2400</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>-184419.5246</v>
+        <v>-52582.73190000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>95.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="C6" t="n">
-        <v>95.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="D6" t="n">
-        <v>95.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="E6" t="n">
-        <v>95.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="F6" t="n">
-        <v>800</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>-185219.5246</v>
+        <v>-52582.73190000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>95.5</v>
+        <v>97.3</v>
       </c>
       <c r="C7" t="n">
-        <v>95.5</v>
+        <v>97.3</v>
       </c>
       <c r="D7" t="n">
-        <v>95.5</v>
+        <v>97.3</v>
       </c>
       <c r="E7" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="F7" t="n">
-        <v>663</v>
+        <v>2479</v>
       </c>
       <c r="G7" t="n">
-        <v>-184556.5246</v>
+        <v>-52582.73190000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>95.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>95.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>95.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>95.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>663</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>-183893.5246</v>
+        <v>-52572.73190000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>95.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>95.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>95.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>95.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>5052</v>
+        <v>1000</v>
       </c>
       <c r="G9" t="n">
-        <v>-183893.5246</v>
+        <v>-52572.73190000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>95.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="C10" t="n">
-        <v>95.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="D10" t="n">
-        <v>95.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="E10" t="n">
-        <v>95.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="F10" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="G10" t="n">
-        <v>-183803.5246</v>
+        <v>-51572.73190000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>95.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="C11" t="n">
-        <v>95.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="D11" t="n">
-        <v>95.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="E11" t="n">
-        <v>95.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="F11" t="n">
-        <v>5285.635</v>
+        <v>189.4871</v>
       </c>
       <c r="G11" t="n">
-        <v>-183803.5246</v>
+        <v>-51572.73190000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>95.8</v>
+        <v>97.5</v>
       </c>
       <c r="C12" t="n">
-        <v>95.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>95.8</v>
+        <v>97.5</v>
       </c>
       <c r="E12" t="n">
-        <v>95.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>400</v>
+        <v>10173.6615</v>
       </c>
       <c r="G12" t="n">
-        <v>-184203.5246</v>
+        <v>-61746.39340000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>95.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>95.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>95.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>95.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>1779</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>-184203.5246</v>
+        <v>-61746.39340000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>95.8</v>
+        <v>96.3</v>
       </c>
       <c r="C14" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>95.8</v>
+        <v>96.3</v>
       </c>
       <c r="E14" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>3137</v>
+        <v>17615.6917</v>
       </c>
       <c r="G14" t="n">
-        <v>-187340.5246</v>
+        <v>-79362.08510000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>7636</v>
+        <v>12000</v>
       </c>
       <c r="G15" t="n">
-        <v>-187340.5246</v>
+        <v>-79362.08510000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="G16" t="n">
-        <v>-187340.5246</v>
+        <v>-79362.08510000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>95.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>95.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>95.40000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>95.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>5385</v>
+        <v>69</v>
       </c>
       <c r="G17" t="n">
-        <v>-192725.5246</v>
+        <v>-79362.08510000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>95.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>95.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>95.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>95.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>800</v>
+        <v>70.7405</v>
       </c>
       <c r="G18" t="n">
-        <v>-192725.5246</v>
+        <v>-79362.08510000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>95.3</v>
+        <v>96.3</v>
       </c>
       <c r="C19" t="n">
-        <v>95.3</v>
+        <v>96.3</v>
       </c>
       <c r="D19" t="n">
-        <v>95.3</v>
+        <v>96.3</v>
       </c>
       <c r="E19" t="n">
-        <v>95.3</v>
+        <v>96.3</v>
       </c>
       <c r="F19" t="n">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>-192725.5246</v>
+        <v>-79352.08510000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>95.3</v>
+        <v>96.3</v>
       </c>
       <c r="C20" t="n">
-        <v>95.3</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>95.3</v>
+        <v>97</v>
       </c>
       <c r="E20" t="n">
-        <v>95.3</v>
+        <v>96.3</v>
       </c>
       <c r="F20" t="n">
-        <v>591</v>
+        <v>567.2747000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>-192725.5246</v>
+        <v>-78784.81040000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>95.3</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>95.3</v>
+        <v>97</v>
       </c>
       <c r="D21" t="n">
-        <v>95.3</v>
+        <v>97</v>
       </c>
       <c r="E21" t="n">
-        <v>95.3</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>414</v>
+        <v>2876</v>
       </c>
       <c r="G21" t="n">
-        <v>-192725.5246</v>
+        <v>-75908.81040000002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>95</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>95</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>95</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>95</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="G22" t="n">
-        <v>-192735.5246</v>
+        <v>-76099.81040000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>95</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>95</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>95</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>95</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>260.7724</v>
+        <v>134</v>
       </c>
       <c r="G23" t="n">
-        <v>-192735.5246</v>
+        <v>-76099.81040000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C24" t="n">
-        <v>94.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="D24" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E24" t="n">
-        <v>94.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="F24" t="n">
-        <v>10895.6748</v>
+        <v>927</v>
       </c>
       <c r="G24" t="n">
-        <v>-203631.1994</v>
+        <v>-75172.81040000002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>94.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="C25" t="n">
-        <v>94.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="D25" t="n">
-        <v>94.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="E25" t="n">
-        <v>94.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="F25" t="n">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>-203631.1994</v>
+        <v>-75172.81040000002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>94.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="C26" t="n">
-        <v>94.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="D26" t="n">
-        <v>94.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="E26" t="n">
-        <v>94.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="F26" t="n">
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>-203631.1994</v>
+        <v>-75172.81040000002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>94.90000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>94.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="D27" t="n">
-        <v>94.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>94.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="F27" t="n">
-        <v>900</v>
+        <v>61003.1369</v>
       </c>
       <c r="G27" t="n">
-        <v>-203631.1994</v>
+        <v>-136175.9473</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>94.8</v>
+        <v>95.5</v>
       </c>
       <c r="C28" t="n">
-        <v>94.8</v>
+        <v>95.5</v>
       </c>
       <c r="D28" t="n">
-        <v>94.8</v>
+        <v>95.5</v>
       </c>
       <c r="E28" t="n">
-        <v>94.8</v>
+        <v>95.5</v>
       </c>
       <c r="F28" t="n">
-        <v>6400</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>-210031.1994</v>
+        <v>-136185.9473</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="C29" t="n">
-        <v>94.8</v>
+        <v>96</v>
       </c>
       <c r="D29" t="n">
-        <v>94.8</v>
+        <v>96</v>
       </c>
       <c r="E29" t="n">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="F29" t="n">
-        <v>1230.7629</v>
+        <v>1364</v>
       </c>
       <c r="G29" t="n">
-        <v>-210031.1994</v>
+        <v>-134821.9473</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>94.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>94.7</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>94.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>94.7</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>2105.2389</v>
+        <v>400</v>
       </c>
       <c r="G30" t="n">
-        <v>-212136.4383</v>
+        <v>-134421.9473</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>94.8</v>
+        <v>96.5</v>
       </c>
       <c r="C31" t="n">
-        <v>94.8</v>
+        <v>96.5</v>
       </c>
       <c r="D31" t="n">
-        <v>94.8</v>
+        <v>96.5</v>
       </c>
       <c r="E31" t="n">
-        <v>94.7</v>
+        <v>96.5</v>
       </c>
       <c r="F31" t="n">
-        <v>2308.7175</v>
+        <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>-209827.7208</v>
+        <v>-134441.9473</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>94.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>94.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>94.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>94.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>800</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>-209827.7208</v>
+        <v>-134431.9473</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>94.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>94.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>94.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>94.8</v>
+        <v>95.2</v>
       </c>
       <c r="F33" t="n">
-        <v>400</v>
+        <v>47587.5773</v>
       </c>
       <c r="G33" t="n">
-        <v>-209827.7208</v>
+        <v>-182019.5246</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>94.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>94.8</v>
+        <v>95.5</v>
       </c>
       <c r="D34" t="n">
-        <v>94.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>94.8</v>
+        <v>95.5</v>
       </c>
       <c r="F34" t="n">
-        <v>2572</v>
+        <v>2400</v>
       </c>
       <c r="G34" t="n">
-        <v>-209827.7208</v>
+        <v>-184419.5246</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>94.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>94.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>94.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>94.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>369</v>
+        <v>800</v>
       </c>
       <c r="G35" t="n">
-        <v>-210196.7208</v>
+        <v>-185219.5246</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>94.7</v>
+        <v>95.5</v>
       </c>
       <c r="C36" t="n">
-        <v>94.7</v>
+        <v>95.5</v>
       </c>
       <c r="D36" t="n">
-        <v>94.7</v>
+        <v>95.5</v>
       </c>
       <c r="E36" t="n">
-        <v>94.7</v>
+        <v>95.5</v>
       </c>
       <c r="F36" t="n">
-        <v>490</v>
+        <v>663</v>
       </c>
       <c r="G36" t="n">
-        <v>-210196.7208</v>
+        <v>-184556.5246</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>94.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>94.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>94.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>94.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>436</v>
+        <v>663</v>
       </c>
       <c r="G37" t="n">
-        <v>-210196.7208</v>
+        <v>-183893.5246</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>94.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>94.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>94.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>94.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>812</v>
+        <v>5052</v>
       </c>
       <c r="G38" t="n">
-        <v>-210196.7208</v>
+        <v>-183893.5246</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>94.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>94.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>94.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>94.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>800</v>
+        <v>90</v>
       </c>
       <c r="G39" t="n">
-        <v>-210196.7208</v>
+        <v>-183803.5246</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>94.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>94.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>94.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>94.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>400</v>
+        <v>5285.635</v>
       </c>
       <c r="G40" t="n">
-        <v>-210196.7208</v>
+        <v>-183803.5246</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>94.7</v>
+        <v>95.8</v>
       </c>
       <c r="C41" t="n">
-        <v>94.7</v>
+        <v>95.8</v>
       </c>
       <c r="D41" t="n">
-        <v>94.7</v>
+        <v>95.8</v>
       </c>
       <c r="E41" t="n">
-        <v>94.7</v>
+        <v>95.8</v>
       </c>
       <c r="F41" t="n">
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="G41" t="n">
-        <v>-210196.7208</v>
+        <v>-184203.5246</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>94.59999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="C42" t="n">
-        <v>94.59999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="D42" t="n">
-        <v>94.59999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="E42" t="n">
-        <v>94.59999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="F42" t="n">
-        <v>532</v>
+        <v>1779</v>
       </c>
       <c r="G42" t="n">
-        <v>-210728.7208</v>
+        <v>-184203.5246</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>94.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="C43" t="n">
-        <v>94.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="D43" t="n">
-        <v>94.59999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="E43" t="n">
-        <v>93.7</v>
+        <v>95.5</v>
       </c>
       <c r="F43" t="n">
-        <v>37378.6902</v>
+        <v>3137</v>
       </c>
       <c r="G43" t="n">
-        <v>-210728.7208</v>
+        <v>-187340.5246</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="C44" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="D44" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="E44" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="F44" t="n">
-        <v>16</v>
+        <v>7636</v>
       </c>
       <c r="G44" t="n">
-        <v>-210744.7208</v>
+        <v>-187340.5246</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="C45" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="D45" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="E45" t="n">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="F45" t="n">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="G45" t="n">
-        <v>-210744.7208</v>
+        <v>-187340.5246</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>94.5</v>
+        <v>95.3</v>
       </c>
       <c r="C46" t="n">
-        <v>94.5</v>
+        <v>95.3</v>
       </c>
       <c r="D46" t="n">
-        <v>94.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>94.5</v>
+        <v>95.3</v>
       </c>
       <c r="F46" t="n">
-        <v>800</v>
+        <v>5385</v>
       </c>
       <c r="G46" t="n">
-        <v>-210744.7208</v>
+        <v>-192725.5246</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>94.5</v>
+        <v>95.3</v>
       </c>
       <c r="C47" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="D47" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="E47" t="n">
-        <v>94.5</v>
+        <v>95.3</v>
       </c>
       <c r="F47" t="n">
-        <v>8324</v>
+        <v>800</v>
       </c>
       <c r="G47" t="n">
-        <v>-202420.7208</v>
+        <v>-192725.5246</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="C48" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="D48" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="E48" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G48" t="n">
-        <v>-202420.7208</v>
+        <v>-192725.5246</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="C49" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="D49" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="E49" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="F49" t="n">
-        <v>398</v>
+        <v>591</v>
       </c>
       <c r="G49" t="n">
-        <v>-202420.7208</v>
+        <v>-192725.5246</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="C50" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="D50" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="E50" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="F50" t="n">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="G50" t="n">
-        <v>-202420.7208</v>
+        <v>-192725.5246</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="C51" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="D51" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="E51" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="F51" t="n">
-        <v>350</v>
+        <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>-202420.7208</v>
+        <v>-192735.5246</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="C52" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="D52" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="E52" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>260.7724</v>
       </c>
       <c r="G52" t="n">
-        <v>-202420.7208</v>
+        <v>-192735.5246</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,35 +2274,31 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="C53" t="n">
-        <v>94.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="E53" t="n">
-        <v>94.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>1200</v>
+        <v>10895.6748</v>
       </c>
       <c r="G53" t="n">
-        <v>-202420.7208</v>
+        <v>-203631.1994</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="K53" t="n">
-        <v>94.59999999999999</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
@@ -2314,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>1689</v>
+        <v>3600</v>
       </c>
       <c r="G54" t="n">
-        <v>-204109.7208</v>
+        <v>-203631.1994</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2338,14 +2334,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2356,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>2777</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>-204109.7208</v>
+        <v>-203631.1994</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2380,14 +2370,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2398,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>1255</v>
+        <v>900</v>
       </c>
       <c r="G56" t="n">
-        <v>-204109.7208</v>
+        <v>-203631.1994</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2434,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="C57" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="D57" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="E57" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="F57" t="n">
-        <v>381</v>
+        <v>6400</v>
       </c>
       <c r="G57" t="n">
-        <v>-204109.7208</v>
+        <v>-210031.1994</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2473,19 +2457,19 @@
         <v>94.5</v>
       </c>
       <c r="C58" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="D58" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="E58" t="n">
         <v>94.5</v>
       </c>
       <c r="F58" t="n">
-        <v>1852</v>
+        <v>1230.7629</v>
       </c>
       <c r="G58" t="n">
-        <v>-204109.7208</v>
+        <v>-210031.1994</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2506,35 +2490,31 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="C59" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="D59" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="E59" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="F59" t="n">
-        <v>54</v>
+        <v>2105.2389</v>
       </c>
       <c r="G59" t="n">
-        <v>-204109.7208</v>
+        <v>-212136.4383</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K59" t="n">
-        <v>94.5</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
@@ -2546,40 +2526,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="C60" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="D60" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="E60" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="F60" t="n">
-        <v>1835</v>
+        <v>2308.7175</v>
       </c>
       <c r="G60" t="n">
-        <v>-204109.7208</v>
+        <v>-209827.7208</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K60" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2590,40 +2562,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="C61" t="n">
-        <v>94.09999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="D61" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="E61" t="n">
-        <v>94.09999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="F61" t="n">
-        <v>159</v>
+        <v>800</v>
       </c>
       <c r="G61" t="n">
-        <v>-204268.7208</v>
+        <v>-209827.7208</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K61" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2634,40 +2598,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>94.09999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="C62" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="D62" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="E62" t="n">
-        <v>94.09999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="F62" t="n">
-        <v>5520</v>
+        <v>400</v>
       </c>
       <c r="G62" t="n">
-        <v>-198748.7208</v>
+        <v>-209827.7208</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="K62" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2678,40 +2634,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="C63" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="D63" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="E63" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>2572</v>
       </c>
       <c r="G63" t="n">
-        <v>-198748.7208</v>
+        <v>-209827.7208</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K63" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2722,40 +2670,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="C64" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="D64" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="E64" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="F64" t="n">
-        <v>51.0687</v>
+        <v>369</v>
       </c>
       <c r="G64" t="n">
-        <v>-198748.7208</v>
+        <v>-210196.7208</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K64" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2766,40 +2706,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="C65" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="D65" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="E65" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="F65" t="n">
-        <v>1200</v>
+        <v>490</v>
       </c>
       <c r="G65" t="n">
-        <v>-198748.7208</v>
+        <v>-210196.7208</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K65" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2810,40 +2742,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="C66" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="D66" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="E66" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="F66" t="n">
-        <v>977</v>
+        <v>436</v>
       </c>
       <c r="G66" t="n">
-        <v>-198748.7208</v>
+        <v>-210196.7208</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K66" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2854,40 +2778,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="C67" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="D67" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="E67" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="F67" t="n">
-        <v>627</v>
+        <v>812</v>
       </c>
       <c r="G67" t="n">
-        <v>-198748.7208</v>
+        <v>-210196.7208</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K67" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2898,40 +2814,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="C68" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="D68" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="E68" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="F68" t="n">
-        <v>863</v>
+        <v>800</v>
       </c>
       <c r="G68" t="n">
-        <v>-198748.7208</v>
+        <v>-210196.7208</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K68" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2942,40 +2850,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="C69" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="D69" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="E69" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="F69" t="n">
-        <v>7591</v>
+        <v>400</v>
       </c>
       <c r="G69" t="n">
-        <v>-198748.7208</v>
+        <v>-210196.7208</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K69" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2986,40 +2886,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="C70" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="D70" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="E70" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="F70" t="n">
-        <v>1200</v>
+        <v>337</v>
       </c>
       <c r="G70" t="n">
-        <v>-198748.7208</v>
+        <v>-210196.7208</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K70" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3030,40 +2922,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>5960</v>
+        <v>532</v>
       </c>
       <c r="G71" t="n">
-        <v>-198748.7208</v>
+        <v>-210728.7208</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K71" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3074,40 +2958,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>94.5</v>
+        <v>93.7</v>
       </c>
       <c r="F72" t="n">
-        <v>400</v>
+        <v>37378.6902</v>
       </c>
       <c r="G72" t="n">
-        <v>-198748.7208</v>
+        <v>-210728.7208</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K72" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3130,28 +3006,20 @@
         <v>94.5</v>
       </c>
       <c r="F73" t="n">
-        <v>800</v>
+        <v>16</v>
       </c>
       <c r="G73" t="n">
-        <v>-198748.7208</v>
+        <v>-210744.7208</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K73" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3174,28 +3042,20 @@
         <v>94.5</v>
       </c>
       <c r="F74" t="n">
-        <v>800</v>
+        <v>20</v>
       </c>
       <c r="G74" t="n">
-        <v>-198748.7208</v>
+        <v>-210744.7208</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K74" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3221,7 +3081,7 @@
         <v>800</v>
       </c>
       <c r="G75" t="n">
-        <v>-198748.7208</v>
+        <v>-210744.7208</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3230,14 +3090,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3251,19 +3105,19 @@
         <v>94.5</v>
       </c>
       <c r="C76" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E76" t="n">
         <v>94.5</v>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>8324</v>
       </c>
       <c r="G76" t="n">
-        <v>-198748.7208</v>
+        <v>-202420.7208</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3272,14 +3126,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3290,40 +3138,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>11830.6878</v>
+        <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>-198748.7208</v>
+        <v>-202420.7208</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K77" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3334,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>800</v>
+        <v>398</v>
       </c>
       <c r="G78" t="n">
-        <v>-198748.7208</v>
+        <v>-202420.7208</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3358,14 +3198,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3376,40 +3210,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="G79" t="n">
-        <v>-198748.7208</v>
+        <v>-202420.7208</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K79" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3420,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>1612</v>
+        <v>350</v>
       </c>
       <c r="G80" t="n">
-        <v>-198748.7208</v>
+        <v>-202420.7208</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3444,14 +3270,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3462,7 +3282,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C81" t="n">
         <v>94.59999999999999</v>
@@ -3471,13 +3291,13 @@
         <v>94.59999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>14400</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>-184348.7208</v>
+        <v>-202420.7208</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3486,14 +3306,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3507,37 +3321,29 @@
         <v>94.59999999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>94.90000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>94.90000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E82" t="n">
         <v>94.59999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>10980</v>
+        <v>1200</v>
       </c>
       <c r="G82" t="n">
-        <v>-173368.7208</v>
+        <v>-202420.7208</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="K82" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C83" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D83" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E83" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F83" t="n">
-        <v>45.7681</v>
+        <v>1689</v>
       </c>
       <c r="G83" t="n">
-        <v>-173368.7208</v>
+        <v>-204109.7208</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3572,14 +3378,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3590,40 +3390,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C84" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D84" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E84" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F84" t="n">
-        <v>2400</v>
+        <v>2777</v>
       </c>
       <c r="G84" t="n">
-        <v>-173368.7208</v>
+        <v>-204109.7208</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="K84" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3634,40 +3426,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C85" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D85" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E85" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F85" t="n">
-        <v>3200</v>
+        <v>1255</v>
       </c>
       <c r="G85" t="n">
-        <v>-173368.7208</v>
+        <v>-204109.7208</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="K85" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3678,40 +3462,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C86" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D86" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E86" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F86" t="n">
-        <v>1255.6375</v>
+        <v>381</v>
       </c>
       <c r="G86" t="n">
-        <v>-173368.7208</v>
+        <v>-204109.7208</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="K86" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3722,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C87" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="D87" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="E87" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F87" t="n">
-        <v>4214.0604</v>
+        <v>1852</v>
       </c>
       <c r="G87" t="n">
-        <v>-169154.6604</v>
+        <v>-204109.7208</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -3746,16 +3522,12 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="K87" t="n">
         <v>94.5</v>
       </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3766,22 +3538,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="C88" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="D88" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="E88" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="F88" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G88" t="n">
-        <v>-169154.6604</v>
+        <v>-204109.7208</v>
       </c>
       <c r="H88" t="n">
         <v>1</v>
@@ -3790,14 +3562,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="K88" t="n">
         <v>94.5</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M88" t="n">
@@ -3810,36 +3582,38 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="C89" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="D89" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="E89" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>1835</v>
       </c>
       <c r="G89" t="n">
-        <v>-169154.6604</v>
+        <v>-204109.7208</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>94.5</v>
+      </c>
       <c r="K89" t="n">
         <v>94.5</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M89" t="n">
@@ -3852,22 +3626,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="C90" t="n">
-        <v>95</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="E90" t="n">
-        <v>95</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>273.4938</v>
+        <v>159</v>
       </c>
       <c r="G90" t="n">
-        <v>-169428.1542</v>
+        <v>-204268.7208</v>
       </c>
       <c r="H90" t="n">
         <v>1</v>
@@ -3876,14 +3650,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="K90" t="n">
         <v>94.5</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M90" t="n">
@@ -3896,30 +3670,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>94.90000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>95.3</v>
+        <v>94.5</v>
       </c>
       <c r="D91" t="n">
-        <v>95.3</v>
+        <v>94.5</v>
       </c>
       <c r="E91" t="n">
-        <v>94.90000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>1000</v>
+        <v>5520</v>
       </c>
       <c r="G91" t="n">
-        <v>-168428.1542</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>94.09999999999999</v>
+      </c>
       <c r="K91" t="n">
         <v>94.5</v>
       </c>
@@ -3938,30 +3714,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C92" t="n">
-        <v>95.3</v>
+        <v>94.5</v>
       </c>
       <c r="D92" t="n">
-        <v>95.3</v>
+        <v>94.5</v>
       </c>
       <c r="E92" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F92" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>-168428.1542</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>94.5</v>
+      </c>
       <c r="K92" t="n">
         <v>94.5</v>
       </c>
@@ -3980,30 +3758,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="C93" t="n">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="D93" t="n">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="E93" t="n">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="F93" t="n">
-        <v>213.5749</v>
+        <v>51.0687</v>
       </c>
       <c r="G93" t="n">
-        <v>-168641.7291</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>94.5</v>
+      </c>
       <c r="K93" t="n">
         <v>94.5</v>
       </c>
@@ -4022,22 +3802,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="C94" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D94" t="n">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="E94" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F94" t="n">
-        <v>9673.7129</v>
+        <v>1200</v>
       </c>
       <c r="G94" t="n">
-        <v>-178315.442</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
@@ -4046,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="K94" t="n">
         <v>94.5</v>
@@ -4066,30 +3846,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>95.8</v>
+        <v>94.5</v>
       </c>
       <c r="C95" t="n">
-        <v>95.8</v>
+        <v>94.5</v>
       </c>
       <c r="D95" t="n">
-        <v>95.8</v>
+        <v>94.5</v>
       </c>
       <c r="E95" t="n">
-        <v>95.8</v>
+        <v>94.5</v>
       </c>
       <c r="F95" t="n">
-        <v>10</v>
+        <v>977</v>
       </c>
       <c r="G95" t="n">
-        <v>-178305.442</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>94.5</v>
+      </c>
       <c r="K95" t="n">
         <v>94.5</v>
       </c>
@@ -4108,22 +3890,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C96" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D96" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E96" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F96" t="n">
-        <v>10</v>
+        <v>627</v>
       </c>
       <c r="G96" t="n">
-        <v>-178295.442</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
@@ -4132,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>95.8</v>
+        <v>94.5</v>
       </c>
       <c r="K96" t="n">
         <v>94.5</v>
@@ -4152,22 +3934,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C97" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D97" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E97" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F97" t="n">
-        <v>3317.2823</v>
+        <v>863</v>
       </c>
       <c r="G97" t="n">
-        <v>-178295.442</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -4176,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="K97" t="n">
         <v>94.5</v>
@@ -4196,22 +3978,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="C98" t="n">
-        <v>96.7</v>
+        <v>94.5</v>
       </c>
       <c r="D98" t="n">
-        <v>96.7</v>
+        <v>94.5</v>
       </c>
       <c r="E98" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="F98" t="n">
-        <v>8887.884599999999</v>
+        <v>7591</v>
       </c>
       <c r="G98" t="n">
-        <v>-169407.5574</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -4220,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="K98" t="n">
         <v>94.5</v>
@@ -4240,22 +4022,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="C99" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="D99" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="E99" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="F99" t="n">
-        <v>10</v>
+        <v>1200</v>
       </c>
       <c r="G99" t="n">
-        <v>-169397.5574</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -4264,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>96.7</v>
+        <v>94.5</v>
       </c>
       <c r="K99" t="n">
         <v>94.5</v>
@@ -4284,30 +4066,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="C100" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="D100" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="E100" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F100" t="n">
-        <v>51.3675</v>
+        <v>5960</v>
       </c>
       <c r="G100" t="n">
-        <v>-169397.5574</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>94.5</v>
+      </c>
       <c r="K100" t="n">
         <v>94.5</v>
       </c>
@@ -4326,30 +4110,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="C101" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="D101" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="E101" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="F101" t="n">
-        <v>42.5282</v>
+        <v>400</v>
       </c>
       <c r="G101" t="n">
-        <v>-169397.5574</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>94.5</v>
+      </c>
       <c r="K101" t="n">
         <v>94.5</v>
       </c>
@@ -4368,30 +4154,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="C102" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="D102" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="E102" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="F102" t="n">
-        <v>37.709</v>
+        <v>800</v>
       </c>
       <c r="G102" t="n">
-        <v>-169397.5574</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>94.5</v>
+      </c>
       <c r="K102" t="n">
         <v>94.5</v>
       </c>
@@ -4410,30 +4198,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C103" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D103" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E103" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F103" t="n">
-        <v>312.9541</v>
+        <v>800</v>
       </c>
       <c r="G103" t="n">
-        <v>-169710.5115000001</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>94.5</v>
+      </c>
       <c r="K103" t="n">
         <v>94.5</v>
       </c>
@@ -4452,30 +4242,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>96.8</v>
+        <v>94.5</v>
       </c>
       <c r="C104" t="n">
-        <v>96.8</v>
+        <v>94.5</v>
       </c>
       <c r="D104" t="n">
-        <v>96.8</v>
+        <v>94.5</v>
       </c>
       <c r="E104" t="n">
-        <v>96.8</v>
+        <v>94.5</v>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="G104" t="n">
-        <v>-169700.5115000001</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>94.5</v>
+      </c>
       <c r="K104" t="n">
         <v>94.5</v>
       </c>
@@ -4494,30 +4286,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C105" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D105" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E105" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F105" t="n">
-        <v>800</v>
+        <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>-170500.5115000001</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>94.5</v>
+      </c>
       <c r="K105" t="n">
         <v>94.5</v>
       </c>
@@ -4536,30 +4330,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>96.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="C106" t="n">
-        <v>96.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="D106" t="n">
-        <v>96.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="E106" t="n">
-        <v>96.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>11830.6878</v>
       </c>
       <c r="G106" t="n">
-        <v>-170490.5115000001</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>94.5</v>
+      </c>
       <c r="K106" t="n">
         <v>94.5</v>
       </c>
@@ -4578,30 +4374,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C107" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D107" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E107" t="n">
-        <v>95.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F107" t="n">
-        <v>251.3783</v>
+        <v>800</v>
       </c>
       <c r="G107" t="n">
-        <v>-170741.8898000001</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>94.5</v>
+      </c>
       <c r="K107" t="n">
         <v>94.5</v>
       </c>
@@ -4620,30 +4418,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="C108" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="D108" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="E108" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="F108" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="G108" t="n">
-        <v>-170731.8898000001</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>94.5</v>
+      </c>
       <c r="K108" t="n">
         <v>94.5</v>
       </c>
@@ -4662,30 +4462,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="C109" t="n">
-        <v>96.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="D109" t="n">
-        <v>96.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="E109" t="n">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="F109" t="n">
-        <v>20</v>
+        <v>1612</v>
       </c>
       <c r="G109" t="n">
-        <v>-170711.8898000001</v>
+        <v>-198748.7208</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>94.5</v>
+      </c>
       <c r="K109" t="n">
         <v>94.5</v>
       </c>
@@ -4704,30 +4506,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="C110" t="n">
-        <v>97.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>97.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>97.8</v>
+        <v>94.5</v>
       </c>
       <c r="F110" t="n">
-        <v>10.11</v>
+        <v>14400</v>
       </c>
       <c r="G110" t="n">
-        <v>-170701.7798000001</v>
+        <v>-184348.7208</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>94.5</v>
+      </c>
       <c r="K110" t="n">
         <v>94.5</v>
       </c>
@@ -4746,30 +4550,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>97.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>97.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>97.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>97.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>55.5879</v>
+        <v>10980</v>
       </c>
       <c r="G111" t="n">
-        <v>-170701.7798000001</v>
+        <v>-173368.7208</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>94.59999999999999</v>
+      </c>
       <c r="K111" t="n">
         <v>94.5</v>
       </c>
@@ -4788,30 +4594,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>97.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>97.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>97.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>97.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>10</v>
+        <v>45.7681</v>
       </c>
       <c r="G112" t="n">
-        <v>-170711.7798000001</v>
+        <v>-173368.7208</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>94.90000000000001</v>
+      </c>
       <c r="K112" t="n">
         <v>94.5</v>
       </c>
@@ -4830,30 +4638,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>96</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>96</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>96</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>96</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>10</v>
+        <v>2400</v>
       </c>
       <c r="G113" t="n">
-        <v>-170721.7798000001</v>
+        <v>-173368.7208</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>94.90000000000001</v>
+      </c>
       <c r="K113" t="n">
         <v>94.5</v>
       </c>
@@ -4872,30 +4682,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>97.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>97.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>97.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>97.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>10</v>
+        <v>3200</v>
       </c>
       <c r="G114" t="n">
-        <v>-170711.7798000001</v>
+        <v>-173368.7208</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>94.90000000000001</v>
+      </c>
       <c r="K114" t="n">
         <v>94.5</v>
       </c>
@@ -4914,30 +4726,32 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>97.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>97.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>97.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>97.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>10</v>
+        <v>1255.6375</v>
       </c>
       <c r="G115" t="n">
-        <v>-170701.7798000001</v>
+        <v>-173368.7208</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>94.90000000000001</v>
+      </c>
       <c r="K115" t="n">
         <v>94.5</v>
       </c>
@@ -4956,22 +4770,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>97.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="D116" t="n">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="E116" t="n">
-        <v>97.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>5128.2051</v>
+        <v>4214.0604</v>
       </c>
       <c r="G116" t="n">
-        <v>-175829.9849000001</v>
+        <v>-169154.6604</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4998,22 +4812,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>97.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="C117" t="n">
-        <v>97.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="D117" t="n">
-        <v>97.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="E117" t="n">
-        <v>97.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="F117" t="n">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="G117" t="n">
-        <v>-176159.9849000001</v>
+        <v>-169154.6604</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5040,22 +4854,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="C118" t="n">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="D118" t="n">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="E118" t="n">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="F118" t="n">
-        <v>3200</v>
+        <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>-172959.9849000001</v>
+        <v>-169154.6604</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5082,22 +4896,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>97.5</v>
+        <v>95</v>
       </c>
       <c r="C119" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D119" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E119" t="n">
-        <v>97.5</v>
+        <v>95</v>
       </c>
       <c r="F119" t="n">
-        <v>10800</v>
+        <v>273.4938</v>
       </c>
       <c r="G119" t="n">
-        <v>-162159.9849000001</v>
+        <v>-169428.1542</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5124,22 +4938,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>98</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>98.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="D120" t="n">
-        <v>98.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="E120" t="n">
-        <v>98</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>3523</v>
+        <v>1000</v>
       </c>
       <c r="G120" t="n">
-        <v>-158636.9849000001</v>
+        <v>-168428.1542</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5166,22 +4980,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>98.40000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>98.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="D121" t="n">
-        <v>98.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="E121" t="n">
-        <v>98.40000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>2380</v>
+        <v>1000</v>
       </c>
       <c r="G121" t="n">
-        <v>-158636.9849000001</v>
+        <v>-168428.1542</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5208,22 +5022,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>98.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="C122" t="n">
-        <v>98.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="D122" t="n">
-        <v>98.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="E122" t="n">
-        <v>98.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="F122" t="n">
-        <v>3564</v>
+        <v>213.5749</v>
       </c>
       <c r="G122" t="n">
-        <v>-158636.9849000001</v>
+        <v>-168641.7291</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5250,22 +5064,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>98.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="C123" t="n">
-        <v>98.40000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>98.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="E123" t="n">
-        <v>98.40000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>3477</v>
+        <v>9673.7129</v>
       </c>
       <c r="G123" t="n">
-        <v>-158636.9849000001</v>
+        <v>-178315.442</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5292,22 +5106,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>98.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="C124" t="n">
-        <v>98.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="D124" t="n">
-        <v>98.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="E124" t="n">
-        <v>98.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="F124" t="n">
-        <v>1981</v>
+        <v>10</v>
       </c>
       <c r="G124" t="n">
-        <v>-158636.9849000001</v>
+        <v>-178305.442</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5334,22 +5148,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>99.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>99.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>99.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>99.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F125" t="n">
         <v>10</v>
       </c>
       <c r="G125" t="n">
-        <v>-158626.9849000001</v>
+        <v>-178295.442</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5376,22 +5190,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>99.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>99.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>99.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>99.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F126" t="n">
-        <v>1139.3628</v>
+        <v>3317.2823</v>
       </c>
       <c r="G126" t="n">
-        <v>-158626.9849000001</v>
+        <v>-178295.442</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5418,22 +5232,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>99.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="C127" t="n">
-        <v>99.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="D127" t="n">
-        <v>99.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="E127" t="n">
-        <v>99.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="F127" t="n">
-        <v>1772.17</v>
+        <v>8887.884599999999</v>
       </c>
       <c r="G127" t="n">
-        <v>-156854.8149000001</v>
+        <v>-169407.5574</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5460,22 +5274,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>99.40000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="C128" t="n">
-        <v>99.5</v>
+        <v>97.8</v>
       </c>
       <c r="D128" t="n">
-        <v>99.5</v>
+        <v>97.8</v>
       </c>
       <c r="E128" t="n">
-        <v>99.40000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="F128" t="n">
-        <v>15941.315</v>
+        <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>-140913.4999000001</v>
+        <v>-169397.5574</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5502,28 +5316,28 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>99.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="C129" t="n">
-        <v>99.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="D129" t="n">
-        <v>99.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="E129" t="n">
-        <v>99.59999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>10</v>
+        <v>51.3675</v>
       </c>
       <c r="G129" t="n">
-        <v>-140903.4999000001</v>
+        <v>-169397.5574</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
@@ -5531,47 +5345,51 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>1.048968253968254</v>
-      </c>
-      <c r="N129" t="n">
-        <v>1.030949839914621</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>99.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="C130" t="n">
-        <v>99.7</v>
+        <v>97.8</v>
       </c>
       <c r="D130" t="n">
-        <v>99.7</v>
+        <v>97.8</v>
       </c>
       <c r="E130" t="n">
-        <v>99.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="F130" t="n">
-        <v>120</v>
+        <v>42.5282</v>
       </c>
       <c r="G130" t="n">
-        <v>-140783.4999000001</v>
+        <v>-169397.5574</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5582,32 +5400,38 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>99.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="C131" t="n">
-        <v>99.7</v>
+        <v>97.8</v>
       </c>
       <c r="D131" t="n">
-        <v>99.7</v>
+        <v>97.8</v>
       </c>
       <c r="E131" t="n">
-        <v>99.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="F131" t="n">
-        <v>10009.6673</v>
+        <v>37.709</v>
       </c>
       <c r="G131" t="n">
-        <v>-140783.4999000001</v>
+        <v>-169397.5574</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5618,32 +5442,38 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>99.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>99.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>99.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>99.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F132" t="n">
-        <v>810</v>
+        <v>312.9541</v>
       </c>
       <c r="G132" t="n">
-        <v>-140783.4999000001</v>
+        <v>-169710.5115000001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5654,32 +5484,38 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>99.7</v>
+        <v>96.8</v>
       </c>
       <c r="C133" t="n">
-        <v>99.7</v>
+        <v>96.8</v>
       </c>
       <c r="D133" t="n">
-        <v>99.7</v>
+        <v>96.8</v>
       </c>
       <c r="E133" t="n">
-        <v>99.7</v>
+        <v>96.8</v>
       </c>
       <c r="F133" t="n">
-        <v>5076.9024</v>
+        <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>-140783.4999000001</v>
+        <v>-169700.5115000001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5690,32 +5526,38 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>99.40000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>99.40000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>99.40000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E134" t="n">
-        <v>99.40000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F134" t="n">
-        <v>1543.7785</v>
+        <v>800</v>
       </c>
       <c r="G134" t="n">
-        <v>-142327.2784</v>
+        <v>-170500.5115000001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5726,32 +5568,38 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>98</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>97.5</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>98</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>97.09999999999999</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>24755.886</v>
+        <v>10</v>
       </c>
       <c r="G135" t="n">
-        <v>-167083.1644</v>
+        <v>-170490.5115000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5762,32 +5610,38 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>98.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>98.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>98.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>98.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>20</v>
+        <v>251.3783</v>
       </c>
       <c r="G136" t="n">
-        <v>-167063.1644</v>
+        <v>-170741.8898000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5798,32 +5652,38 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>97.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="C137" t="n">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="D137" t="n">
-        <v>97.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="E137" t="n">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="F137" t="n">
-        <v>15434.1028</v>
+        <v>10</v>
       </c>
       <c r="G137" t="n">
-        <v>-182497.2672</v>
+        <v>-170731.8898000001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5834,36 +5694,1260 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>96</v>
+      </c>
+      <c r="C138" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="D138" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="E138" t="n">
+        <v>96</v>
+      </c>
+      <c r="F138" t="n">
+        <v>20</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-170711.8898000001</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="C139" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-170701.7798000001</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="E140" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="F140" t="n">
+        <v>55.5879</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-170701.7798000001</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="C141" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="D141" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="E141" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="F141" t="n">
+        <v>10</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-170711.7798000001</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>96</v>
+      </c>
+      <c r="C142" t="n">
+        <v>96</v>
+      </c>
+      <c r="D142" t="n">
+        <v>96</v>
+      </c>
+      <c r="E142" t="n">
+        <v>96</v>
+      </c>
+      <c r="F142" t="n">
+        <v>10</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-170721.7798000001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
         <v>97.5</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C143" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E143" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>10</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-170711.7798000001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="C144" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="D144" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="E144" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="F144" t="n">
+        <v>10</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-170701.7798000001</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D145" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>5128.2051</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-175829.9849000001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="C146" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="D146" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="E146" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F146" t="n">
+        <v>330</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-176159.9849000001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-172959.9849000001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>98</v>
+      </c>
+      <c r="D148" t="n">
+        <v>98</v>
+      </c>
+      <c r="E148" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>10800</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-162159.9849000001</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>98</v>
+      </c>
+      <c r="C149" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D149" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="E149" t="n">
+        <v>98</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3523</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-158636.9849000001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="C150" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D150" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="E150" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2380</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-158636.9849000001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="C151" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D151" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="E151" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3564</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-158636.9849000001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="C152" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D152" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="E152" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3477</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-158636.9849000001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="C153" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D153" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="E153" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1981</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-158636.9849000001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="C154" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="D154" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="E154" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F154" t="n">
+        <v>10</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-158626.9849000001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="C155" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="D155" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="E155" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1139.3628</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-158626.9849000001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C156" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D156" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E156" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1772.17</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-156854.8149000001</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C157" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="D157" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="E157" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F157" t="n">
+        <v>15941.315</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-140913.4999000001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C158" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D158" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E158" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F158" t="n">
+        <v>10</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-140903.4999000001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C159" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D159" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="E159" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F159" t="n">
+        <v>120</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-140783.4999000001</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C160" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D160" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="E160" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10009.6673</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-140783.4999000001</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C161" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D161" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E161" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F161" t="n">
+        <v>810</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-140783.4999000001</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="C162" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D162" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="E162" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F162" t="n">
+        <v>5076.9024</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-140783.4999000001</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C163" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D163" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E163" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1543.7785</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-142327.2784</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>98</v>
+      </c>
+      <c r="C164" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D164" t="n">
+        <v>98</v>
+      </c>
+      <c r="E164" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F164" t="n">
+        <v>24755.886</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-167083.1644</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="C165" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="D165" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="E165" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="F165" t="n">
+        <v>20</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-167063.1644</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="C166" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D166" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="E166" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F166" t="n">
+        <v>15434.1028</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-182497.2672</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C167" t="n">
         <v>97.3</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D167" t="n">
         <v>97.5</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E167" t="n">
         <v>97.3</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F167" t="n">
         <v>16449.5043</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G167" t="n">
         <v>-198946.7715</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest PAY.xlsx
+++ b/BackTest/2019-10-19 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N167"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-52597.73190000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-52597.73190000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-52582.73190000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-52582.73190000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-52572.73190000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-51572.73190000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-51572.73190000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-61746.39340000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-61746.39340000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-79362.08510000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-76099.81040000002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-76099.81040000002</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-75172.81040000002</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-75172.81040000002</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-75172.81040000002</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-136175.9473</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-136185.9473</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-134821.9473</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-134421.9473</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-134441.9473</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-134431.9473</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-182019.5246</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,19 @@
         <v>-204109.7208</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>94.59999999999999</v>
+      </c>
+      <c r="J83" t="n">
+        <v>94.59999999999999</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3161,23 @@
         <v>-204109.7208</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>94.5</v>
+      </c>
+      <c r="J84" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3204,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3243,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,22 +3274,19 @@
         <v>-204109.7208</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="J87" t="n">
         <v>94.5</v>
       </c>
-      <c r="K87" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3556,26 +3311,23 @@
         <v>-204109.7208</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="J88" t="n">
         <v>94.5</v>
       </c>
-      <c r="K88" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3600,26 +3352,23 @@
         <v>-204109.7208</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="J89" t="n">
         <v>94.5</v>
       </c>
-      <c r="K89" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3644,26 +3393,23 @@
         <v>-204268.7208</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="J90" t="n">
         <v>94.5</v>
       </c>
-      <c r="K90" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3688,26 +3434,23 @@
         <v>-198748.7208</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J91" t="n">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="K91" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>94.5</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3732,26 +3475,21 @@
         <v>-198748.7208</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
         <v>94.5</v>
       </c>
-      <c r="K92" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3776,26 +3514,21 @@
         <v>-198748.7208</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>94.5</v>
       </c>
-      <c r="K93" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3820,26 +3553,23 @@
         <v>-198748.7208</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="J94" t="n">
         <v>94.5</v>
       </c>
-      <c r="K94" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3864,26 +3594,23 @@
         <v>-198748.7208</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="J95" t="n">
         <v>94.5</v>
       </c>
-      <c r="K95" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3908,26 +3635,21 @@
         <v>-198748.7208</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
         <v>94.5</v>
       </c>
-      <c r="K96" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3952,26 +3674,23 @@
         <v>-198748.7208</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="J97" t="n">
         <v>94.5</v>
       </c>
-      <c r="K97" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3996,26 +3715,21 @@
         <v>-198748.7208</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
         <v>94.5</v>
       </c>
-      <c r="K98" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4040,26 +3754,21 @@
         <v>-198748.7208</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
         <v>94.5</v>
       </c>
-      <c r="K99" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4084,26 +3793,21 @@
         <v>-198748.7208</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
         <v>94.5</v>
       </c>
-      <c r="K100" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4128,26 +3832,21 @@
         <v>-198748.7208</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
         <v>94.5</v>
       </c>
-      <c r="K101" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4172,26 +3871,21 @@
         <v>-198748.7208</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>94.5</v>
       </c>
-      <c r="K102" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4216,26 +3910,23 @@
         <v>-198748.7208</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="J103" t="n">
         <v>94.5</v>
       </c>
-      <c r="K103" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4260,26 +3951,23 @@
         <v>-198748.7208</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="J104" t="n">
         <v>94.5</v>
       </c>
-      <c r="K104" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4304,26 +3992,23 @@
         <v>-198748.7208</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="J105" t="n">
         <v>94.5</v>
       </c>
-      <c r="K105" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4348,26 +4033,23 @@
         <v>-198748.7208</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="J106" t="n">
         <v>94.5</v>
       </c>
-      <c r="K106" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4392,26 +4074,23 @@
         <v>-198748.7208</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="J107" t="n">
         <v>94.5</v>
       </c>
-      <c r="K107" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4436,26 +4115,23 @@
         <v>-198748.7208</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="J108" t="n">
         <v>94.5</v>
       </c>
-      <c r="K108" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4480,26 +4156,23 @@
         <v>-198748.7208</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="J109" t="n">
         <v>94.5</v>
       </c>
-      <c r="K109" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4524,26 +4197,23 @@
         <v>-184348.7208</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="J110" t="n">
         <v>94.5</v>
       </c>
-      <c r="K110" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4568,26 +4238,23 @@
         <v>-173368.7208</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="J111" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="K111" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>94.5</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4612,26 +4279,23 @@
         <v>-173368.7208</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="J112" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="K112" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>94.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4656,26 +4320,23 @@
         <v>-173368.7208</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="J113" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="K113" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>94.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4700,26 +4361,23 @@
         <v>-173368.7208</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="J114" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="K114" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>94.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4744,26 +4402,23 @@
         <v>-173368.7208</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="J115" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="K115" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>94.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4788,24 +4443,23 @@
         <v>-169154.6604</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>94.90000000000001</v>
+      </c>
+      <c r="J116" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4830,24 +4484,23 @@
         <v>-169154.6604</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>96</v>
+      </c>
+      <c r="J117" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4874,22 +4527,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4916,22 +4566,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4958,22 +4605,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5000,22 +4644,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5042,22 +4683,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5084,22 +4722,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5126,22 +4761,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5168,22 +4800,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5210,22 +4839,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5250,24 +4876,23 @@
         <v>-169407.5574</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>95.90000000000001</v>
+      </c>
+      <c r="J127" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5294,22 +4919,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5336,22 +4958,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5378,22 +4997,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5420,22 +5036,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5462,22 +5075,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5504,22 +5114,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5546,22 +5153,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5588,22 +5192,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5630,22 +5231,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5672,22 +5270,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5712,24 +5307,23 @@
         <v>-170711.8898000001</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>96</v>
+      </c>
+      <c r="J138" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5754,24 +5348,23 @@
         <v>-170701.7798000001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>96.09999999999999</v>
+      </c>
+      <c r="J139" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5798,22 +5391,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5840,22 +5430,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5882,22 +5469,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5924,22 +5508,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5966,22 +5547,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6008,22 +5586,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6050,22 +5625,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6092,22 +5664,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6134,22 +5703,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6176,22 +5742,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6218,22 +5781,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6260,22 +5820,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6302,22 +5859,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6344,22 +5898,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6386,22 +5937,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6428,22 +5976,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6470,22 +6015,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6512,22 +6054,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6554,22 +6093,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6596,22 +6132,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6638,22 +6171,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6680,22 +6210,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6722,22 +6249,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6764,22 +6288,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6806,22 +6327,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6848,22 +6366,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6890,22 +6405,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6932,24 +6444,21 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest PAY.xlsx
+++ b/BackTest/2019-10-19 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-52597.73190000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-52597.73190000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-52582.73190000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-52582.73190000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-52582.73190000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-52582.73190000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-52572.73190000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-52572.73190000001</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-51572.73190000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-51572.73190000001</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-61746.39340000001</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-61746.39340000001</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-79362.08510000001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-79362.08510000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-79362.08510000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-79362.08510000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-79362.08510000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-79352.08510000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-78784.81040000002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-75908.81040000002</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-76099.81040000002</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-76099.81040000002</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-75172.81040000002</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-75172.81040000002</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-75172.81040000002</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-136175.9473</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-136185.9473</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-134821.9473</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-134421.9473</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-134441.9473</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-134431.9473</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-182019.5246</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -2662,10 +2662,14 @@
         <v>-210196.7208</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="J69" t="n">
+        <v>94.7</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2695,11 +2699,19 @@
         <v>-210196.7208</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="J70" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2740,19 @@
         <v>-210728.7208</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="J71" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2781,19 @@
         <v>-210728.7208</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="J72" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +2825,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +2864,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +2903,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +2942,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +2981,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3020,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3059,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3098,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3134,19 @@
         <v>-202420.7208</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="J81" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3175,19 @@
         <v>-202420.7208</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="J82" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,15 +3216,19 @@
         <v>-204109.7208</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>94.59999999999999</v>
       </c>
       <c r="J83" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
+        <v>94.7</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,17 +3257,17 @@
         <v>-204109.7208</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>94.5</v>
       </c>
       <c r="J84" t="n">
-        <v>94.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -3202,15 +3298,17 @@
         <v>-204109.7208</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>94.5</v>
+      </c>
       <c r="J85" t="n">
-        <v>94.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3241,11 +3339,19 @@
         <v>-204109.7208</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3274,15 +3380,19 @@
         <v>-204109.7208</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>94.5</v>
       </c>
       <c r="J87" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+        <v>94.7</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3311,17 +3421,17 @@
         <v>-204109.7208</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>94.5</v>
       </c>
       <c r="J88" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -3352,17 +3462,17 @@
         <v>-204109.7208</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>94.5</v>
       </c>
       <c r="J89" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -3393,17 +3503,17 @@
         <v>-204268.7208</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>94.5</v>
       </c>
       <c r="J90" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -3434,13 +3544,13 @@
         <v>-198748.7208</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>94.09999999999999</v>
       </c>
       <c r="J91" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3475,11 +3585,13 @@
         <v>-198748.7208</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>94.5</v>
+      </c>
       <c r="J92" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3514,11 +3626,13 @@
         <v>-198748.7208</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>94.5</v>
+      </c>
       <c r="J93" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3553,13 +3667,13 @@
         <v>-198748.7208</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>94.5</v>
       </c>
       <c r="J94" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3594,13 +3708,13 @@
         <v>-198748.7208</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>94.5</v>
       </c>
       <c r="J95" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3635,11 +3749,13 @@
         <v>-198748.7208</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>94.5</v>
+      </c>
       <c r="J96" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3674,13 +3790,13 @@
         <v>-198748.7208</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>94.5</v>
       </c>
       <c r="J97" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3715,11 +3831,13 @@
         <v>-198748.7208</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>94.5</v>
+      </c>
       <c r="J98" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3754,11 +3872,13 @@
         <v>-198748.7208</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>94.5</v>
+      </c>
       <c r="J99" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3793,11 +3913,13 @@
         <v>-198748.7208</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>94.5</v>
+      </c>
       <c r="J100" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3832,11 +3954,13 @@
         <v>-198748.7208</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>94.5</v>
+      </c>
       <c r="J101" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3871,11 +3995,13 @@
         <v>-198748.7208</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>94.5</v>
+      </c>
       <c r="J102" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3910,13 +4036,13 @@
         <v>-198748.7208</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>94.5</v>
       </c>
       <c r="J103" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -3951,13 +4077,13 @@
         <v>-198748.7208</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>94.5</v>
       </c>
       <c r="J104" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -3992,13 +4118,13 @@
         <v>-198748.7208</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>94.5</v>
       </c>
       <c r="J105" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4033,13 +4159,13 @@
         <v>-198748.7208</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>94.5</v>
       </c>
       <c r="J106" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4074,13 +4200,13 @@
         <v>-198748.7208</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>94.5</v>
       </c>
       <c r="J107" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4115,13 +4241,13 @@
         <v>-198748.7208</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>94.5</v>
       </c>
       <c r="J108" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4156,13 +4282,13 @@
         <v>-198748.7208</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>94.5</v>
       </c>
       <c r="J109" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4197,13 +4323,13 @@
         <v>-184348.7208</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>94.5</v>
       </c>
       <c r="J110" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4238,13 +4364,13 @@
         <v>-173368.7208</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>94.59999999999999</v>
       </c>
       <c r="J111" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4279,13 +4405,11 @@
         <v>-173368.7208</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>94.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4320,13 +4444,11 @@
         <v>-173368.7208</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>94.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4361,13 +4483,11 @@
         <v>-173368.7208</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>94.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4402,13 +4522,11 @@
         <v>-173368.7208</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>94.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4443,13 +4561,11 @@
         <v>-169154.6604</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>94.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4484,13 +4600,11 @@
         <v>-169154.6604</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4529,7 +4643,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4568,7 +4682,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4607,7 +4721,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4646,7 +4760,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4685,7 +4799,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4724,7 +4838,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4763,7 +4877,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4802,7 +4916,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4841,7 +4955,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4876,13 +4990,11 @@
         <v>-169407.5574</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>95.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4921,7 +5033,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4960,7 +5072,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4999,7 +5111,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5038,7 +5150,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5077,7 +5189,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5116,7 +5228,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5155,7 +5267,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5194,7 +5306,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5233,7 +5345,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5272,7 +5384,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5307,13 +5419,11 @@
         <v>-170711.8898000001</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5348,13 +5458,11 @@
         <v>-170701.7798000001</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>96.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5393,7 +5501,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5432,7 +5540,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5471,7 +5579,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5510,7 +5618,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5549,7 +5657,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5588,7 +5696,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5627,7 +5735,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5666,7 +5774,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5705,7 +5813,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5744,7 +5852,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5783,7 +5891,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5822,7 +5930,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5861,7 +5969,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5900,7 +6008,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5939,7 +6047,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5978,7 +6086,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6017,7 +6125,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6056,7 +6164,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6095,7 +6203,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6134,7 +6242,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6173,7 +6281,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6212,7 +6320,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6251,7 +6359,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6290,7 +6398,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6329,7 +6437,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6368,7 +6476,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6407,7 +6515,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6446,7 +6554,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6459,6 +6567,6 @@
       <c r="M167" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest PAY.xlsx
+++ b/BackTest/2019-10-19 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-52597.73190000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-52597.73190000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-52582.73190000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-52582.73190000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-52582.73190000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-52582.73190000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-52572.73190000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-52572.73190000001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-51572.73190000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-51572.73190000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-61746.39340000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-61746.39340000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-79362.08510000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-79362.08510000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-79362.08510000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-79362.08510000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-79362.08510000001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-79352.08510000001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-78784.81040000002</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-75908.81040000002</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-76099.81040000002</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-76099.81040000002</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-75172.81040000002</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-75172.81040000002</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-75172.81040000002</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-136175.9473</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-136185.9473</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-134421.9473</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-134431.9473</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -2662,14 +2662,10 @@
         <v>-210196.7208</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>94.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2699,823 +2695,691 @@
         <v>-210196.7208</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="J70" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K70" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="C71" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="D71" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="E71" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="F71" t="n">
+        <v>532</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-210728.7208</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="C72" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="D72" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="E72" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="F72" t="n">
+        <v>37378.6902</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-210728.7208</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C73" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E73" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F73" t="n">
+        <v>16</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-210744.7208</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C74" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="D74" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E74" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>20</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-210744.7208</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C75" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F75" t="n">
+        <v>800</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-210744.7208</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C76" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="D76" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="E76" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F76" t="n">
+        <v>8324</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-202420.7208</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="C77" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="D77" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="E77" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-202420.7208</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="C78" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="D78" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="E78" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="F78" t="n">
+        <v>398</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-202420.7208</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="C79" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="D79" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="E79" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="F79" t="n">
+        <v>400</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-202420.7208</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="C80" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="D80" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="E80" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="F80" t="n">
+        <v>350</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-202420.7208</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="C81" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="D81" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="E81" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="F81" t="n">
+        <v>10</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-202420.7208</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="C82" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="D82" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="E82" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-202420.7208</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C83" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="D83" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E83" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1689</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-204109.7208</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C84" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="D84" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E84" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2777</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-204109.7208</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1255</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-204109.7208</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C86" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="D86" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F86" t="n">
+        <v>381</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-204109.7208</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C87" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1852</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-204109.7208</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C88" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="D88" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E88" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F88" t="n">
+        <v>54</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-204109.7208</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J88" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C89" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="D89" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E89" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1835</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-204109.7208</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="C71" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="D71" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="E71" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="F71" t="n">
-        <v>532</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-210728.7208</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="J71" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="C72" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="D72" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="E72" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="F72" t="n">
-        <v>37378.6902</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-210728.7208</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="J72" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K72" t="inlineStr">
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="D90" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="F90" t="n">
+        <v>159</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-204268.7208</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J90" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="C73" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="D73" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="E73" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="F73" t="n">
-        <v>16</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-210744.7208</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="C74" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="D74" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="E74" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="F74" t="n">
-        <v>20</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-210744.7208</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="C75" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="D75" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="E75" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="F75" t="n">
-        <v>800</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-210744.7208</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="C76" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="D76" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="E76" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="F76" t="n">
-        <v>8324</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-202420.7208</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="C77" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="D77" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="E77" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="F77" t="n">
-        <v>10</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-202420.7208</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="C78" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="D78" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="E78" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="F78" t="n">
-        <v>398</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-202420.7208</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="C79" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="D79" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="E79" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="F79" t="n">
-        <v>400</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-202420.7208</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="C80" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="D80" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="E80" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="F80" t="n">
-        <v>350</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-202420.7208</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="C81" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="D81" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="E81" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="F81" t="n">
-        <v>10</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-202420.7208</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="J81" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="C82" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="D82" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="E82" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="F82" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-202420.7208</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="J82" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="C83" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="D83" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="E83" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1689</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-204109.7208</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="J83" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="C84" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="D84" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="E84" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2777</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-204109.7208</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="C85" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="D85" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="E85" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1255</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-204109.7208</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="J85" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="C86" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="D86" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="E86" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="F86" t="n">
-        <v>381</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-204109.7208</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="C87" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="D87" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="E87" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1852</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-204109.7208</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="J87" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="C88" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="D88" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="E88" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="F88" t="n">
-        <v>54</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-204109.7208</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="J88" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="C89" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="D89" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="E89" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1835</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-204109.7208</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="C90" t="n">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="D90" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="E90" t="n">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="F90" t="n">
-        <v>159</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-204268.7208</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="J90" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3550,7 +3414,7 @@
         <v>94.09999999999999</v>
       </c>
       <c r="J91" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3591,7 +3455,7 @@
         <v>94.5</v>
       </c>
       <c r="J92" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3632,7 +3496,7 @@
         <v>94.5</v>
       </c>
       <c r="J93" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3673,7 +3537,7 @@
         <v>94.5</v>
       </c>
       <c r="J94" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3714,7 +3578,7 @@
         <v>94.5</v>
       </c>
       <c r="J95" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3749,13 +3613,11 @@
         <v>-198748.7208</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>94.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3790,13 +3652,11 @@
         <v>-198748.7208</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>94.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3831,13 +3691,11 @@
         <v>-198748.7208</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>94.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3872,13 +3730,11 @@
         <v>-198748.7208</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>94.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3913,13 +3769,11 @@
         <v>-198748.7208</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>94.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3954,13 +3808,11 @@
         <v>-198748.7208</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>94.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3995,13 +3847,11 @@
         <v>-198748.7208</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>94.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4036,13 +3886,11 @@
         <v>-198748.7208</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>94.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4077,13 +3925,11 @@
         <v>-198748.7208</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>94.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4124,7 +3970,7 @@
         <v>94.5</v>
       </c>
       <c r="J105" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4165,7 +4011,7 @@
         <v>94.5</v>
       </c>
       <c r="J106" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4200,13 +4046,11 @@
         <v>-198748.7208</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>94.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4241,13 +4085,11 @@
         <v>-198748.7208</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>94.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4288,7 +4130,7 @@
         <v>94.5</v>
       </c>
       <c r="J109" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4323,13 +4165,11 @@
         <v>-184348.7208</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>94.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4364,13 +4204,11 @@
         <v>-173368.7208</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>94.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4409,7 +4247,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4448,7 +4286,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4487,7 +4325,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4526,7 +4364,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4565,7 +4403,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4604,7 +4442,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4643,7 +4481,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4682,7 +4520,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4721,7 +4559,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4760,7 +4598,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4799,7 +4637,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4838,7 +4676,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4877,7 +4715,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4916,7 +4754,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4955,7 +4793,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4994,7 +4832,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5033,7 +4871,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5068,19 +4906,19 @@
         <v>-169397.5574</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1</v>
+        <v>1.029920634920635</v>
       </c>
       <c r="M129" t="inlineStr"/>
     </row>
@@ -5107,17 +4945,11 @@
         <v>-169397.5574</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5149,14 +4981,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5185,17 +5011,11 @@
         <v>-169710.5115000001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5227,14 +5047,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5266,14 +5080,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5305,14 +5113,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5344,14 +5146,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5383,14 +5179,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5419,17 +5209,11 @@
         <v>-170711.8898000001</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5461,14 +5245,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5497,17 +5275,11 @@
         <v>-170701.7798000001</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5539,14 +5311,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5578,14 +5344,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5617,14 +5377,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5656,14 +5410,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5695,14 +5443,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5734,14 +5476,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5773,14 +5509,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5812,14 +5542,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5851,14 +5575,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5890,14 +5608,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5929,14 +5641,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5965,17 +5671,11 @@
         <v>-158636.9849000001</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6004,17 +5704,11 @@
         <v>-158636.9849000001</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6043,17 +5737,11 @@
         <v>-158626.9849000001</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6085,14 +5773,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6124,14 +5806,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6163,14 +5839,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6202,14 +5872,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6241,14 +5905,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6280,14 +5938,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6319,14 +5971,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6358,14 +6004,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6397,14 +6037,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6436,14 +6070,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6475,14 +6103,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6514,14 +6136,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6553,20 +6169,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
       <c r="M167" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest PAY.xlsx
+++ b/BackTest/2019-10-19 BackTest PAY.xlsx
@@ -748,7 +748,7 @@
         <v>-51572.73190000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-61746.39340000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -3613,9 +3613,11 @@
         <v>-198748.7208</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>94.5</v>
+      </c>
       <c r="J96" t="n">
         <v>94.5</v>
       </c>
@@ -3652,9 +3654,11 @@
         <v>-198748.7208</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>94.5</v>
+      </c>
       <c r="J97" t="n">
         <v>94.5</v>
       </c>
@@ -3691,9 +3695,11 @@
         <v>-198748.7208</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>94.5</v>
+      </c>
       <c r="J98" t="n">
         <v>94.5</v>
       </c>
@@ -3730,9 +3736,11 @@
         <v>-198748.7208</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>94.5</v>
+      </c>
       <c r="J99" t="n">
         <v>94.5</v>
       </c>
@@ -3769,9 +3777,11 @@
         <v>-198748.7208</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>94.5</v>
+      </c>
       <c r="J100" t="n">
         <v>94.5</v>
       </c>
@@ -3808,9 +3818,11 @@
         <v>-198748.7208</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>94.5</v>
+      </c>
       <c r="J101" t="n">
         <v>94.5</v>
       </c>
@@ -3847,9 +3859,11 @@
         <v>-198748.7208</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>94.5</v>
+      </c>
       <c r="J102" t="n">
         <v>94.5</v>
       </c>
@@ -3886,9 +3900,11 @@
         <v>-198748.7208</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>94.5</v>
+      </c>
       <c r="J103" t="n">
         <v>94.5</v>
       </c>
@@ -3925,9 +3941,11 @@
         <v>-198748.7208</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>94.5</v>
+      </c>
       <c r="J104" t="n">
         <v>94.5</v>
       </c>
@@ -4046,9 +4064,11 @@
         <v>-198748.7208</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>94.5</v>
+      </c>
       <c r="J107" t="n">
         <v>94.5</v>
       </c>
@@ -4085,9 +4105,11 @@
         <v>-198748.7208</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>94.5</v>
+      </c>
       <c r="J108" t="n">
         <v>94.5</v>
       </c>
@@ -4165,9 +4187,11 @@
         <v>-184348.7208</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>94.5</v>
+      </c>
       <c r="J110" t="n">
         <v>94.5</v>
       </c>
@@ -4204,9 +4228,11 @@
         <v>-173368.7208</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>94.59999999999999</v>
+      </c>
       <c r="J111" t="n">
         <v>94.5</v>
       </c>
@@ -4243,9 +4269,11 @@
         <v>-173368.7208</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>94.90000000000001</v>
+      </c>
       <c r="J112" t="n">
         <v>94.5</v>
       </c>
@@ -4282,9 +4310,11 @@
         <v>-173368.7208</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>94.90000000000001</v>
+      </c>
       <c r="J113" t="n">
         <v>94.5</v>
       </c>
@@ -4906,7 +4936,7 @@
         <v>-169397.5574</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
@@ -4914,11 +4944,11 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.029920634920635</v>
+        <v>1</v>
       </c>
       <c r="M129" t="inlineStr"/>
     </row>
@@ -4945,11 +4975,17 @@
         <v>-169397.5574</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4981,8 +5017,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5011,11 +5053,17 @@
         <v>-169710.5115000001</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5047,8 +5095,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5080,8 +5134,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5113,8 +5173,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5146,8 +5212,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5179,8 +5251,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5209,11 +5287,17 @@
         <v>-170711.8898000001</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5245,8 +5329,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5275,11 +5365,17 @@
         <v>-170701.7798000001</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5311,8 +5407,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5344,8 +5446,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5377,8 +5485,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5410,8 +5524,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5443,8 +5563,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5476,8 +5602,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5509,8 +5641,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5542,8 +5680,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5575,8 +5719,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5608,8 +5758,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5641,8 +5797,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5671,11 +5833,17 @@
         <v>-158636.9849000001</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5704,11 +5872,17 @@
         <v>-158636.9849000001</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5737,11 +5911,17 @@
         <v>-158626.9849000001</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5773,8 +5953,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5806,8 +5992,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5836,13 +6028,19 @@
         <v>-140913.4999000001</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L157" t="n">
-        <v>1</v>
+        <v>1.047910052910053</v>
       </c>
       <c r="M157" t="inlineStr"/>
     </row>
@@ -5869,7 +6067,7 @@
         <v>-140903.4999000001</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5902,7 +6100,7 @@
         <v>-140783.4999000001</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5935,7 +6133,7 @@
         <v>-140783.4999000001</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5968,7 +6166,7 @@
         <v>-140783.4999000001</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6001,7 +6199,7 @@
         <v>-140783.4999000001</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6034,7 +6232,7 @@
         <v>-142327.2784</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>

--- a/BackTest/2019-10-19 BackTest PAY.xlsx
+++ b/BackTest/2019-10-19 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:L167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2800</v>
       </c>
       <c r="G2" t="n">
-        <v>-52597.73190000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>790.8463</v>
       </c>
       <c r="G3" t="n">
-        <v>-52597.73190000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>-52582.73190000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>-52582.73190000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>-52582.73190000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2479</v>
       </c>
       <c r="G7" t="n">
-        <v>-52582.73190000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>-52572.73190000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1000</v>
       </c>
       <c r="G9" t="n">
-        <v>-52572.73190000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1000</v>
       </c>
       <c r="G10" t="n">
-        <v>-51572.73190000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>189.4871</v>
       </c>
       <c r="G11" t="n">
-        <v>-51572.73190000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>10173.6615</v>
       </c>
       <c r="G12" t="n">
-        <v>-61746.39340000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>-61746.39340000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>17615.6917</v>
       </c>
       <c r="G14" t="n">
-        <v>-79362.08510000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>12000</v>
       </c>
       <c r="G15" t="n">
-        <v>-79362.08510000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1250</v>
       </c>
       <c r="G16" t="n">
-        <v>-79362.08510000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>69</v>
       </c>
       <c r="G17" t="n">
-        <v>-79362.08510000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>70.7405</v>
       </c>
       <c r="G18" t="n">
-        <v>-79362.08510000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>-79352.08510000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>567.2747000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>-78784.81040000002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>2876</v>
       </c>
       <c r="G21" t="n">
-        <v>-75908.81040000002</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>191</v>
       </c>
       <c r="G22" t="n">
-        <v>-76099.81040000002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>134</v>
       </c>
       <c r="G23" t="n">
-        <v>-76099.81040000002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>927</v>
       </c>
       <c r="G24" t="n">
-        <v>-75172.81040000002</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>-75172.81040000002</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>-75172.81040000002</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>61003.1369</v>
       </c>
       <c r="G27" t="n">
-        <v>-136175.9473</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>-136185.9473</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1364</v>
       </c>
       <c r="G29" t="n">
-        <v>-134821.9473</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>400</v>
       </c>
       <c r="G30" t="n">
-        <v>-134421.9473</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>-134441.9473</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>-134431.9473</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>47587.5773</v>
       </c>
       <c r="G33" t="n">
-        <v>-182019.5246</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>2400</v>
       </c>
       <c r="G34" t="n">
-        <v>-184419.5246</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>800</v>
       </c>
       <c r="G35" t="n">
-        <v>-185219.5246</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>663</v>
       </c>
       <c r="G36" t="n">
-        <v>-184556.5246</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>663</v>
       </c>
       <c r="G37" t="n">
-        <v>-183893.5246</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>5052</v>
       </c>
       <c r="G38" t="n">
-        <v>-183893.5246</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>90</v>
       </c>
       <c r="G39" t="n">
-        <v>-183803.5246</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>5285.635</v>
       </c>
       <c r="G40" t="n">
-        <v>-183803.5246</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>400</v>
       </c>
       <c r="G41" t="n">
-        <v>-184203.5246</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1779</v>
       </c>
       <c r="G42" t="n">
-        <v>-184203.5246</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>3137</v>
       </c>
       <c r="G43" t="n">
-        <v>-187340.5246</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>7636</v>
       </c>
       <c r="G44" t="n">
-        <v>-187340.5246</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>800</v>
       </c>
       <c r="G45" t="n">
-        <v>-187340.5246</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>5385</v>
       </c>
       <c r="G46" t="n">
-        <v>-192725.5246</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>800</v>
       </c>
       <c r="G47" t="n">
-        <v>-192725.5246</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>149</v>
       </c>
       <c r="G48" t="n">
-        <v>-192725.5246</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>591</v>
       </c>
       <c r="G49" t="n">
-        <v>-192725.5246</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>414</v>
       </c>
       <c r="G50" t="n">
-        <v>-192725.5246</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>-192735.5246</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>260.7724</v>
       </c>
       <c r="G52" t="n">
-        <v>-192735.5246</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>10895.6748</v>
       </c>
       <c r="G53" t="n">
-        <v>-203631.1994</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>3600</v>
       </c>
       <c r="G54" t="n">
-        <v>-203631.1994</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>-203631.1994</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>900</v>
       </c>
       <c r="G56" t="n">
-        <v>-203631.1994</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>6400</v>
       </c>
       <c r="G57" t="n">
-        <v>-210031.1994</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1230.7629</v>
       </c>
       <c r="G58" t="n">
-        <v>-210031.1994</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>2105.2389</v>
       </c>
       <c r="G59" t="n">
-        <v>-212136.4383</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>2308.7175</v>
       </c>
       <c r="G60" t="n">
-        <v>-209827.7208</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>800</v>
       </c>
       <c r="G61" t="n">
-        <v>-209827.7208</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>400</v>
       </c>
       <c r="G62" t="n">
-        <v>-209827.7208</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>2572</v>
       </c>
       <c r="G63" t="n">
-        <v>-209827.7208</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>369</v>
       </c>
       <c r="G64" t="n">
-        <v>-210196.7208</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>490</v>
       </c>
       <c r="G65" t="n">
-        <v>-210196.7208</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>436</v>
       </c>
       <c r="G66" t="n">
-        <v>-210196.7208</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>812</v>
       </c>
       <c r="G67" t="n">
-        <v>-210196.7208</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>800</v>
       </c>
       <c r="G68" t="n">
-        <v>-210196.7208</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>400</v>
       </c>
       <c r="G69" t="n">
-        <v>-210196.7208</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>337</v>
       </c>
       <c r="G70" t="n">
-        <v>-210196.7208</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>532</v>
       </c>
       <c r="G71" t="n">
-        <v>-210728.7208</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>37378.6902</v>
       </c>
       <c r="G72" t="n">
-        <v>-210728.7208</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>16</v>
       </c>
       <c r="G73" t="n">
-        <v>-210744.7208</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>20</v>
       </c>
       <c r="G74" t="n">
-        <v>-210744.7208</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>800</v>
       </c>
       <c r="G75" t="n">
-        <v>-210744.7208</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>8324</v>
       </c>
       <c r="G76" t="n">
-        <v>-202420.7208</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>-202420.7208</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>398</v>
       </c>
       <c r="G78" t="n">
-        <v>-202420.7208</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>400</v>
       </c>
       <c r="G79" t="n">
-        <v>-202420.7208</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>350</v>
       </c>
       <c r="G80" t="n">
-        <v>-202420.7208</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>-202420.7208</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>1200</v>
       </c>
       <c r="G82" t="n">
-        <v>-202420.7208</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>1689</v>
       </c>
       <c r="G83" t="n">
-        <v>-204109.7208</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>2777</v>
       </c>
       <c r="G84" t="n">
-        <v>-204109.7208</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>1255</v>
       </c>
       <c r="G85" t="n">
-        <v>-204109.7208</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>381</v>
       </c>
       <c r="G86" t="n">
-        <v>-204109.7208</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>1852</v>
       </c>
       <c r="G87" t="n">
-        <v>-204109.7208</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,22 +3023,15 @@
         <v>54</v>
       </c>
       <c r="G88" t="n">
-        <v>-204109.7208</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="J88" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3323,26 +3053,15 @@
         <v>1835</v>
       </c>
       <c r="G89" t="n">
-        <v>-204109.7208</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3364,26 +3083,15 @@
         <v>159</v>
       </c>
       <c r="G90" t="n">
-        <v>-204268.7208</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="J90" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3405,26 +3113,15 @@
         <v>5520</v>
       </c>
       <c r="G91" t="n">
-        <v>-198748.7208</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="J91" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3446,26 +3143,19 @@
         <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>-198748.7208</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>94.5</v>
       </c>
       <c r="I92" t="n">
         <v>94.5</v>
       </c>
-      <c r="J92" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3487,26 +3177,23 @@
         <v>51.0687</v>
       </c>
       <c r="G93" t="n">
-        <v>-198748.7208</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>94.5</v>
       </c>
       <c r="I93" t="n">
         <v>94.5</v>
       </c>
-      <c r="J93" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3528,26 +3215,23 @@
         <v>1200</v>
       </c>
       <c r="G94" t="n">
-        <v>-198748.7208</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>94.5</v>
       </c>
       <c r="I94" t="n">
         <v>94.5</v>
       </c>
-      <c r="J94" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3569,26 +3253,19 @@
         <v>977</v>
       </c>
       <c r="G95" t="n">
-        <v>-198748.7208</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>94.5</v>
       </c>
       <c r="I95" t="n">
         <v>94.5</v>
       </c>
-      <c r="J95" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3610,26 +3287,23 @@
         <v>627</v>
       </c>
       <c r="G96" t="n">
-        <v>-198748.7208</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>94.5</v>
       </c>
       <c r="I96" t="n">
         <v>94.5</v>
       </c>
-      <c r="J96" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3651,26 +3325,23 @@
         <v>863</v>
       </c>
       <c r="G97" t="n">
-        <v>-198748.7208</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>94.5</v>
       </c>
       <c r="I97" t="n">
         <v>94.5</v>
       </c>
-      <c r="J97" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3692,26 +3363,19 @@
         <v>7591</v>
       </c>
       <c r="G98" t="n">
-        <v>-198748.7208</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>94.5</v>
       </c>
       <c r="I98" t="n">
         <v>94.5</v>
       </c>
-      <c r="J98" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3733,26 +3397,23 @@
         <v>1200</v>
       </c>
       <c r="G99" t="n">
-        <v>-198748.7208</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>94.5</v>
       </c>
       <c r="I99" t="n">
         <v>94.5</v>
       </c>
-      <c r="J99" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3774,26 +3435,23 @@
         <v>5960</v>
       </c>
       <c r="G100" t="n">
-        <v>-198748.7208</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>94.5</v>
       </c>
       <c r="I100" t="n">
         <v>94.5</v>
       </c>
-      <c r="J100" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3815,26 +3473,19 @@
         <v>400</v>
       </c>
       <c r="G101" t="n">
-        <v>-198748.7208</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>94.5</v>
       </c>
       <c r="I101" t="n">
         <v>94.5</v>
       </c>
-      <c r="J101" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3856,26 +3507,23 @@
         <v>800</v>
       </c>
       <c r="G102" t="n">
-        <v>-198748.7208</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>94.5</v>
       </c>
       <c r="I102" t="n">
         <v>94.5</v>
       </c>
-      <c r="J102" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3897,26 +3545,23 @@
         <v>800</v>
       </c>
       <c r="G103" t="n">
-        <v>-198748.7208</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>94.5</v>
       </c>
       <c r="I103" t="n">
         <v>94.5</v>
       </c>
-      <c r="J103" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3938,26 +3583,19 @@
         <v>800</v>
       </c>
       <c r="G104" t="n">
-        <v>-198748.7208</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>94.5</v>
       </c>
       <c r="I104" t="n">
         <v>94.5</v>
       </c>
-      <c r="J104" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3979,26 +3617,23 @@
         <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>-198748.7208</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>94.5</v>
       </c>
       <c r="I105" t="n">
         <v>94.5</v>
       </c>
-      <c r="J105" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4020,26 +3655,23 @@
         <v>11830.6878</v>
       </c>
       <c r="G106" t="n">
-        <v>-198748.7208</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>94.5</v>
       </c>
       <c r="I106" t="n">
         <v>94.5</v>
       </c>
-      <c r="J106" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4061,26 +3693,19 @@
         <v>800</v>
       </c>
       <c r="G107" t="n">
-        <v>-198748.7208</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>94.5</v>
       </c>
       <c r="I107" t="n">
         <v>94.5</v>
       </c>
-      <c r="J107" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4102,26 +3727,23 @@
         <v>2000</v>
       </c>
       <c r="G108" t="n">
-        <v>-198748.7208</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>94.5</v>
       </c>
       <c r="I108" t="n">
         <v>94.5</v>
       </c>
-      <c r="J108" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4143,26 +3765,23 @@
         <v>1612</v>
       </c>
       <c r="G109" t="n">
-        <v>-198748.7208</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>94.5</v>
       </c>
       <c r="I109" t="n">
         <v>94.5</v>
       </c>
-      <c r="J109" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4184,26 +3803,23 @@
         <v>14400</v>
       </c>
       <c r="G110" t="n">
-        <v>-184348.7208</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>94.5</v>
       </c>
       <c r="I110" t="n">
         <v>94.5</v>
       </c>
-      <c r="J110" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4225,26 +3841,23 @@
         <v>10980</v>
       </c>
       <c r="G111" t="n">
-        <v>-173368.7208</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="I111" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="J111" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K111" t="inlineStr">
+        <v>94.5</v>
+      </c>
+      <c r="J111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4266,26 +3879,23 @@
         <v>45.7681</v>
       </c>
       <c r="G112" t="n">
-        <v>-173368.7208</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="I112" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="J112" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K112" t="inlineStr">
+        <v>94.5</v>
+      </c>
+      <c r="J112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4307,26 +3917,21 @@
         <v>2400</v>
       </c>
       <c r="G113" t="n">
-        <v>-173368.7208</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="J113" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K113" t="inlineStr">
+        <v>94.5</v>
+      </c>
+      <c r="J113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4348,24 +3953,21 @@
         <v>3200</v>
       </c>
       <c r="G114" t="n">
-        <v>-173368.7208</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K114" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4387,24 +3989,21 @@
         <v>1255.6375</v>
       </c>
       <c r="G115" t="n">
-        <v>-173368.7208</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K115" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4426,24 +4025,21 @@
         <v>4214.0604</v>
       </c>
       <c r="G116" t="n">
-        <v>-169154.6604</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K116" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4465,24 +4061,21 @@
         <v>40</v>
       </c>
       <c r="G117" t="n">
-        <v>-169154.6604</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K117" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4504,24 +4097,21 @@
         <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>-169154.6604</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K118" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4543,24 +4133,21 @@
         <v>273.4938</v>
       </c>
       <c r="G119" t="n">
-        <v>-169428.1542</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K119" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4582,24 +4169,21 @@
         <v>1000</v>
       </c>
       <c r="G120" t="n">
-        <v>-168428.1542</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K120" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4621,24 +4205,21 @@
         <v>1000</v>
       </c>
       <c r="G121" t="n">
-        <v>-168428.1542</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K121" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4660,24 +4241,21 @@
         <v>213.5749</v>
       </c>
       <c r="G122" t="n">
-        <v>-168641.7291</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K122" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4699,24 +4277,21 @@
         <v>9673.7129</v>
       </c>
       <c r="G123" t="n">
-        <v>-178315.442</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K123" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4738,24 +4313,21 @@
         <v>10</v>
       </c>
       <c r="G124" t="n">
-        <v>-178305.442</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K124" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4777,24 +4349,21 @@
         <v>10</v>
       </c>
       <c r="G125" t="n">
-        <v>-178295.442</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K125" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4816,24 +4385,21 @@
         <v>3317.2823</v>
       </c>
       <c r="G126" t="n">
-        <v>-178295.442</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K126" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4855,24 +4421,21 @@
         <v>8887.884599999999</v>
       </c>
       <c r="G127" t="n">
-        <v>-169407.5574</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K127" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4894,24 +4457,21 @@
         <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>-169397.5574</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K128" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4933,24 +4493,21 @@
         <v>51.3675</v>
       </c>
       <c r="G129" t="n">
-        <v>-169397.5574</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K129" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4972,24 +4529,21 @@
         <v>42.5282</v>
       </c>
       <c r="G130" t="n">
-        <v>-169397.5574</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K130" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5011,24 +4565,21 @@
         <v>37.709</v>
       </c>
       <c r="G131" t="n">
-        <v>-169397.5574</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K131" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5050,24 +4601,21 @@
         <v>312.9541</v>
       </c>
       <c r="G132" t="n">
-        <v>-169710.5115000001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K132" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5089,24 +4637,21 @@
         <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>-169700.5115000001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K133" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5128,24 +4673,21 @@
         <v>800</v>
       </c>
       <c r="G134" t="n">
-        <v>-170500.5115000001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K134" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5167,24 +4709,21 @@
         <v>10</v>
       </c>
       <c r="G135" t="n">
-        <v>-170490.5115000001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K135" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5206,24 +4745,21 @@
         <v>251.3783</v>
       </c>
       <c r="G136" t="n">
-        <v>-170741.8898000001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K136" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5245,24 +4781,21 @@
         <v>10</v>
       </c>
       <c r="G137" t="n">
-        <v>-170731.8898000001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K137" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5284,24 +4817,21 @@
         <v>20</v>
       </c>
       <c r="G138" t="n">
-        <v>-170711.8898000001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K138" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5323,24 +4853,21 @@
         <v>10.11</v>
       </c>
       <c r="G139" t="n">
-        <v>-170701.7798000001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K139" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5362,24 +4889,21 @@
         <v>55.5879</v>
       </c>
       <c r="G140" t="n">
-        <v>-170701.7798000001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K140" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5401,24 +4925,21 @@
         <v>10</v>
       </c>
       <c r="G141" t="n">
-        <v>-170711.7798000001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K141" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5440,24 +4961,21 @@
         <v>10</v>
       </c>
       <c r="G142" t="n">
-        <v>-170721.7798000001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K142" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5479,24 +4997,21 @@
         <v>10</v>
       </c>
       <c r="G143" t="n">
-        <v>-170711.7798000001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K143" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5518,24 +5033,21 @@
         <v>10</v>
       </c>
       <c r="G144" t="n">
-        <v>-170701.7798000001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K144" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5557,24 +5069,21 @@
         <v>5128.2051</v>
       </c>
       <c r="G145" t="n">
-        <v>-175829.9849000001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K145" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5596,24 +5105,21 @@
         <v>330</v>
       </c>
       <c r="G146" t="n">
-        <v>-176159.9849000001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K146" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5635,24 +5141,21 @@
         <v>3200</v>
       </c>
       <c r="G147" t="n">
-        <v>-172959.9849000001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K147" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5674,24 +5177,21 @@
         <v>10800</v>
       </c>
       <c r="G148" t="n">
-        <v>-162159.9849000001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K148" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5713,24 +5213,21 @@
         <v>3523</v>
       </c>
       <c r="G149" t="n">
-        <v>-158636.9849000001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K149" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5752,24 +5249,21 @@
         <v>2380</v>
       </c>
       <c r="G150" t="n">
-        <v>-158636.9849000001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K150" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5791,24 +5285,21 @@
         <v>3564</v>
       </c>
       <c r="G151" t="n">
-        <v>-158636.9849000001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K151" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5830,24 +5321,21 @@
         <v>3477</v>
       </c>
       <c r="G152" t="n">
-        <v>-158636.9849000001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K152" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5869,24 +5357,21 @@
         <v>1981</v>
       </c>
       <c r="G153" t="n">
-        <v>-158636.9849000001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K153" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5908,24 +5393,21 @@
         <v>10</v>
       </c>
       <c r="G154" t="n">
-        <v>-158626.9849000001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K154" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5947,24 +5429,21 @@
         <v>1139.3628</v>
       </c>
       <c r="G155" t="n">
-        <v>-158626.9849000001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K155" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5986,24 +5465,21 @@
         <v>1772.17</v>
       </c>
       <c r="G156" t="n">
-        <v>-156854.8149000001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K156" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6025,24 +5501,21 @@
         <v>15941.315</v>
       </c>
       <c r="G157" t="n">
-        <v>-140913.4999000001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1.047910052910053</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6064,18 +5537,21 @@
         <v>10</v>
       </c>
       <c r="G158" t="n">
-        <v>-140903.4999000001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6097,18 +5573,23 @@
         <v>120</v>
       </c>
       <c r="G159" t="n">
-        <v>-140783.4999000001</v>
-      </c>
-      <c r="H159" t="n">
         <v>2</v>
       </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1.050026455026455</v>
+      </c>
       <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>1.040554962646745</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6130,18 +5611,15 @@
         <v>10009.6673</v>
       </c>
       <c r="G160" t="n">
-        <v>-140783.4999000001</v>
-      </c>
-      <c r="H160" t="n">
         <v>2</v>
       </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6163,18 +5641,15 @@
         <v>810</v>
       </c>
       <c r="G161" t="n">
-        <v>-140783.4999000001</v>
-      </c>
-      <c r="H161" t="n">
         <v>2</v>
       </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6196,18 +5671,15 @@
         <v>5076.9024</v>
       </c>
       <c r="G162" t="n">
-        <v>-140783.4999000001</v>
-      </c>
-      <c r="H162" t="n">
         <v>2</v>
       </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6229,18 +5701,15 @@
         <v>1543.7785</v>
       </c>
       <c r="G163" t="n">
-        <v>-142327.2784</v>
-      </c>
-      <c r="H163" t="n">
         <v>2</v>
       </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6262,18 +5731,15 @@
         <v>24755.886</v>
       </c>
       <c r="G164" t="n">
-        <v>-167083.1644</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6295,18 +5761,15 @@
         <v>20</v>
       </c>
       <c r="G165" t="n">
-        <v>-167063.1644</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6328,18 +5791,15 @@
         <v>15434.1028</v>
       </c>
       <c r="G166" t="n">
-        <v>-182497.2672</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6361,18 +5821,15 @@
         <v>16449.5043</v>
       </c>
       <c r="G167" t="n">
-        <v>-198946.7715</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
